--- a/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/plate_1/results.xlsx
+++ b/yield_prediction/results/graph_descriptors/WLrbf_2/out_of_sample/additive/plate_1/results.xlsx
@@ -452,7 +452,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>1</v>
+        <v>1000</v>
       </c>
     </row>
     <row r="3">
@@ -498,7 +498,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.13</v>
+        <v>0.317</v>
       </c>
     </row>
     <row r="3">
@@ -508,7 +508,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>23.352</v>
+        <v>20.672</v>
       </c>
     </row>
   </sheetData>
@@ -544,7 +544,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>-0.062</v>
+        <v>0.214</v>
       </c>
     </row>
     <row r="3">
@@ -554,7 +554,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>30.722</v>
+        <v>26.426</v>
       </c>
     </row>
   </sheetData>
@@ -590,7 +590,7 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.313</v>
+        <v>0.414</v>
       </c>
     </row>
     <row r="3">
@@ -600,7 +600,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>21.31</v>
+        <v>19.681</v>
       </c>
     </row>
   </sheetData>
@@ -671,7 +671,7 @@
         </is>
       </c>
       <c r="E2" t="n">
-        <v>23.78067093404778</v>
+        <v>-4.048022994978094</v>
       </c>
     </row>
     <row r="3">
@@ -696,7 +696,7 @@
         </is>
       </c>
       <c r="E3" t="n">
-        <v>24.14555643496157</v>
+        <v>22.54434108906067</v>
       </c>
     </row>
     <row r="4">
@@ -721,7 +721,7 @@
         </is>
       </c>
       <c r="E4" t="n">
-        <v>24.30898637016385</v>
+        <v>28.02216249013357</v>
       </c>
     </row>
     <row r="5">
@@ -746,7 +746,7 @@
         </is>
       </c>
       <c r="E5" t="n">
-        <v>22.86149765075468</v>
+        <v>6.67736966549349</v>
       </c>
     </row>
     <row r="6">
@@ -771,7 +771,7 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>23.0260668569523</v>
+        <v>15.18443618929946</v>
       </c>
     </row>
     <row r="7">
@@ -796,7 +796,7 @@
         </is>
       </c>
       <c r="E7" t="n">
-        <v>23.22644782644274</v>
+        <v>21.47897509473531</v>
       </c>
     </row>
     <row r="8">
@@ -821,7 +821,7 @@
         </is>
       </c>
       <c r="E8" t="n">
-        <v>23.07197641672273</v>
+        <v>13.46924326375866</v>
       </c>
     </row>
     <row r="9">
@@ -846,7 +846,7 @@
         </is>
       </c>
       <c r="E9" t="n">
-        <v>23.23857047919448</v>
+        <v>20.23328542266275</v>
       </c>
     </row>
     <row r="10">
@@ -871,7 +871,7 @@
         </is>
       </c>
       <c r="E10" t="n">
-        <v>23.45305908661529</v>
+        <v>24.08335580709657</v>
       </c>
     </row>
     <row r="11">
@@ -896,7 +896,7 @@
         </is>
       </c>
       <c r="E11" t="n">
-        <v>23.11463357368227</v>
+        <v>24.45259212472896</v>
       </c>
     </row>
     <row r="12">
@@ -921,7 +921,7 @@
         </is>
       </c>
       <c r="E12" t="n">
-        <v>23.34807351704481</v>
+        <v>29.9031434949505</v>
       </c>
     </row>
     <row r="13">
@@ -946,7 +946,7 @@
         </is>
       </c>
       <c r="E13" t="n">
-        <v>23.46072966729371</v>
+        <v>32.60277724790735</v>
       </c>
     </row>
     <row r="14">
@@ -971,7 +971,7 @@
         </is>
       </c>
       <c r="E14" t="n">
-        <v>23.26270372567912</v>
+        <v>15.47225356315672</v>
       </c>
     </row>
     <row r="15">
@@ -996,7 +996,7 @@
         </is>
       </c>
       <c r="E15" t="n">
-        <v>23.67331937321543</v>
+        <v>28.75120930900092</v>
       </c>
     </row>
     <row r="16">
@@ -1021,7 +1021,7 @@
         </is>
       </c>
       <c r="E16" t="n">
-        <v>23.83704865905998</v>
+        <v>34.35772330302082</v>
       </c>
     </row>
     <row r="17">
@@ -1046,7 +1046,7 @@
         </is>
       </c>
       <c r="E17" t="n">
-        <v>22.6249674824014</v>
+        <v>-0.5934118752208342</v>
       </c>
     </row>
     <row r="18">
@@ -1071,7 +1071,7 @@
         </is>
       </c>
       <c r="E18" t="n">
-        <v>23.35630639445238</v>
+        <v>26.00162440928166</v>
       </c>
     </row>
     <row r="19">
@@ -1096,7 +1096,7 @@
         </is>
       </c>
       <c r="E19" t="n">
-        <v>23.64301948238385</v>
+        <v>31.48027493914249</v>
       </c>
     </row>
     <row r="20">
@@ -1121,7 +1121,7 @@
         </is>
       </c>
       <c r="E20" t="n">
-        <v>20.70632722151475</v>
+        <v>10.13229056924282</v>
       </c>
     </row>
     <row r="21">
@@ -1146,7 +1146,7 @@
         </is>
       </c>
       <c r="E21" t="n">
-        <v>21.25492348156208</v>
+        <v>18.64124553333871</v>
       </c>
     </row>
     <row r="22">
@@ -1171,7 +1171,7 @@
         </is>
       </c>
       <c r="E22" t="n">
-        <v>21.54797893313723</v>
+        <v>24.93657385395223</v>
       </c>
     </row>
     <row r="23">
@@ -1196,7 +1196,7 @@
         </is>
       </c>
       <c r="E23" t="n">
-        <v>21.09139642092426</v>
+        <v>16.92545408835834</v>
       </c>
     </row>
     <row r="24">
@@ -1221,7 +1221,7 @@
         </is>
       </c>
       <c r="E24" t="n">
-        <v>21.61000567535986</v>
+        <v>23.69087279647336</v>
       </c>
     </row>
     <row r="25">
@@ -1246,7 +1246,7 @@
         </is>
       </c>
       <c r="E25" t="n">
-        <v>20.35148734355826</v>
+        <v>0.4554314644348842</v>
       </c>
     </row>
     <row r="26">
@@ -1271,7 +1271,7 @@
         </is>
       </c>
       <c r="E26" t="n">
-        <v>21.52825855462906</v>
+        <v>27.04802906984999</v>
       </c>
     </row>
     <row r="27">
@@ -1296,7 +1296,7 @@
         </is>
       </c>
       <c r="E27" t="n">
-        <v>21.6877210641122</v>
+        <v>32.52585389494193</v>
       </c>
     </row>
     <row r="28">
@@ -1321,7 +1321,7 @@
         </is>
       </c>
       <c r="E28" t="n">
-        <v>20.63663014657622</v>
+        <v>11.18125315941753</v>
       </c>
     </row>
     <row r="29">
@@ -1346,7 +1346,7 @@
         </is>
       </c>
       <c r="E29" t="n">
-        <v>21.16662283202008</v>
+        <v>19.68844828100028</v>
       </c>
     </row>
     <row r="30">
@@ -1371,7 +1371,7 @@
         </is>
       </c>
       <c r="E30" t="n">
-        <v>21.34165280701914</v>
+        <v>25.98298621161708</v>
       </c>
     </row>
     <row r="31">
@@ -1396,7 +1396,7 @@
         </is>
       </c>
       <c r="E31" t="n">
-        <v>20.71508542351337</v>
+        <v>17.97322639698583</v>
       </c>
     </row>
     <row r="32">
@@ -1421,7 +1421,7 @@
         </is>
       </c>
       <c r="E32" t="n">
-        <v>21.22636801510238</v>
+        <v>24.73737600246598</v>
       </c>
     </row>
     <row r="33">
@@ -1446,7 +1446,7 @@
         </is>
       </c>
       <c r="E33" t="n">
-        <v>21.4420722596451</v>
+        <v>28.58744445505234</v>
       </c>
     </row>
     <row r="34">
@@ -1471,7 +1471,7 @@
         </is>
       </c>
       <c r="E34" t="n">
-        <v>21.46997347756071</v>
+        <v>28.95675389245169</v>
       </c>
     </row>
     <row r="35">
@@ -1496,7 +1496,7 @@
         </is>
       </c>
       <c r="E35" t="n">
-        <v>22.06894591170232</v>
+        <v>34.40736524469021</v>
       </c>
     </row>
     <row r="36">
@@ -1521,7 +1521,7 @@
         </is>
       </c>
       <c r="E36" t="n">
-        <v>22.17359094615837</v>
+        <v>37.10700316882351</v>
       </c>
     </row>
     <row r="37">
@@ -1546,7 +1546,7 @@
         </is>
       </c>
       <c r="E37" t="n">
-        <v>21.8455092192534</v>
+        <v>19.97629210692419</v>
       </c>
     </row>
     <row r="38">
@@ -1571,7 +1571,7 @@
         </is>
       </c>
       <c r="E38" t="n">
-        <v>22.87450104147754</v>
+        <v>33.25541396450292</v>
       </c>
     </row>
     <row r="39">
@@ -1596,7 +1596,7 @@
         </is>
       </c>
       <c r="E39" t="n">
-        <v>23.02904582784112</v>
+        <v>38.86193275756541</v>
       </c>
     </row>
     <row r="40">
@@ -1621,7 +1621,7 @@
         </is>
       </c>
       <c r="E40" t="n">
-        <v>23.18659959215962</v>
+        <v>3.910631597699837</v>
       </c>
     </row>
     <row r="41">
@@ -1646,7 +1646,7 @@
         </is>
       </c>
       <c r="E41" t="n">
-        <v>25.70750443133428</v>
+        <v>30.5059014211176</v>
       </c>
     </row>
     <row r="42">
@@ -1671,7 +1671,7 @@
         </is>
       </c>
       <c r="E42" t="n">
-        <v>26.41683907659987</v>
+        <v>35.98455537760169</v>
       </c>
     </row>
     <row r="43">
@@ -1696,7 +1696,7 @@
         </is>
       </c>
       <c r="E43" t="n">
-        <v>25.33762393989221</v>
+        <v>14.63676311458842</v>
       </c>
     </row>
     <row r="44">
@@ -1721,7 +1721,7 @@
         </is>
       </c>
       <c r="E44" t="n">
-        <v>26.95050280910069</v>
+        <v>23.1458466893733</v>
       </c>
     </row>
     <row r="45">
@@ -1746,7 +1746,7 @@
         </is>
       </c>
       <c r="E45" t="n">
-        <v>27.4070692737083</v>
+        <v>29.44117403759124</v>
       </c>
     </row>
     <row r="46">
@@ -1771,7 +1771,7 @@
         </is>
       </c>
       <c r="E46" t="n">
-        <v>24.88640064728608</v>
+        <v>21.43002628886616</v>
       </c>
     </row>
     <row r="47">
@@ -1796,7 +1796,7 @@
         </is>
       </c>
       <c r="E47" t="n">
-        <v>26.41631531346576</v>
+        <v>28.19555245271018</v>
       </c>
     </row>
     <row r="48">
@@ -1821,7 +1821,7 @@
         </is>
       </c>
       <c r="E48" t="n">
-        <v>19.93957935799212</v>
+        <v>2.919207767681502</v>
       </c>
     </row>
     <row r="49">
@@ -1846,7 +1846,7 @@
         </is>
       </c>
       <c r="E49" t="n">
-        <v>21.11561410452221</v>
+        <v>29.51180980437569</v>
       </c>
     </row>
     <row r="50">
@@ -1871,7 +1871,7 @@
         </is>
       </c>
       <c r="E50" t="n">
-        <v>21.29751270624832</v>
+        <v>34.98962547978086</v>
       </c>
     </row>
     <row r="51">
@@ -1896,7 +1896,7 @@
         </is>
       </c>
       <c r="E51" t="n">
-        <v>20.20204396352805</v>
+        <v>13.64521389492389</v>
       </c>
     </row>
     <row r="52">
@@ -1921,7 +1921,7 @@
         </is>
       </c>
       <c r="E52" t="n">
-        <v>20.73868373599093</v>
+        <v>22.15244229408741</v>
       </c>
     </row>
     <row r="53">
@@ -1946,7 +1946,7 @@
         </is>
       </c>
       <c r="E53" t="n">
-        <v>20.93418616978995</v>
+        <v>28.44696195012871</v>
       </c>
     </row>
     <row r="54">
@@ -1971,7 +1971,7 @@
         </is>
       </c>
       <c r="E54" t="n">
-        <v>20.33202607032347</v>
+        <v>20.43720396966497</v>
       </c>
     </row>
     <row r="55">
@@ -1996,7 +1996,7 @@
         </is>
       </c>
       <c r="E55" t="n">
-        <v>20.85021340634456</v>
+        <v>27.20138129623964</v>
       </c>
     </row>
     <row r="56">
@@ -2021,7 +2021,7 @@
         </is>
       </c>
       <c r="E56" t="n">
-        <v>21.09129825981651</v>
+        <v>31.05143991513667</v>
       </c>
     </row>
     <row r="57">
@@ -2046,7 +2046,7 @@
         </is>
       </c>
       <c r="E57" t="n">
-        <v>20.96750118901315</v>
+        <v>31.42076006472515</v>
       </c>
     </row>
     <row r="58">
@@ -2071,7 +2071,7 @@
         </is>
       </c>
       <c r="E58" t="n">
-        <v>21.57268695339832</v>
+        <v>36.8713792486006</v>
       </c>
     </row>
     <row r="59">
@@ -2096,7 +2096,7 @@
         </is>
       </c>
       <c r="E59" t="n">
-        <v>21.68255785839986</v>
+        <v>39.5710123548849</v>
       </c>
     </row>
     <row r="60">
@@ -2121,7 +2121,7 @@
         </is>
       </c>
       <c r="E60" t="n">
-        <v>21.3384444924365</v>
+        <v>22.44026977637266</v>
       </c>
     </row>
     <row r="61">
@@ -2146,7 +2146,7 @@
         </is>
       </c>
       <c r="E61" t="n">
-        <v>22.3773464319023</v>
+        <v>35.71942097625568</v>
       </c>
     </row>
     <row r="62">
@@ -2171,7 +2171,7 @@
         </is>
       </c>
       <c r="E62" t="n">
-        <v>22.53709579195912</v>
+        <v>41.32592836174668</v>
       </c>
     </row>
     <row r="63">
@@ -2196,7 +2196,7 @@
         </is>
       </c>
       <c r="E63" t="n">
-        <v>22.4910327449113</v>
+        <v>6.374698427649111</v>
       </c>
     </row>
     <row r="64">
@@ -2221,7 +2221,7 @@
         </is>
       </c>
       <c r="E64" t="n">
-        <v>24.9955032798613</v>
+        <v>32.96997268067226</v>
       </c>
     </row>
     <row r="65">
@@ -2246,7 +2246,7 @@
         </is>
       </c>
       <c r="E65" t="n">
-        <v>25.75255273859831</v>
+        <v>38.44861748564661</v>
       </c>
     </row>
     <row r="66">
@@ -2271,7 +2271,7 @@
         </is>
       </c>
       <c r="E66" t="n">
-        <v>24.42633118304303</v>
+        <v>17.10101439357023</v>
       </c>
     </row>
     <row r="67">
@@ -2296,7 +2296,7 @@
         </is>
       </c>
       <c r="E67" t="n">
-        <v>26.06095997899416</v>
+        <v>25.61013124474535</v>
       </c>
     </row>
     <row r="68">
@@ -2321,7 +2321,7 @@
         </is>
       </c>
       <c r="E68" t="n">
-        <v>26.54240555789795</v>
+        <v>31.90544031663122</v>
       </c>
     </row>
     <row r="69">
@@ -2346,7 +2346,7 @@
         </is>
       </c>
       <c r="E69" t="n">
-        <v>24.03452918992978</v>
+        <v>23.89429440707586</v>
       </c>
     </row>
     <row r="70">
@@ -2371,7 +2371,7 @@
         </is>
       </c>
       <c r="E70" t="n">
-        <v>25.58713104915391</v>
+        <v>30.65984829145653</v>
       </c>
     </row>
     <row r="71">
@@ -2396,7 +2396,7 @@
         </is>
       </c>
       <c r="E71" t="n">
-        <v>23.49848970109311</v>
+        <v>-2.121382926283371</v>
       </c>
     </row>
     <row r="72">
@@ -2421,7 +2421,7 @@
         </is>
       </c>
       <c r="E72" t="n">
-        <v>24.26520015659137</v>
+        <v>24.47111963968776</v>
       </c>
     </row>
     <row r="73">
@@ -2446,7 +2446,7 @@
         </is>
       </c>
       <c r="E73" t="n">
-        <v>24.52174259107238</v>
+        <v>29.94897001037971</v>
       </c>
     </row>
     <row r="74">
@@ -2471,7 +2471,7 @@
         </is>
       </c>
       <c r="E74" t="n">
-        <v>23.87319309775179</v>
+        <v>8.60423863610318</v>
       </c>
     </row>
     <row r="75">
@@ -2496,7 +2496,7 @@
         </is>
       </c>
       <c r="E75" t="n">
-        <v>24.20827076725744</v>
+        <v>17.11139125672067</v>
       </c>
     </row>
     <row r="76">
@@ -2521,7 +2521,7 @@
         </is>
       </c>
       <c r="E76" t="n">
-        <v>24.39186093152011</v>
+        <v>23.40595178869349</v>
       </c>
     </row>
     <row r="77">
@@ -2546,7 +2546,7 @@
         </is>
       </c>
       <c r="E77" t="n">
-        <v>23.8019002159598</v>
+        <v>15.39615248931974</v>
       </c>
     </row>
     <row r="78">
@@ -2571,7 +2571,7 @@
         </is>
       </c>
       <c r="E78" t="n">
-        <v>24.14710695460928</v>
+        <v>22.16026296493665</v>
       </c>
     </row>
     <row r="79">
@@ -2596,7 +2596,7 @@
         </is>
       </c>
       <c r="E79" t="n">
-        <v>24.36229716076206</v>
+        <v>26.01035067891094</v>
       </c>
     </row>
     <row r="80">
@@ -2621,7 +2621,7 @@
         </is>
       </c>
       <c r="E80" t="n">
-        <v>24.35639193428998</v>
+        <v>26.37959434836428</v>
       </c>
     </row>
     <row r="81">
@@ -2646,7 +2646,7 @@
         </is>
       </c>
       <c r="E81" t="n">
-        <v>24.69353285628442</v>
+        <v>31.83018219508718</v>
       </c>
     </row>
     <row r="82">
@@ -2671,7 +2671,7 @@
         </is>
       </c>
       <c r="E82" t="n">
-        <v>24.83365370807337</v>
+        <v>34.52982988018182</v>
       </c>
     </row>
     <row r="83">
@@ -2696,7 +2696,7 @@
         </is>
       </c>
       <c r="E83" t="n">
-        <v>24.57066687873969</v>
+        <v>17.39918338519381</v>
       </c>
     </row>
     <row r="84">
@@ -2721,7 +2721,7 @@
         </is>
       </c>
       <c r="E84" t="n">
-        <v>25.1408488251972</v>
+        <v>30.67823804623284</v>
       </c>
     </row>
     <row r="85">
@@ -2746,7 +2746,7 @@
         </is>
       </c>
       <c r="E85" t="n">
-        <v>25.36535496746325</v>
+        <v>36.28477947374695</v>
       </c>
     </row>
     <row r="86">
@@ -2771,7 +2771,7 @@
         </is>
       </c>
       <c r="E86" t="n">
-        <v>23.91035288124738</v>
+        <v>1.333521096310239</v>
       </c>
     </row>
     <row r="87">
@@ -2796,7 +2796,7 @@
         </is>
       </c>
       <c r="E87" t="n">
-        <v>25.27404207195325</v>
+        <v>27.92869587287744</v>
       </c>
     </row>
     <row r="88">
@@ -2821,7 +2821,7 @@
         </is>
       </c>
       <c r="E88" t="n">
-        <v>26.05084391401897</v>
+        <v>33.40737537564003</v>
       </c>
     </row>
     <row r="89">
@@ -2846,7 +2846,7 @@
         </is>
       </c>
       <c r="E89" t="n">
-        <v>24.6633463012718</v>
+        <v>12.05945246098664</v>
       </c>
     </row>
     <row r="90">
@@ -2871,7 +2871,7 @@
         </is>
       </c>
       <c r="E90" t="n">
-        <v>25.67016535542979</v>
+        <v>20.56849352979755</v>
       </c>
     </row>
     <row r="91">
@@ -2896,7 +2896,7 @@
         </is>
       </c>
       <c r="E91" t="n">
-        <v>26.20387001586856</v>
+        <v>26.86384347892438</v>
       </c>
     </row>
     <row r="92">
@@ -2921,7 +2921,7 @@
         </is>
       </c>
       <c r="E92" t="n">
-        <v>24.50764818234936</v>
+        <v>18.85265624288623</v>
       </c>
     </row>
     <row r="93">
@@ -2946,7 +2946,7 @@
         </is>
       </c>
       <c r="E93" t="n">
-        <v>25.49856354364383</v>
+        <v>25.61814327307225</v>
       </c>
     </row>
     <row r="94">
@@ -2971,7 +2971,7 @@
         </is>
       </c>
       <c r="E94" t="n">
-        <v>21.89946278318846</v>
+        <v>27.54147989150302</v>
       </c>
     </row>
     <row r="95">
@@ -2996,7 +2996,7 @@
         </is>
       </c>
       <c r="E95" t="n">
-        <v>21.62194655507266</v>
+        <v>27.91109124148473</v>
       </c>
     </row>
     <row r="96">
@@ -3021,7 +3021,7 @@
         </is>
       </c>
       <c r="E96" t="n">
-        <v>22.01497029398612</v>
+        <v>33.36250672117792</v>
       </c>
     </row>
     <row r="97">
@@ -3046,7 +3046,7 @@
         </is>
       </c>
       <c r="E97" t="n">
-        <v>22.19795385338657</v>
+        <v>36.06254637760522</v>
       </c>
     </row>
     <row r="98">
@@ -3071,7 +3071,7 @@
         </is>
       </c>
       <c r="E98" t="n">
-        <v>21.93424105248087</v>
+        <v>18.92994058182235</v>
       </c>
     </row>
     <row r="99">
@@ -3096,7 +3096,7 @@
         </is>
       </c>
       <c r="E99" t="n">
-        <v>22.55912701083199</v>
+        <v>32.21076327872977</v>
       </c>
     </row>
     <row r="100">
@@ -3121,7 +3121,7 @@
         </is>
       </c>
       <c r="E100" t="n">
-        <v>22.8351856230034</v>
+        <v>37.81825322216453</v>
       </c>
     </row>
     <row r="101">
@@ -3146,7 +3146,7 @@
         </is>
       </c>
       <c r="E101" t="n">
-        <v>23.52606474356011</v>
+        <v>8.607157278279221</v>
       </c>
     </row>
     <row r="102">
@@ -3171,7 +3171,7 @@
         </is>
       </c>
       <c r="E102" t="n">
-        <v>24.35769049915684</v>
+        <v>35.20199194118716</v>
       </c>
     </row>
     <row r="103">
@@ -3196,7 +3196,7 @@
         </is>
       </c>
       <c r="E103" t="n">
-        <v>24.67594072814671</v>
+        <v>40.6807494381837</v>
       </c>
     </row>
     <row r="104">
@@ -3221,7 +3221,7 @@
         </is>
       </c>
       <c r="E104" t="n">
-        <v>21.74288470994951</v>
+        <v>19.33323711999727</v>
       </c>
     </row>
     <row r="105">
@@ -3246,7 +3246,7 @@
         </is>
       </c>
       <c r="E105" t="n">
-        <v>22.33965589904941</v>
+        <v>27.8425453771725</v>
       </c>
     </row>
     <row r="106">
@@ -3271,7 +3271,7 @@
         </is>
       </c>
       <c r="E106" t="n">
-        <v>22.66141086010991</v>
+        <v>34.13795457047031</v>
       </c>
     </row>
     <row r="107">
@@ -3296,7 +3296,7 @@
         </is>
       </c>
       <c r="E107" t="n">
-        <v>22.05830330512854</v>
+        <v>26.12673053490012</v>
       </c>
     </row>
     <row r="108">
@@ -3321,7 +3321,7 @@
         </is>
       </c>
       <c r="E108" t="n">
-        <v>22.63806337804696</v>
+        <v>32.89241873455485</v>
       </c>
     </row>
     <row r="109">
@@ -3346,7 +3346,7 @@
         </is>
       </c>
       <c r="E109" t="n">
-        <v>22.94330847724759</v>
+        <v>36.74308356710613</v>
       </c>
     </row>
     <row r="110">
@@ -3371,7 +3371,7 @@
         </is>
       </c>
       <c r="E110" t="n">
-        <v>22.77420014981113</v>
+        <v>37.11304097812133</v>
       </c>
     </row>
     <row r="111">
@@ -3396,7 +3396,7 @@
         </is>
       </c>
       <c r="E111" t="n">
-        <v>23.18508024534804</v>
+        <v>42.56455901623436</v>
       </c>
     </row>
     <row r="112">
@@ -3421,7 +3421,7 @@
         </is>
       </c>
       <c r="E112" t="n">
-        <v>23.41641129717252</v>
+        <v>45.26463310082006</v>
       </c>
     </row>
     <row r="113">
@@ -3446,7 +3446,7 @@
         </is>
       </c>
       <c r="E113" t="n">
-        <v>23.03849379529906</v>
+        <v>28.13172083045113</v>
       </c>
     </row>
     <row r="114">
@@ -3471,7 +3471,7 @@
         </is>
       </c>
       <c r="E114" t="n">
-        <v>23.68653840976429</v>
+        <v>41.41281576347372</v>
       </c>
     </row>
     <row r="115">
@@ -3496,7 +3496,7 @@
         </is>
       </c>
       <c r="E115" t="n">
-        <v>24.04772215255387</v>
+        <v>47.02044142172277</v>
       </c>
     </row>
     <row r="116">
@@ -3521,7 +3521,7 @@
         </is>
       </c>
       <c r="E116" t="n">
-        <v>26.89339109593317</v>
+        <v>32.04615761719488</v>
       </c>
     </row>
     <row r="117">
@@ -3546,7 +3546,7 @@
         </is>
       </c>
       <c r="E117" t="n">
-        <v>28.03966005626291</v>
+        <v>32.41584208780337</v>
       </c>
     </row>
     <row r="118">
@@ -3571,7 +3571,7 @@
         </is>
       </c>
       <c r="E118" t="n">
-        <v>29.24570895717191</v>
+        <v>37.86731755471472</v>
       </c>
     </row>
     <row r="119">
@@ -3596,7 +3596,7 @@
         </is>
       </c>
       <c r="E119" t="n">
-        <v>29.60572107941703</v>
+        <v>40.56736138328536</v>
       </c>
     </row>
     <row r="120">
@@ -3621,7 +3621,7 @@
         </is>
       </c>
       <c r="E120" t="n">
-        <v>28.34659886201846</v>
+        <v>23.4345681944471</v>
       </c>
     </row>
     <row r="121">
@@ -3646,7 +3646,7 @@
         </is>
       </c>
       <c r="E121" t="n">
-        <v>30.27486679322709</v>
+        <v>36.71555701712005</v>
       </c>
     </row>
     <row r="122">
@@ -3671,7 +3671,7 @@
         </is>
       </c>
       <c r="E122" t="n">
-        <v>30.85913138555951</v>
+        <v>42.32305176224368</v>
       </c>
     </row>
     <row r="123">
@@ -3696,7 +3696,7 @@
         </is>
       </c>
       <c r="E123" t="n">
-        <v>26.13423380538568</v>
+        <v>13.11130748342426</v>
       </c>
     </row>
     <row r="124">
@@ -3721,7 +3721,7 @@
         </is>
       </c>
       <c r="E124" t="n">
-        <v>28.76045749984215</v>
+        <v>39.70637568160664</v>
       </c>
     </row>
     <row r="125">
@@ -3746,7 +3746,7 @@
         </is>
       </c>
       <c r="E125" t="n">
-        <v>29.38471892555622</v>
+        <v>45.18513660362392</v>
       </c>
     </row>
     <row r="126">
@@ -3771,7 +3771,7 @@
         </is>
       </c>
       <c r="E126" t="n">
-        <v>29.16203638973928</v>
+        <v>23.83781639775721</v>
       </c>
     </row>
     <row r="127">
@@ -3796,7 +3796,7 @@
         </is>
       </c>
       <c r="E127" t="n">
-        <v>30.84965483856896</v>
+        <v>32.34725326481187</v>
       </c>
     </row>
     <row r="128">
@@ -3821,7 +3821,7 @@
         </is>
       </c>
       <c r="E128" t="n">
-        <v>31.27751590825432</v>
+        <v>38.64266148458258</v>
       </c>
     </row>
     <row r="129">
@@ -3846,7 +3846,7 @@
         </is>
       </c>
       <c r="E129" t="n">
-        <v>28.51714366924785</v>
+        <v>30.63140946928907</v>
       </c>
     </row>
     <row r="130">
@@ -3871,7 +3871,7 @@
         </is>
       </c>
       <c r="E130" t="n">
-        <v>30.10703228421425</v>
+        <v>37.39720512300569</v>
       </c>
     </row>
     <row r="131">
@@ -3896,7 +3896,7 @@
         </is>
       </c>
       <c r="E131" t="n">
-        <v>30.54608968420726</v>
+        <v>41.24786802482045</v>
       </c>
     </row>
     <row r="132">
@@ -3921,7 +3921,7 @@
         </is>
       </c>
       <c r="E132" t="n">
-        <v>32.09301492270919</v>
+        <v>41.61789855394052</v>
       </c>
     </row>
     <row r="133">
@@ -3946,7 +3946,7 @@
         </is>
       </c>
       <c r="E133" t="n">
-        <v>33.3360426740124</v>
+        <v>47.06947657801648</v>
       </c>
     </row>
     <row r="134">
@@ -3971,7 +3971,7 @@
         </is>
       </c>
       <c r="E134" t="n">
-        <v>33.67975776582687</v>
+        <v>49.76955483388504</v>
       </c>
     </row>
     <row r="135">
@@ -3996,7 +3996,7 @@
         </is>
       </c>
       <c r="E135" t="n">
-        <v>32.26221981985056</v>
+        <v>32.63645517142875</v>
       </c>
     </row>
     <row r="136">
@@ -4021,7 +4021,7 @@
         </is>
       </c>
       <c r="E136" t="n">
-        <v>34.24385113936141</v>
+        <v>45.91771622903009</v>
       </c>
     </row>
     <row r="137">
@@ -4046,7 +4046,7 @@
         </is>
       </c>
       <c r="E137" t="n">
-        <v>34.80291891950572</v>
+        <v>51.52534668767562</v>
       </c>
     </row>
     <row r="138">
@@ -4071,7 +4071,7 @@
         </is>
       </c>
       <c r="E138" t="n">
-        <v>26.09185100123917</v>
+        <v>34.51044362133491</v>
       </c>
     </row>
     <row r="139">
@@ -4096,7 +4096,7 @@
         </is>
       </c>
       <c r="E139" t="n">
-        <v>27.09039371760623</v>
+        <v>34.8801387988254</v>
       </c>
     </row>
     <row r="140">
@@ -4121,7 +4121,7 @@
         </is>
       </c>
       <c r="E140" t="n">
-        <v>28.30356594559311</v>
+        <v>40.33162209673374</v>
       </c>
     </row>
     <row r="141">
@@ -4146,7 +4146,7 @@
         </is>
       </c>
       <c r="E141" t="n">
-        <v>28.68090136274839</v>
+        <v>43.03166110690093</v>
       </c>
     </row>
     <row r="142">
@@ -4171,7 +4171,7 @@
         </is>
       </c>
       <c r="E142" t="n">
-        <v>27.41983796823061</v>
+        <v>25.89883640051228</v>
       </c>
     </row>
     <row r="143">
@@ -4196,7 +4196,7 @@
         </is>
       </c>
       <c r="E143" t="n">
-        <v>29.35515823368139</v>
+        <v>39.17985456602271</v>
       </c>
     </row>
     <row r="144">
@@ -4221,7 +4221,7 @@
         </is>
       </c>
       <c r="E144" t="n">
-        <v>29.9673090951314</v>
+        <v>44.78733790085808</v>
       </c>
     </row>
     <row r="145">
@@ -4246,7 +4246,7 @@
         </is>
       </c>
       <c r="E145" t="n">
-        <v>25.51582670351319</v>
+        <v>15.57540619812751</v>
       </c>
     </row>
     <row r="146">
@@ -4271,7 +4271,7 @@
         </is>
       </c>
       <c r="E146" t="n">
-        <v>28.12973217669325</v>
+        <v>42.17047882491688</v>
       </c>
     </row>
     <row r="147">
@@ -4296,7 +4296,7 @@
         </is>
       </c>
       <c r="E147" t="n">
-        <v>28.79767061650215</v>
+        <v>47.64923059433779</v>
       </c>
     </row>
     <row r="148">
@@ -4321,7 +4321,7 @@
         </is>
       </c>
       <c r="E148" t="n">
-        <v>28.35364484725014</v>
+        <v>26.30209955912945</v>
       </c>
     </row>
     <row r="149">
@@ -4346,7 +4346,7 @@
         </is>
       </c>
       <c r="E149" t="n">
-        <v>30.05799830256932</v>
+        <v>34.8115697007175</v>
       </c>
     </row>
     <row r="150">
@@ -4371,7 +4371,7 @@
         </is>
       </c>
       <c r="E150" t="n">
-        <v>30.51250902074265</v>
+        <v>41.10695964316706</v>
       </c>
     </row>
     <row r="151">
@@ -4396,7 +4396,7 @@
         </is>
       </c>
       <c r="E151" t="n">
-        <v>27.76670910202647</v>
+        <v>33.09570946998015</v>
       </c>
     </row>
     <row r="152">
@@ -4421,7 +4421,7 @@
         </is>
       </c>
       <c r="E152" t="n">
-        <v>29.37331098071558</v>
+        <v>39.86153284295899</v>
       </c>
     </row>
     <row r="153">
@@ -4446,7 +4446,7 @@
         </is>
       </c>
       <c r="E153" t="n">
-        <v>29.84255175058776</v>
+        <v>43.71218590934321</v>
       </c>
     </row>
     <row r="154">
@@ -4471,7 +4471,7 @@
         </is>
       </c>
       <c r="E154" t="n">
-        <v>31.24760270812199</v>
+        <v>44.08222714388508</v>
       </c>
     </row>
     <row r="155">
@@ -4496,7 +4496,7 @@
         </is>
       </c>
       <c r="E155" t="n">
-        <v>32.49583711054876</v>
+        <v>49.5338129977301</v>
       </c>
     </row>
     <row r="156">
@@ -4521,7 +4521,7 @@
         </is>
       </c>
       <c r="E156" t="n">
-        <v>32.85402598267517</v>
+        <v>52.23388643414246</v>
       </c>
     </row>
     <row r="157">
@@ -4546,7 +4546,7 @@
         </is>
       </c>
       <c r="E157" t="n">
-        <v>31.43581439804998</v>
+        <v>35.10075525621581</v>
       </c>
     </row>
     <row r="158">
@@ -4571,7 +4571,7 @@
         </is>
       </c>
       <c r="E158" t="n">
-        <v>33.42242913571555</v>
+        <v>48.38204565462588</v>
       </c>
     </row>
     <row r="159">
@@ -4596,7 +4596,7 @@
         </is>
       </c>
       <c r="E159" t="n">
-        <v>34.00311098844195</v>
+        <v>53.98966470162061</v>
       </c>
     </row>
     <row r="160">
@@ -4621,7 +4621,7 @@
         </is>
       </c>
       <c r="E160" t="n">
-        <v>26.1075808379442</v>
+        <v>29.4687676994292</v>
       </c>
     </row>
     <row r="161">
@@ -4646,7 +4646,7 @@
         </is>
       </c>
       <c r="E161" t="n">
-        <v>25.70822776518139</v>
+        <v>29.83838639820802</v>
       </c>
     </row>
     <row r="162">
@@ -4671,7 +4671,7 @@
         </is>
       </c>
       <c r="E162" t="n">
-        <v>26.4619849362891</v>
+        <v>35.28983835770437</v>
       </c>
     </row>
     <row r="163">
@@ -4696,7 +4696,7 @@
         </is>
       </c>
       <c r="E163" t="n">
-        <v>26.88673139788484</v>
+        <v>37.98989194756309</v>
       </c>
     </row>
     <row r="164">
@@ -4721,7 +4721,7 @@
         </is>
       </c>
       <c r="E164" t="n">
-        <v>25.74925224357764</v>
+        <v>20.85716333259161</v>
       </c>
     </row>
     <row r="165">
@@ -4746,7 +4746,7 @@
         </is>
       </c>
       <c r="E165" t="n">
-        <v>26.95018731564928</v>
+        <v>34.13808495306962</v>
       </c>
     </row>
     <row r="166">
@@ -4771,7 +4771,7 @@
         </is>
       </c>
       <c r="E166" t="n">
-        <v>27.63464154493546</v>
+        <v>39.74560233268649</v>
       </c>
     </row>
     <row r="167">
@@ -4796,7 +4796,7 @@
         </is>
       </c>
       <c r="E167" t="n">
-        <v>26.17965441560924</v>
+        <v>10.53418868330569</v>
       </c>
     </row>
     <row r="168">
@@ -4821,7 +4821,7 @@
         </is>
       </c>
       <c r="E168" t="n">
-        <v>27.59424662740334</v>
+        <v>37.12916183655564</v>
       </c>
     </row>
     <row r="169">
@@ -4846,7 +4846,7 @@
         </is>
       </c>
       <c r="E169" t="n">
-        <v>28.37716442081458</v>
+        <v>42.60794830514085</v>
       </c>
     </row>
     <row r="170">
@@ -4871,7 +4871,7 @@
         </is>
       </c>
       <c r="E170" t="n">
-        <v>27.49983123746595</v>
+        <v>21.26049744560256</v>
       </c>
     </row>
     <row r="171">
@@ -4896,7 +4896,7 @@
         </is>
       </c>
       <c r="E171" t="n">
-        <v>28.53574664636209</v>
+        <v>29.7698918075907</v>
       </c>
     </row>
     <row r="172">
@@ -4921,7 +4921,7 @@
         </is>
       </c>
       <c r="E172" t="n">
-        <v>29.13358186703512</v>
+        <v>36.0653226281881</v>
       </c>
     </row>
     <row r="173">
@@ -4946,7 +4946,7 @@
         </is>
       </c>
       <c r="E173" t="n">
-        <v>27.21992882676278</v>
+        <v>28.05403112600375</v>
       </c>
     </row>
     <row r="174">
@@ -4971,7 +4971,7 @@
         </is>
       </c>
       <c r="E174" t="n">
-        <v>28.2382662003572</v>
+        <v>34.819787647365</v>
       </c>
     </row>
     <row r="175">
@@ -4996,7 +4996,7 @@
         </is>
       </c>
       <c r="E175" t="n">
-        <v>28.90037712806316</v>
+        <v>38.67046981061613</v>
       </c>
     </row>
     <row r="176">
@@ -5021,7 +5021,7 @@
         </is>
       </c>
       <c r="E176" t="n">
-        <v>28.65565489781862</v>
+        <v>39.04043457040923</v>
       </c>
     </row>
     <row r="177">
@@ -5046,7 +5046,7 @@
         </is>
       </c>
       <c r="E177" t="n">
-        <v>29.43356465722364</v>
+        <v>44.49198908730803</v>
       </c>
     </row>
     <row r="178">
@@ -5071,7 +5071,7 @@
         </is>
       </c>
       <c r="E178" t="n">
-        <v>29.88088954570637</v>
+        <v>47.1920771041991</v>
       </c>
     </row>
     <row r="179">
@@ -5096,7 +5096,7 @@
         </is>
       </c>
       <c r="E179" t="n">
-        <v>28.57347271969537</v>
+        <v>30.05904201458005</v>
       </c>
     </row>
     <row r="180">
@@ -5121,7 +5121,7 @@
         </is>
       </c>
       <c r="E180" t="n">
-        <v>29.81340427697551</v>
+        <v>43.34023587097143</v>
       </c>
     </row>
     <row r="181">
@@ -5146,7 +5146,7 @@
         </is>
       </c>
       <c r="E181" t="n">
-        <v>30.5242293159563</v>
+        <v>48.94788896392966</v>
       </c>
     </row>
     <row r="182">
@@ -5171,7 +5171,7 @@
         </is>
       </c>
       <c r="E182" t="n">
-        <v>18.13178538310396</v>
+        <v>-6.215945185229923</v>
       </c>
     </row>
     <row r="183">
@@ -5196,7 +5196,7 @@
         </is>
       </c>
       <c r="E183" t="n">
-        <v>19.6056640577366</v>
+        <v>20.37645141700326</v>
       </c>
     </row>
     <row r="184">
@@ -5221,7 +5221,7 @@
         </is>
       </c>
       <c r="E184" t="n">
-        <v>20.11235045357441</v>
+        <v>25.85396696044446</v>
       </c>
     </row>
     <row r="185">
@@ -5246,7 +5246,7 @@
         </is>
       </c>
       <c r="E185" t="n">
-        <v>16.03036875001105</v>
+        <v>4.508897835302111</v>
       </c>
     </row>
     <row r="186">
@@ -5271,7 +5271,7 @@
         </is>
       </c>
       <c r="E186" t="n">
-        <v>16.72960717509081</v>
+        <v>13.01584675555974</v>
       </c>
     </row>
     <row r="187">
@@ -5296,7 +5296,7 @@
         </is>
       </c>
       <c r="E187" t="n">
-        <v>17.39843044685748</v>
+        <v>19.31015068867824</v>
       </c>
     </row>
     <row r="188">
@@ -5321,7 +5321,7 @@
         </is>
       </c>
       <c r="E188" t="n">
-        <v>16.53891432075739</v>
+        <v>11.30078928323742</v>
       </c>
     </row>
     <row r="189">
@@ -5346,7 +5346,7 @@
         </is>
       </c>
       <c r="E189" t="n">
-        <v>17.30672935147352</v>
+        <v>18.0647975645373</v>
       </c>
     </row>
     <row r="190">
@@ -5371,7 +5371,7 @@
         </is>
       </c>
       <c r="E190" t="n">
-        <v>18.00944377375662</v>
+        <v>21.91467742691346</v>
       </c>
     </row>
     <row r="191">
@@ -5396,7 +5396,7 @@
         </is>
       </c>
       <c r="E191" t="n">
-        <v>16.73427418752984</v>
+        <v>22.28364958704738</v>
       </c>
     </row>
     <row r="192">
@@ -5421,7 +5421,7 @@
         </is>
       </c>
       <c r="E192" t="n">
-        <v>17.61291796914209</v>
+        <v>27.73415237213517</v>
       </c>
     </row>
     <row r="193">
@@ -5446,7 +5446,7 @@
         </is>
       </c>
       <c r="E193" t="n">
-        <v>18.01507216333044</v>
+        <v>30.43368224394722</v>
       </c>
     </row>
     <row r="194">
@@ -5471,7 +5471,7 @@
         </is>
       </c>
       <c r="E194" t="n">
-        <v>16.88937621410626</v>
+        <v>13.3032964016979</v>
       </c>
     </row>
     <row r="195">
@@ -5496,7 +5496,7 @@
         </is>
       </c>
       <c r="E195" t="n">
-        <v>18.41283193708464</v>
+        <v>26.58217021457377</v>
       </c>
     </row>
     <row r="196">
@@ -5521,7 +5521,7 @@
         </is>
       </c>
       <c r="E196" t="n">
-        <v>19.00905489622723</v>
+        <v>32.1884146171944</v>
       </c>
     </row>
     <row r="197">
@@ -5546,7 +5546,7 @@
         </is>
       </c>
       <c r="E197" t="n">
-        <v>16.76514163374418</v>
+        <v>-2.760187653618726</v>
       </c>
     </row>
     <row r="198">
@@ -5571,7 +5571,7 @@
         </is>
       </c>
       <c r="E198" t="n">
-        <v>19.37964395067063</v>
+        <v>23.83488120017713</v>
       </c>
     </row>
     <row r="199">
@@ -5596,7 +5596,7 @@
         </is>
       </c>
       <c r="E199" t="n">
-        <v>20.43929347172397</v>
+        <v>29.3132258418702</v>
       </c>
     </row>
     <row r="200">
@@ -5621,7 +5621,7 @@
         </is>
       </c>
       <c r="E200" t="n">
-        <v>11.68822681901904</v>
+        <v>7.964965155752527</v>
       </c>
     </row>
     <row r="201">
@@ -5646,7 +5646,7 @@
         </is>
       </c>
       <c r="E201" t="n">
-        <v>13.62760035731038</v>
+        <v>16.47380253947752</v>
       </c>
     </row>
     <row r="202">
@@ -5671,7 +5671,7 @@
         </is>
       </c>
       <c r="E202" t="n">
-        <v>14.73000035595448</v>
+        <v>22.7688958799608</v>
       </c>
     </row>
     <row r="203">
@@ -5696,7 +5696,7 @@
         </is>
       </c>
       <c r="E203" t="n">
-        <v>12.66722695018587</v>
+        <v>14.75814657895394</v>
       </c>
     </row>
     <row r="204">
@@ -5721,7 +5721,7 @@
         </is>
       </c>
       <c r="E204" t="n">
-        <v>14.54236859135706</v>
+        <v>21.52353143229967</v>
       </c>
     </row>
     <row r="205">
@@ -5746,7 +5746,7 @@
         </is>
       </c>
       <c r="E205" t="n">
-        <v>17.47765573241126</v>
+        <v>-1.712603877228428</v>
       </c>
     </row>
     <row r="206">
@@ -5771,7 +5771,7 @@
         </is>
       </c>
       <c r="E206" t="n">
-        <v>21.80349812502405</v>
+        <v>24.88002624608596</v>
       </c>
     </row>
     <row r="207">
@@ -5796,7 +5796,7 @@
         </is>
       </c>
       <c r="E207" t="n">
-        <v>22.38721878577446</v>
+        <v>30.35754521249006</v>
       </c>
     </row>
     <row r="208">
@@ -5821,7 +5821,7 @@
         </is>
       </c>
       <c r="E208" t="n">
-        <v>20.77264540614112</v>
+        <v>9.012668173527306</v>
       </c>
     </row>
     <row r="209">
@@ -5846,7 +5846,7 @@
         </is>
       </c>
       <c r="E209" t="n">
-        <v>22.75228136459666</v>
+        <v>17.51974569148429</v>
       </c>
     </row>
     <row r="210">
@@ -5871,7 +5871,7 @@
         </is>
       </c>
       <c r="E210" t="n">
-        <v>23.38399260333642</v>
+        <v>23.81404864894008</v>
       </c>
     </row>
     <row r="211">
@@ -5896,7 +5896,7 @@
         </is>
       </c>
       <c r="E211" t="n">
-        <v>20.20334189405391</v>
+        <v>15.80465925717631</v>
       </c>
     </row>
     <row r="212">
@@ -5921,7 +5921,7 @@
         </is>
       </c>
       <c r="E212" t="n">
-        <v>22.17402679656076</v>
+        <v>22.56877498560046</v>
       </c>
     </row>
     <row r="213">
@@ -5946,7 +5946,7 @@
         </is>
       </c>
       <c r="E213" t="n">
-        <v>22.95971975256668</v>
+        <v>26.41865291528605</v>
       </c>
     </row>
     <row r="214">
@@ -5971,7 +5971,7 @@
         </is>
       </c>
       <c r="E214" t="n">
-        <v>23.73049618413151</v>
+        <v>26.78769819466273</v>
       </c>
     </row>
     <row r="215">
@@ -5996,7 +5996,7 @@
         </is>
       </c>
       <c r="E215" t="n">
-        <v>25.91625032514836</v>
+        <v>32.23826096122816</v>
       </c>
     </row>
     <row r="216">
@@ -6021,7 +6021,7 @@
         </is>
       </c>
       <c r="E216" t="n">
-        <v>26.30889827200655</v>
+        <v>34.93779500369494</v>
       </c>
     </row>
     <row r="217">
@@ -6046,7 +6046,7 @@
         </is>
       </c>
       <c r="E217" t="n">
-        <v>24.0586847792507</v>
+        <v>17.80722178699701</v>
       </c>
     </row>
     <row r="218">
@@ -6071,7 +6071,7 @@
         </is>
       </c>
       <c r="E218" t="n">
-        <v>27.79870918044698</v>
+        <v>31.08626171092813</v>
       </c>
     </row>
     <row r="219">
@@ -6096,7 +6096,7 @@
         </is>
       </c>
       <c r="E219" t="n">
-        <v>28.38494070535252</v>
+        <v>36.69251091214797</v>
       </c>
     </row>
     <row r="220">
@@ -6121,7 +6121,7 @@
         </is>
       </c>
       <c r="E220" t="n">
-        <v>18.40498444252544</v>
+        <v>1.743742670959666</v>
       </c>
     </row>
     <row r="221">
@@ -6146,7 +6146,7 @@
         </is>
       </c>
       <c r="E221" t="n">
-        <v>27.21473907947757</v>
+        <v>28.33904506394272</v>
       </c>
     </row>
     <row r="222">
@@ -6171,7 +6171,7 @@
         </is>
       </c>
       <c r="E222" t="n">
-        <v>29.34627584579292</v>
+        <v>33.81739313080466</v>
       </c>
     </row>
     <row r="223">
@@ -6196,7 +6196,7 @@
         </is>
       </c>
       <c r="E223" t="n">
-        <v>26.27497642394055</v>
+        <v>12.46932454841495</v>
       </c>
     </row>
     <row r="224">
@@ -6221,7 +6221,7 @@
         </is>
       </c>
       <c r="E224" t="n">
-        <v>31.80217029240858</v>
+        <v>20.97829054259599</v>
       </c>
     </row>
     <row r="225">
@@ -6246,7 +6246,7 @@
         </is>
       </c>
       <c r="E225" t="n">
-        <v>33.23199658080845</v>
+        <v>27.27338290921906</v>
       </c>
     </row>
     <row r="226">
@@ -6271,7 +6271,7 @@
         </is>
       </c>
       <c r="E226" t="n">
-        <v>24.47572667876019</v>
+        <v>19.26260562237208</v>
       </c>
     </row>
     <row r="227">
@@ -6296,7 +6296,7 @@
         </is>
       </c>
       <c r="E227" t="n">
-        <v>29.75786409605197</v>
+        <v>26.02809793179036</v>
       </c>
     </row>
     <row r="228">
@@ -6321,7 +6321,7 @@
         </is>
       </c>
       <c r="E228" t="n">
-        <v>15.7854317468438</v>
+        <v>0.7511318148908295</v>
       </c>
     </row>
     <row r="229">
@@ -6346,7 +6346,7 @@
         </is>
       </c>
       <c r="E229" t="n">
-        <v>20.12504464555619</v>
+        <v>27.34376637001931</v>
       </c>
     </row>
     <row r="230">
@@ -6371,7 +6371,7 @@
         </is>
       </c>
       <c r="E230" t="n">
-        <v>20.77706086368705</v>
+        <v>32.82127618705779</v>
       </c>
     </row>
     <row r="231">
@@ -6396,7 +6396,7 @@
         </is>
       </c>
       <c r="E231" t="n">
-        <v>19.03079680021138</v>
+        <v>11.47658829834855</v>
       </c>
     </row>
     <row r="232">
@@ -6421,7 +6421,7 @@
         </is>
       </c>
       <c r="E232" t="n">
-        <v>21.035672792099</v>
+        <v>19.98369909440369</v>
       </c>
     </row>
     <row r="233">
@@ -6446,7 +6446,7 @@
         </is>
       </c>
       <c r="E233" t="n">
-        <v>21.74035862831893</v>
+        <v>26.27798377784628</v>
       </c>
     </row>
     <row r="234">
@@ -6471,7 +6471,7 @@
         </is>
       </c>
       <c r="E234" t="n">
-        <v>18.64955336927631</v>
+        <v>18.26859621829154</v>
       </c>
     </row>
     <row r="235">
@@ -6496,7 +6496,7 @@
         </is>
       </c>
       <c r="E235" t="n">
-        <v>20.64949687943659</v>
+        <v>25.03273966775449</v>
       </c>
     </row>
     <row r="236">
@@ -6521,7 +6521,7 @@
         </is>
       </c>
       <c r="E236" t="n">
-        <v>21.52279762359263</v>
+        <v>28.88260776419277</v>
       </c>
     </row>
     <row r="237">
@@ -6546,7 +6546,7 @@
         </is>
       </c>
       <c r="E237" t="n">
-        <v>21.73795398622517</v>
+        <v>29.25166375612999</v>
       </c>
     </row>
     <row r="238">
@@ -6571,7 +6571,7 @@
         </is>
       </c>
       <c r="E238" t="n">
-        <v>23.94378110402919</v>
+        <v>34.70223435460646</v>
       </c>
     </row>
     <row r="239">
@@ -6596,7 +6596,7 @@
         </is>
       </c>
       <c r="E239" t="n">
-        <v>24.35979012244776</v>
+        <v>37.40176357959588</v>
       </c>
     </row>
     <row r="240">
@@ -6621,7 +6621,7 @@
         </is>
       </c>
       <c r="E240" t="n">
-        <v>22.06139130343638</v>
+        <v>20.27115884647681</v>
       </c>
     </row>
     <row r="241">
@@ -6646,7 +6646,7 @@
         </is>
       </c>
       <c r="E241" t="n">
-        <v>25.83266121073216</v>
+        <v>33.55022811280533</v>
       </c>
     </row>
     <row r="242">
@@ -6671,7 +6671,7 @@
         </is>
       </c>
       <c r="E242" t="n">
-        <v>26.44618074900013</v>
+        <v>39.15646590708032</v>
       </c>
     </row>
     <row r="243">
@@ -6696,7 +6696,7 @@
         </is>
       </c>
       <c r="E243" t="n">
-        <v>16.33832435062218</v>
+        <v>4.207768886727496</v>
       </c>
     </row>
     <row r="244">
@@ -6721,7 +6721,7 @@
         </is>
       </c>
       <c r="E244" t="n">
-        <v>25.12420588222072</v>
+        <v>30.80307570913574</v>
       </c>
     </row>
     <row r="245">
@@ -6746,7 +6746,7 @@
         </is>
       </c>
       <c r="E245" t="n">
-        <v>27.38986595106709</v>
+        <v>36.281414625236</v>
       </c>
     </row>
     <row r="246">
@@ -6771,7 +6771,7 @@
         </is>
       </c>
       <c r="E246" t="n">
-        <v>23.60451617556497</v>
+        <v>14.93353521372008</v>
       </c>
     </row>
     <row r="247">
@@ -6796,7 +6796,7 @@
         </is>
       </c>
       <c r="E247" t="n">
-        <v>29.22483589029383</v>
+        <v>23.44253448454829</v>
       </c>
     </row>
     <row r="248">
@@ -6821,7 +6821,7 @@
         </is>
       </c>
       <c r="E248" t="n">
-        <v>30.73465219372436</v>
+        <v>29.73760857541659</v>
       </c>
     </row>
     <row r="249">
@@ -6846,7 +6846,7 @@
         </is>
       </c>
       <c r="E249" t="n">
-        <v>21.98177150077214</v>
+        <v>21.7268331253343</v>
       </c>
     </row>
     <row r="250">
@@ -6871,7 +6871,7 @@
         </is>
       </c>
       <c r="E250" t="n">
-        <v>27.36589151192274</v>
+        <v>28.49235315566212</v>
       </c>
     </row>
     <row r="251">
@@ -6896,7 +6896,7 @@
         </is>
       </c>
       <c r="E251" t="n">
-        <v>14.57433377104415</v>
+        <v>-4.289385092739433</v>
       </c>
     </row>
     <row r="252">
@@ -6921,7 +6921,7 @@
         </is>
       </c>
       <c r="E252" t="n">
-        <v>17.31020437801512</v>
+        <v>22.3031499909858</v>
       </c>
     </row>
     <row r="253">
@@ -6946,7 +6946,7 @@
         </is>
       </c>
       <c r="E253" t="n">
-        <v>18.27242257424769</v>
+        <v>27.78069450311087</v>
       </c>
     </row>
     <row r="254">
@@ -6971,7 +6971,7 @@
         </is>
       </c>
       <c r="E254" t="n">
-        <v>16.49411775183816</v>
+        <v>6.435686827537172</v>
       </c>
     </row>
     <row r="255">
@@ -6996,7 +6996,7 @@
         </is>
       </c>
       <c r="E255" t="n">
-        <v>17.70392037029961</v>
+        <v>14.94272184424627</v>
       </c>
     </row>
     <row r="256">
@@ -7021,7 +7021,7 @@
         </is>
       </c>
       <c r="E256" t="n">
-        <v>18.48629662143389</v>
+        <v>21.23704740323383</v>
       </c>
     </row>
     <row r="257">
@@ -7046,7 +7046,7 @@
         </is>
       </c>
       <c r="E257" t="n">
-        <v>16.18361591554608</v>
+        <v>13.22761852864024</v>
       </c>
     </row>
     <row r="258">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="E258" t="n">
-        <v>17.4325619411026</v>
+        <v>19.99169512616489</v>
       </c>
     </row>
     <row r="259">
@@ -7096,7 +7096,7 @@
         </is>
       </c>
       <c r="E259" t="n">
-        <v>18.33165603616148</v>
+        <v>23.84159231750285</v>
       </c>
     </row>
     <row r="260">
@@ -7121,7 +7121,7 @@
         </is>
       </c>
       <c r="E260" t="n">
-        <v>18.13749039686867</v>
+        <v>24.21057183001718</v>
       </c>
     </row>
     <row r="261">
@@ -7146,7 +7146,7 @@
         </is>
       </c>
       <c r="E261" t="n">
-        <v>19.30688577081309</v>
+        <v>29.66111109121353</v>
       </c>
     </row>
     <row r="262">
@@ -7171,7 +7171,7 @@
         </is>
       </c>
       <c r="E262" t="n">
-        <v>19.90043745023147</v>
+        <v>32.36065489462199</v>
       </c>
     </row>
     <row r="263">
@@ -7196,7 +7196,7 @@
         </is>
       </c>
       <c r="E263" t="n">
-        <v>18.72930492647787</v>
+        <v>15.23014624496087</v>
       </c>
     </row>
     <row r="264">
@@ -7221,7 +7221,7 @@
         </is>
       </c>
       <c r="E264" t="n">
-        <v>20.69556200888358</v>
+        <v>28.50911897140732</v>
       </c>
     </row>
     <row r="265">
@@ -7246,7 +7246,7 @@
         </is>
       </c>
       <c r="E265" t="n">
-        <v>21.64225875778825</v>
+        <v>34.11539080743678</v>
       </c>
     </row>
     <row r="266">
@@ -7271,7 +7271,7 @@
         </is>
       </c>
       <c r="E266" t="n">
-        <v>17.21151309565843</v>
+        <v>-0.8333346572144755</v>
       </c>
     </row>
     <row r="267">
@@ -7296,7 +7296,7 @@
         </is>
       </c>
       <c r="E267" t="n">
-        <v>22.12157650587971</v>
+        <v>25.76187268825148</v>
       </c>
     </row>
     <row r="268">
@@ -7321,7 +7321,7 @@
         </is>
       </c>
       <c r="E268" t="n">
-        <v>24.45115236944923</v>
+        <v>31.24024630205823</v>
       </c>
     </row>
     <row r="269">
@@ -7346,7 +7346,7 @@
         </is>
       </c>
       <c r="E269" t="n">
-        <v>20.41440108500917</v>
+        <v>9.892047069524398</v>
       </c>
     </row>
     <row r="270">
@@ -7371,7 +7371,7 @@
         </is>
       </c>
       <c r="E270" t="n">
-        <v>23.97067330994118</v>
+        <v>18.40097055760141</v>
       </c>
     </row>
     <row r="271">
@@ -7396,7 +7396,7 @@
         </is>
       </c>
       <c r="E271" t="n">
-        <v>25.69909548653468</v>
+        <v>24.69608552608107</v>
       </c>
     </row>
     <row r="272">
@@ -7421,7 +7421,7 @@
         </is>
       </c>
       <c r="E272" t="n">
-        <v>19.72274166085557</v>
+        <v>16.6852687538454</v>
       </c>
     </row>
     <row r="273">
@@ -7446,7 +7446,7 @@
         </is>
       </c>
       <c r="E273" t="n">
-        <v>23.24314510980889</v>
+        <v>23.45072192858284</v>
       </c>
     </row>
     <row r="274">
@@ -7471,7 +7471,7 @@
         </is>
       </c>
       <c r="E274" t="n">
-        <v>15.61142398452261</v>
+        <v>25.37394799503632</v>
       </c>
     </row>
     <row r="275">
@@ -7496,7 +7496,7 @@
         </is>
       </c>
       <c r="E275" t="n">
-        <v>14.72299088656235</v>
+        <v>25.74329518119551</v>
       </c>
     </row>
     <row r="276">
@@ -7521,7 +7521,7 @@
         </is>
       </c>
       <c r="E276" t="n">
-        <v>16.12312694621404</v>
+        <v>31.19466208642003</v>
       </c>
     </row>
     <row r="277">
@@ -7546,7 +7546,7 @@
         </is>
       </c>
       <c r="E277" t="n">
-        <v>16.83913120114947</v>
+        <v>33.89459785331935</v>
       </c>
     </row>
     <row r="278">
@@ -7571,7 +7571,7 @@
         </is>
       </c>
       <c r="E278" t="n">
-        <v>15.29791465161502</v>
+        <v>16.76212986597303</v>
       </c>
     </row>
     <row r="279">
@@ -7596,7 +7596,7 @@
         </is>
       </c>
       <c r="E279" t="n">
-        <v>17.52739403722254</v>
+        <v>30.04287067372077</v>
       </c>
     </row>
     <row r="280">
@@ -7621,7 +7621,7 @@
         </is>
       </c>
       <c r="E280" t="n">
-        <v>18.62160873760898</v>
+        <v>35.6500910073715</v>
       </c>
     </row>
     <row r="281">
@@ -7646,7 +7646,7 @@
         </is>
       </c>
       <c r="E281" t="n">
-        <v>18.38426970685106</v>
+        <v>6.441531787732931</v>
       </c>
     </row>
     <row r="282">
@@ -7671,7 +7671,7 @@
         </is>
       </c>
       <c r="E282" t="n">
-        <v>21.30108277869277</v>
+        <v>33.03639906215228</v>
       </c>
     </row>
     <row r="283">
@@ -7696,7 +7696,7 @@
         </is>
       </c>
       <c r="E283" t="n">
-        <v>22.55520850840787</v>
+        <v>38.51485066876167</v>
       </c>
     </row>
     <row r="284">
@@ -7721,7 +7721,7 @@
         </is>
       </c>
       <c r="E284" t="n">
-        <v>13.46052155858338</v>
+        <v>17.16706201087341</v>
       </c>
     </row>
     <row r="285">
@@ -7746,7 +7746,7 @@
         </is>
       </c>
       <c r="E285" t="n">
-        <v>15.54502347717496</v>
+        <v>25.67625271625839</v>
       </c>
     </row>
     <row r="286">
@@ -7771,7 +7771,7 @@
         </is>
       </c>
       <c r="E286" t="n">
-        <v>16.82324231809826</v>
+        <v>31.97142693598422</v>
       </c>
     </row>
     <row r="287">
@@ -7796,7 +7796,7 @@
         </is>
       </c>
       <c r="E287" t="n">
-        <v>14.27454413723116</v>
+        <v>23.96057337537862</v>
       </c>
     </row>
     <row r="288">
@@ -7821,7 +7821,7 @@
         </is>
       </c>
       <c r="E288" t="n">
-        <v>16.33329016868774</v>
+        <v>30.72622774444206</v>
       </c>
     </row>
     <row r="289">
@@ -7846,7 +7846,7 @@
         </is>
       </c>
       <c r="E289" t="n">
-        <v>17.53790470489063</v>
+        <v>34.57670204737333</v>
       </c>
     </row>
     <row r="290">
@@ -7871,7 +7871,7 @@
         </is>
       </c>
       <c r="E290" t="n">
-        <v>16.88662930680018</v>
+        <v>34.94639528644832</v>
       </c>
     </row>
     <row r="291">
@@ -7896,7 +7896,7 @@
         </is>
       </c>
       <c r="E291" t="n">
-        <v>18.33795043856263</v>
+        <v>40.39786476223681</v>
       </c>
     </row>
     <row r="292">
@@ -7921,7 +7921,7 @@
         </is>
       </c>
       <c r="E292" t="n">
-        <v>19.25825826676552</v>
+        <v>43.09783495851237</v>
       </c>
     </row>
     <row r="293">
@@ -7946,7 +7946,7 @@
         </is>
       </c>
       <c r="E293" t="n">
-        <v>17.38396805794722</v>
+        <v>25.96506045524798</v>
       </c>
     </row>
     <row r="294">
@@ -7971,7 +7971,7 @@
         </is>
       </c>
       <c r="E294" t="n">
-        <v>19.67741276514472</v>
+        <v>39.24607353825748</v>
       </c>
     </row>
     <row r="295">
@@ -7996,7 +7996,7 @@
         </is>
       </c>
       <c r="E295" t="n">
-        <v>21.11869808957152</v>
+        <v>44.85342959081261</v>
       </c>
     </row>
     <row r="296">
@@ -8021,7 +8021,7 @@
         </is>
       </c>
       <c r="E296" t="n">
-        <v>31.23876071478938</v>
+        <v>29.87851256326185</v>
       </c>
     </row>
     <row r="297">
@@ -8046,7 +8046,7 @@
         </is>
       </c>
       <c r="E297" t="n">
-        <v>35.36320824817224</v>
+        <v>30.24793286970517</v>
       </c>
     </row>
     <row r="298">
@@ -8071,7 +8071,7 @@
         </is>
       </c>
       <c r="E298" t="n">
-        <v>39.48441262980286</v>
+        <v>35.69935976158543</v>
       </c>
     </row>
     <row r="299">
@@ -8096,7 +8096,7 @@
         </is>
       </c>
       <c r="E299" t="n">
-        <v>40.67852797036334</v>
+        <v>38.39929970067449</v>
       </c>
     </row>
     <row r="300">
@@ -8121,7 +8121,7 @@
         </is>
       </c>
       <c r="E300" t="n">
-        <v>35.99575487317156</v>
+        <v>21.26664432207459</v>
       </c>
     </row>
     <row r="301">
@@ -8146,7 +8146,7 @@
         </is>
       </c>
       <c r="E301" t="n">
-        <v>42.58356556047038</v>
+        <v>34.54755125569518</v>
       </c>
     </row>
     <row r="302">
@@ -8171,7 +8171,7 @@
         </is>
       </c>
       <c r="E302" t="n">
-        <v>44.53957690039536</v>
+        <v>40.15477639005276</v>
       </c>
     </row>
     <row r="303">
@@ -8196,7 +8196,7 @@
         </is>
       </c>
       <c r="E303" t="n">
-        <v>27.01949517589254</v>
+        <v>10.94556885684274</v>
       </c>
     </row>
     <row r="304">
@@ -8221,7 +8221,7 @@
         </is>
       </c>
       <c r="E304" t="n">
-        <v>36.12394216597338</v>
+        <v>37.54066966688545</v>
       </c>
     </row>
     <row r="305">
@@ -8246,7 +8246,7 @@
         </is>
       </c>
       <c r="E305" t="n">
-        <v>38.06048928953012</v>
+        <v>43.01912469746328</v>
       </c>
     </row>
     <row r="306">
@@ -8271,7 +8271,7 @@
         </is>
       </c>
       <c r="E306" t="n">
-        <v>37.77592475818553</v>
+        <v>21.67152814812285</v>
       </c>
     </row>
     <row r="307">
@@ -8296,7 +8296,7 @@
         </is>
       </c>
       <c r="E307" t="n">
-        <v>43.52175304515219</v>
+        <v>30.18084746373809</v>
       </c>
     </row>
     <row r="308">
@@ -8321,7 +8321,7 @@
         </is>
       </c>
       <c r="E308" t="n">
-        <v>44.93135288539438</v>
+        <v>36.47602070871706</v>
       </c>
     </row>
     <row r="309">
@@ -8346,7 +8346,7 @@
         </is>
       </c>
       <c r="E309" t="n">
-        <v>35.35023075452161</v>
+        <v>28.46513916564523</v>
       </c>
     </row>
     <row r="310">
@@ -8371,7 +8371,7 @@
         </is>
       </c>
       <c r="E310" t="n">
-        <v>40.80220777532086</v>
+        <v>35.23090098985195</v>
       </c>
     </row>
     <row r="311">
@@ -8396,7 +8396,7 @@
         </is>
       </c>
       <c r="E311" t="n">
-        <v>42.2307120332282</v>
+        <v>39.08137336093473</v>
       </c>
     </row>
     <row r="312">
@@ -8421,7 +8421,7 @@
         </is>
       </c>
       <c r="E312" t="n">
-        <v>47.66447413116332</v>
+        <v>39.45113971789142</v>
       </c>
     </row>
     <row r="313">
@@ -8446,7 +8446,7 @@
         </is>
       </c>
       <c r="E313" t="n">
-        <v>51.88601546626856</v>
+        <v>44.90266917993286</v>
       </c>
     </row>
     <row r="314">
@@ -8471,7 +8471,7 @@
         </is>
       </c>
       <c r="E314" t="n">
-        <v>53.07287725653457</v>
+        <v>47.6026435474234</v>
       </c>
     </row>
     <row r="315">
@@ -8496,7 +8496,7 @@
         </is>
       </c>
       <c r="E315" t="n">
-        <v>47.92430031178736</v>
+        <v>30.4696816536867</v>
       </c>
     </row>
     <row r="316">
@@ -8521,7 +8521,7 @@
         </is>
       </c>
       <c r="E316" t="n">
-        <v>54.65312342278443</v>
+        <v>43.75086086096663</v>
       </c>
     </row>
     <row r="317">
@@ -8546,7 +8546,7 @@
         </is>
       </c>
       <c r="E317" t="n">
-        <v>56.59713938374651</v>
+        <v>49.35822171319712</v>
       </c>
     </row>
     <row r="318">
@@ -8571,7 +8571,7 @@
         </is>
       </c>
       <c r="E318" t="n">
-        <v>28.93052871784213</v>
+        <v>32.34275795254446</v>
       </c>
     </row>
     <row r="319">
@@ -8596,7 +8596,7 @@
         </is>
       </c>
       <c r="E319" t="n">
-        <v>32.55545043098042</v>
+        <v>32.71218896741887</v>
       </c>
     </row>
     <row r="320">
@@ -8621,7 +8621,7 @@
         </is>
       </c>
       <c r="E320" t="n">
-        <v>36.72194221961784</v>
+        <v>38.16362369007443</v>
       </c>
     </row>
     <row r="321">
@@ -8646,7 +8646,7 @@
         </is>
       </c>
       <c r="E321" t="n">
-        <v>37.96409649194081</v>
+        <v>40.86355881066568</v>
       </c>
     </row>
     <row r="322">
@@ -8671,7 +8671,7 @@
         </is>
       </c>
       <c r="E322" t="n">
-        <v>33.23887399076234</v>
+        <v>23.73087191462612</v>
       </c>
     </row>
     <row r="323">
@@ -8696,7 +8696,7 @@
         </is>
       </c>
       <c r="E323" t="n">
-        <v>39.88613652974931</v>
+        <v>37.0118081906863</v>
       </c>
     </row>
     <row r="324">
@@ -8721,7 +8721,7 @@
         </is>
       </c>
       <c r="E324" t="n">
-        <v>41.91680219447901</v>
+        <v>42.61902191588361</v>
       </c>
     </row>
     <row r="325">
@@ -8746,7 +8746,7 @@
         </is>
       </c>
       <c r="E325" t="n">
-        <v>25.07832334337804</v>
+        <v>13.40962695984043</v>
       </c>
     </row>
     <row r="326">
@@ -8771,7 +8771,7 @@
         </is>
       </c>
       <c r="E326" t="n">
-        <v>34.17787166924243</v>
+        <v>40.00473219879491</v>
       </c>
     </row>
     <row r="327">
@@ -8796,7 +8796,7 @@
         </is>
       </c>
       <c r="E327" t="n">
-        <v>36.23358413257432</v>
+        <v>45.48317807709925</v>
       </c>
     </row>
     <row r="328">
@@ -8821,7 +8821,7 @@
         </is>
       </c>
       <c r="E328" t="n">
-        <v>35.30611316124441</v>
+        <v>24.13577069880531</v>
       </c>
     </row>
     <row r="329">
@@ -8846,7 +8846,7 @@
         </is>
       </c>
       <c r="E329" t="n">
-        <v>41.13173481481321</v>
+        <v>32.64512328888766</v>
       </c>
     </row>
     <row r="330">
@@ -8871,7 +8871,7 @@
         </is>
       </c>
       <c r="E330" t="n">
-        <v>42.62941794940275</v>
+        <v>38.94027825755354</v>
       </c>
     </row>
     <row r="331">
@@ -8896,7 +8896,7 @@
         </is>
       </c>
       <c r="E331" t="n">
-        <v>33.04871903916134</v>
+        <v>30.92939855351581</v>
       </c>
     </row>
     <row r="332">
@@ -8921,7 +8921,7 @@
         </is>
       </c>
       <c r="E332" t="n">
-        <v>38.58970169143547</v>
+        <v>37.69518809682047</v>
       </c>
     </row>
     <row r="333">
@@ -8946,7 +8946,7 @@
         </is>
       </c>
       <c r="E333" t="n">
-        <v>40.10927564661863</v>
+        <v>41.54565063332753</v>
       </c>
     </row>
     <row r="334">
@@ -8971,7 +8971,7 @@
         </is>
       </c>
       <c r="E334" t="n">
-        <v>45.07078852099124</v>
+        <v>41.91542769615167</v>
       </c>
     </row>
     <row r="335">
@@ -8996,7 +8996,7 @@
         </is>
       </c>
       <c r="E335" t="n">
-        <v>49.32999852170711</v>
+        <v>47.36696498800002</v>
       </c>
     </row>
     <row r="336">
@@ -9021,7 +9021,7 @@
         </is>
       </c>
       <c r="E336" t="n">
-        <v>50.55868877165403</v>
+        <v>50.06693453664384</v>
       </c>
     </row>
     <row r="337">
@@ -9046,7 +9046,7 @@
         </is>
       </c>
       <c r="E337" t="n">
-        <v>45.38086672549584</v>
+        <v>32.93394112717756</v>
       </c>
     </row>
     <row r="338">
@@ -9071,7 +9071,7 @@
         </is>
       </c>
       <c r="E338" t="n">
-        <v>52.15895323514818</v>
+        <v>46.215149675467</v>
       </c>
     </row>
     <row r="339">
@@ -9096,7 +9096,7 @@
         </is>
       </c>
       <c r="E339" t="n">
-        <v>54.16269639246421</v>
+        <v>51.82249911676418</v>
       </c>
     </row>
     <row r="340">
@@ -9121,7 +9121,7 @@
         </is>
       </c>
       <c r="E340" t="n">
-        <v>25.19119800996753</v>
+        <v>27.30115582229958</v>
       </c>
     </row>
     <row r="341">
@@ -9146,7 +9146,7 @@
         </is>
       </c>
       <c r="E341" t="n">
-        <v>24.07511001991121</v>
+        <v>27.6705103585751</v>
       </c>
     </row>
     <row r="342">
@@ -9171,7 +9171,7 @@
         </is>
       </c>
       <c r="E342" t="n">
-        <v>26.71285824532635</v>
+        <v>33.12191374233949</v>
       </c>
     </row>
     <row r="343">
@@ -9196,7 +9196,7 @@
         </is>
       </c>
       <c r="E343" t="n">
-        <v>28.10831182550782</v>
+        <v>35.82186344274199</v>
       </c>
     </row>
     <row r="344">
@@ -9221,7 +9221,7 @@
         </is>
       </c>
       <c r="E344" t="n">
-        <v>24.04531650358004</v>
+        <v>18.68927263799249</v>
       </c>
     </row>
     <row r="345">
@@ -9246,7 +9246,7 @@
         </is>
       </c>
       <c r="E345" t="n">
-        <v>28.24272458992767</v>
+        <v>31.97011236746546</v>
       </c>
     </row>
     <row r="346">
@@ -9271,7 +9271,7 @@
         </is>
       </c>
       <c r="E346" t="n">
-        <v>30.49242120933596</v>
+        <v>37.57736013731115</v>
       </c>
     </row>
     <row r="347">
@@ -9296,7 +9296,7 @@
         </is>
       </c>
       <c r="E347" t="n">
-        <v>25.09964979451311</v>
+        <v>8.368483225695702</v>
       </c>
     </row>
     <row r="348">
@@ -9321,7 +9321,7 @@
         </is>
       </c>
       <c r="E348" t="n">
-        <v>30.18532020745497</v>
+        <v>34.96348899020445</v>
       </c>
     </row>
     <row r="349">
@@ -9346,7 +9346,7 @@
         </is>
       </c>
       <c r="E349" t="n">
-        <v>32.5132065541347</v>
+        <v>40.44196956790354</v>
       </c>
     </row>
     <row r="350">
@@ -9371,7 +9371,7 @@
         </is>
       </c>
       <c r="E350" t="n">
-        <v>30.46666788220719</v>
+        <v>19.09424236721084</v>
       </c>
     </row>
     <row r="351">
@@ -9396,7 +9396,7 @@
         </is>
       </c>
       <c r="E351" t="n">
-        <v>34.13951307568972</v>
+        <v>27.60351917732597</v>
       </c>
     </row>
     <row r="352">
@@ -9421,7 +9421,7 @@
         </is>
       </c>
       <c r="E352" t="n">
-        <v>36.02781775397358</v>
+        <v>33.89871502382671</v>
       </c>
     </row>
     <row r="353">
@@ -9446,7 +9446,7 @@
         </is>
       </c>
       <c r="E353" t="n">
-        <v>29.24836818566298</v>
+        <v>25.88779399530002</v>
       </c>
     </row>
     <row r="354">
@@ -9471,7 +9471,7 @@
         </is>
       </c>
       <c r="E354" t="n">
-        <v>32.87769835266167</v>
+        <v>32.6535166858351</v>
       </c>
     </row>
     <row r="355">
@@ -9496,7 +9496,7 @@
         </is>
       </c>
       <c r="E355" t="n">
-        <v>34.95122057422753</v>
+        <v>36.50400831886709</v>
       </c>
     </row>
     <row r="356">
@@ -9521,7 +9521,7 @@
         </is>
       </c>
       <c r="E356" t="n">
-        <v>34.68937775431866</v>
+        <v>36.8737089076396</v>
       </c>
     </row>
     <row r="357">
@@ -9546,7 +9546,7 @@
         </is>
       </c>
       <c r="E357" t="n">
-        <v>37.39460743747709</v>
+        <v>42.32521486198318</v>
       </c>
     </row>
     <row r="358">
@@ -9571,7 +9571,7 @@
         </is>
       </c>
       <c r="E358" t="n">
-        <v>38.85747694329238</v>
+        <v>45.02519899081729</v>
       </c>
     </row>
     <row r="359">
@@ -9596,7 +9596,7 @@
         </is>
       </c>
       <c r="E359" t="n">
-        <v>34.30215530749258</v>
+        <v>27.89230166961723</v>
       </c>
     </row>
     <row r="360">
@@ -9621,7 +9621,7 @@
         </is>
       </c>
       <c r="E360" t="n">
-        <v>38.59879900201624</v>
+        <v>41.17341367474906</v>
       </c>
     </row>
     <row r="361">
@@ -9646,7 +9646,7 @@
         </is>
       </c>
       <c r="E361" t="n">
-        <v>40.93526337426746</v>
+        <v>46.78079716215764</v>
       </c>
     </row>
     <row r="362">
@@ -9671,7 +9671,7 @@
         </is>
       </c>
       <c r="E362" t="n">
-        <v>18.13178538310396</v>
+        <v>-5.21680001594488</v>
       </c>
     </row>
     <row r="363">
@@ -9696,7 +9696,7 @@
         </is>
       </c>
       <c r="E363" t="n">
-        <v>19.6056640577366</v>
+        <v>21.37567943426889</v>
       </c>
     </row>
     <row r="364">
@@ -9721,7 +9721,7 @@
         </is>
       </c>
       <c r="E364" t="n">
-        <v>20.11235045357441</v>
+        <v>26.85318267252963</v>
       </c>
     </row>
     <row r="365">
@@ -9746,7 +9746,7 @@
         </is>
       </c>
       <c r="E365" t="n">
-        <v>16.03036875001105</v>
+        <v>5.508105039059462</v>
       </c>
     </row>
     <row r="366">
@@ -9771,7 +9771,7 @@
         </is>
       </c>
       <c r="E366" t="n">
-        <v>16.72960717509081</v>
+        <v>14.01509669705748</v>
       </c>
     </row>
     <row r="367">
@@ -9796,7 +9796,7 @@
         </is>
       </c>
       <c r="E367" t="n">
-        <v>17.39843044685748</v>
+        <v>20.30939373862175</v>
       </c>
     </row>
     <row r="368">
@@ -9821,7 +9821,7 @@
         </is>
       </c>
       <c r="E368" t="n">
-        <v>16.53891432075739</v>
+        <v>12.30002860599037</v>
       </c>
     </row>
     <row r="369">
@@ -9846,7 +9846,7 @@
         </is>
       </c>
       <c r="E369" t="n">
-        <v>17.30672935147352</v>
+        <v>19.06407226536085</v>
       </c>
     </row>
     <row r="370">
@@ -9871,7 +9871,7 @@
         </is>
       </c>
       <c r="E370" t="n">
-        <v>18.00944377375662</v>
+        <v>22.9139444415592</v>
       </c>
     </row>
     <row r="371">
@@ -9896,7 +9896,7 @@
         </is>
       </c>
       <c r="E371" t="n">
-        <v>16.73427418752984</v>
+        <v>23.28291206895092</v>
       </c>
     </row>
     <row r="372">
@@ -9921,7 +9921,7 @@
         </is>
       </c>
       <c r="E372" t="n">
-        <v>17.61291796914209</v>
+        <v>28.73343698771744</v>
       </c>
     </row>
     <row r="373">
@@ -9946,7 +9946,7 @@
         </is>
       </c>
       <c r="E373" t="n">
-        <v>18.01507216333044</v>
+        <v>31.43296261079566</v>
       </c>
     </row>
     <row r="374">
@@ -9971,7 +9971,7 @@
         </is>
       </c>
       <c r="E374" t="n">
-        <v>16.88937621410626</v>
+        <v>14.30251466836565</v>
       </c>
     </row>
     <row r="375">
@@ -9996,7 +9996,7 @@
         </is>
       </c>
       <c r="E375" t="n">
-        <v>18.41283193708464</v>
+        <v>27.5814450936543</v>
       </c>
     </row>
     <row r="376">
@@ -10021,7 +10021,7 @@
         </is>
       </c>
       <c r="E376" t="n">
-        <v>19.00905489622723</v>
+        <v>33.18767868673019</v>
       </c>
     </row>
     <row r="377">
@@ -10046,7 +10046,7 @@
         </is>
       </c>
       <c r="E377" t="n">
-        <v>16.76514163374418</v>
+        <v>-1.760773396311077</v>
       </c>
     </row>
     <row r="378">
@@ -10071,7 +10071,7 @@
         </is>
       </c>
       <c r="E378" t="n">
-        <v>19.37964395067063</v>
+        <v>24.83437831604711</v>
       </c>
     </row>
     <row r="379">
@@ -10096,7 +10096,7 @@
         </is>
       </c>
       <c r="E379" t="n">
-        <v>20.43929347172397</v>
+        <v>30.31271065165148</v>
       </c>
     </row>
     <row r="380">
@@ -10121,7 +10121,7 @@
         </is>
       </c>
       <c r="E380" t="n">
-        <v>11.68822681901904</v>
+        <v>8.964441462030056</v>
       </c>
     </row>
     <row r="381">
@@ -10146,7 +10146,7 @@
         </is>
       </c>
       <c r="E381" t="n">
-        <v>13.62760035731038</v>
+        <v>17.47332158929597</v>
       </c>
     </row>
     <row r="382">
@@ -10171,7 +10171,7 @@
         </is>
       </c>
       <c r="E382" t="n">
-        <v>14.73000035595448</v>
+        <v>23.76840803831393</v>
       </c>
     </row>
     <row r="383">
@@ -10196,7 +10196,7 @@
         </is>
       </c>
       <c r="E383" t="n">
-        <v>12.66722695018587</v>
+        <v>15.75765501003942</v>
       </c>
     </row>
     <row r="384">
@@ -10221,7 +10221,7 @@
         </is>
       </c>
       <c r="E384" t="n">
-        <v>14.54236859135706</v>
+        <v>22.52307524656813</v>
       </c>
     </row>
     <row r="385">
@@ -10246,7 +10246,7 @@
         </is>
       </c>
       <c r="E385" t="n">
-        <v>17.47765573241126</v>
+        <v>-0.713450160549808</v>
       </c>
     </row>
     <row r="386">
@@ -10271,7 +10271,7 @@
         </is>
       </c>
       <c r="E386" t="n">
-        <v>21.80349812502405</v>
+        <v>25.87926281184646</v>
       </c>
     </row>
     <row r="387">
@@ -10296,7 +10296,7 @@
         </is>
       </c>
       <c r="E387" t="n">
-        <v>22.38721878577446</v>
+        <v>31.35676947295993</v>
       </c>
     </row>
     <row r="388">
@@ -10321,7 +10321,7 @@
         </is>
       </c>
       <c r="E388" t="n">
-        <v>20.77264540614112</v>
+        <v>10.01188392529032</v>
       </c>
     </row>
     <row r="389">
@@ -10346,7 +10346,7 @@
         </is>
       </c>
       <c r="E389" t="n">
-        <v>22.75228136459666</v>
+        <v>18.51900418136309</v>
       </c>
     </row>
     <row r="390">
@@ -10371,7 +10371,7 @@
         </is>
       </c>
       <c r="E390" t="n">
-        <v>23.38399260333642</v>
+        <v>24.81330024683912</v>
       </c>
     </row>
     <row r="391">
@@ -10396,7 +10396,7 @@
         </is>
       </c>
       <c r="E391" t="n">
-        <v>20.20334189405391</v>
+        <v>16.80390712787683</v>
       </c>
     </row>
     <row r="392">
@@ -10421,7 +10421,7 @@
         </is>
       </c>
       <c r="E392" t="n">
-        <v>22.17402679656076</v>
+        <v>23.56805823428063</v>
       </c>
     </row>
     <row r="393">
@@ -10446,7 +10446,7 @@
         </is>
       </c>
       <c r="E393" t="n">
-        <v>22.95971975256668</v>
+        <v>27.41792847791733</v>
       </c>
     </row>
     <row r="394">
@@ -10471,7 +10471,7 @@
         </is>
       </c>
       <c r="E394" t="n">
-        <v>23.73049618413151</v>
+        <v>27.78696922475077</v>
       </c>
     </row>
     <row r="395">
@@ -10496,7 +10496,7 @@
         </is>
       </c>
       <c r="E395" t="n">
-        <v>25.91625032514836</v>
+        <v>33.23755412560838</v>
       </c>
     </row>
     <row r="396">
@@ -10521,7 +10521,7 @@
         </is>
       </c>
       <c r="E396" t="n">
-        <v>26.30889827200655</v>
+        <v>35.93708391944615</v>
       </c>
     </row>
     <row r="397">
@@ -10546,7 +10546,7 @@
         </is>
       </c>
       <c r="E397" t="n">
-        <v>24.0586847792507</v>
+        <v>18.80644860167805</v>
       </c>
     </row>
     <row r="398">
@@ -10571,7 +10571,7 @@
         </is>
       </c>
       <c r="E398" t="n">
-        <v>27.79870918044698</v>
+        <v>32.08554513888778</v>
       </c>
     </row>
     <row r="399">
@@ -10596,7 +10596,7 @@
         </is>
       </c>
       <c r="E399" t="n">
-        <v>28.38494070535252</v>
+        <v>37.69178353050786</v>
       </c>
     </row>
     <row r="400">
@@ -10621,7 +10621,7 @@
         </is>
       </c>
       <c r="E400" t="n">
-        <v>18.40498444252544</v>
+        <v>2.743165476978977</v>
       </c>
     </row>
     <row r="401">
@@ -10646,7 +10646,7 @@
         </is>
       </c>
       <c r="E401" t="n">
-        <v>27.21473907947757</v>
+        <v>29.33855072932132</v>
       </c>
     </row>
     <row r="402">
@@ -10671,7 +10671,7 @@
         </is>
       </c>
       <c r="E402" t="n">
-        <v>29.34627584579292</v>
+        <v>34.81688649033454</v>
       </c>
     </row>
     <row r="403">
@@ -10696,7 +10696,7 @@
         </is>
       </c>
       <c r="E403" t="n">
-        <v>26.27497642394055</v>
+        <v>13.46880940389061</v>
       </c>
     </row>
     <row r="404">
@@ -10721,7 +10721,7 @@
         </is>
       </c>
       <c r="E404" t="n">
-        <v>31.80217029240858</v>
+        <v>21.97781814229264</v>
       </c>
     </row>
     <row r="405">
@@ -10746,7 +10746,7 @@
         </is>
       </c>
       <c r="E405" t="n">
-        <v>33.23199658080845</v>
+        <v>28.27290361744152</v>
       </c>
     </row>
     <row r="406">
@@ -10771,7 +10771,7 @@
         </is>
       </c>
       <c r="E406" t="n">
-        <v>24.47572667876019</v>
+        <v>20.2621226034167</v>
       </c>
     </row>
     <row r="407">
@@ -10796,7 +10796,7 @@
         </is>
       </c>
       <c r="E407" t="n">
-        <v>29.75786409605197</v>
+        <v>27.02765029623136</v>
       </c>
     </row>
     <row r="408">
@@ -10821,7 +10821,7 @@
         </is>
       </c>
       <c r="E408" t="n">
-        <v>15.7854317468438</v>
+        <v>1.750286976074296</v>
       </c>
     </row>
     <row r="409">
@@ -10846,7 +10846,7 @@
         </is>
       </c>
       <c r="E409" t="n">
-        <v>20.12504464555619</v>
+        <v>28.34300437983537</v>
       </c>
     </row>
     <row r="410">
@@ -10871,7 +10871,7 @@
         </is>
       </c>
       <c r="E410" t="n">
-        <v>20.77706086368705</v>
+        <v>33.8205018917949</v>
       </c>
     </row>
     <row r="411">
@@ -10896,7 +10896,7 @@
         </is>
       </c>
       <c r="E411" t="n">
-        <v>19.03079680021138</v>
+        <v>12.47580549488369</v>
       </c>
     </row>
     <row r="412">
@@ -10921,7 +10921,7 @@
         </is>
       </c>
       <c r="E412" t="n">
-        <v>21.035672792099</v>
+        <v>20.98295902884464</v>
       </c>
     </row>
     <row r="413">
@@ -10946,7 +10946,7 @@
         </is>
       </c>
       <c r="E413" t="n">
-        <v>21.74035862831893</v>
+        <v>27.2772368203177</v>
       </c>
     </row>
     <row r="414">
@@ -10971,7 +10971,7 @@
         </is>
       </c>
       <c r="E414" t="n">
-        <v>18.64955336927631</v>
+        <v>19.26784553377691</v>
       </c>
     </row>
     <row r="415">
@@ -10996,7 +10996,7 @@
         </is>
       </c>
       <c r="E415" t="n">
-        <v>20.64949687943659</v>
+        <v>26.0320243614611</v>
       </c>
     </row>
     <row r="416">
@@ -11021,7 +11021,7 @@
         </is>
       </c>
       <c r="E416" t="n">
-        <v>21.52279762359263</v>
+        <v>29.88188477193326</v>
       </c>
     </row>
     <row r="417">
@@ -11046,7 +11046,7 @@
         </is>
       </c>
       <c r="E417" t="n">
-        <v>21.73795398622517</v>
+        <v>30.25093623073299</v>
       </c>
     </row>
     <row r="418">
@@ -11071,7 +11071,7 @@
         </is>
       </c>
       <c r="E418" t="n">
-        <v>23.94378110402919</v>
+        <v>35.70152896356076</v>
       </c>
     </row>
     <row r="419">
@@ -11096,7 +11096,7 @@
         </is>
       </c>
       <c r="E419" t="n">
-        <v>24.35979012244776</v>
+        <v>38.4010539399023</v>
       </c>
     </row>
     <row r="420">
@@ -11121,7 +11121,7 @@
         </is>
       </c>
       <c r="E420" t="n">
-        <v>22.06139130343638</v>
+        <v>21.27038710563462</v>
       </c>
     </row>
     <row r="421">
@@ -11146,7 +11146,7 @@
         </is>
       </c>
       <c r="E421" t="n">
-        <v>25.83266121073216</v>
+        <v>34.54951298508759</v>
       </c>
     </row>
     <row r="422">
@@ -11171,7 +11171,7 @@
         </is>
       </c>
       <c r="E422" t="n">
-        <v>26.44618074900013</v>
+        <v>40.15573996983763</v>
       </c>
     </row>
     <row r="423">
@@ -11196,7 +11196,7 @@
         </is>
       </c>
       <c r="E423" t="n">
-        <v>16.33832435062218</v>
+        <v>5.207193137231759</v>
       </c>
     </row>
     <row r="424">
@@ -11221,7 +11221,7 @@
         </is>
       </c>
       <c r="E424" t="n">
-        <v>25.12420588222072</v>
+        <v>31.80258281928544</v>
       </c>
     </row>
     <row r="425">
@@ -11246,7 +11246,7 @@
         </is>
       </c>
       <c r="E425" t="n">
-        <v>27.38986595106709</v>
+        <v>37.28090942915408</v>
       </c>
     </row>
     <row r="426">
@@ -11271,7 +11271,7 @@
         </is>
       </c>
       <c r="E426" t="n">
-        <v>23.60451617556497</v>
+        <v>15.93302151481631</v>
       </c>
     </row>
     <row r="427">
@@ -11296,7 +11296,7 @@
         </is>
       </c>
       <c r="E427" t="n">
-        <v>29.22483589029383</v>
+        <v>24.44206352995635</v>
       </c>
     </row>
     <row r="428">
@@ -11321,7 +11321,7 @@
         </is>
       </c>
       <c r="E428" t="n">
-        <v>30.73465219372436</v>
+        <v>30.73713072928372</v>
       </c>
     </row>
     <row r="429">
@@ -11346,7 +11346,7 @@
         </is>
       </c>
       <c r="E429" t="n">
-        <v>21.98177150077214</v>
+        <v>22.72635155157521</v>
       </c>
     </row>
     <row r="430">
@@ -11371,7 +11371,7 @@
         </is>
       </c>
       <c r="E430" t="n">
-        <v>27.36589151192274</v>
+        <v>29.49190696541162</v>
       </c>
     </row>
     <row r="431">
@@ -11396,7 +11396,7 @@
         </is>
       </c>
       <c r="E431" t="n">
-        <v>14.57433377104415</v>
+        <v>-3.290233729086179</v>
       </c>
     </row>
     <row r="432">
@@ -11421,7 +11421,7 @@
         </is>
       </c>
       <c r="E432" t="n">
-        <v>17.31020437801512</v>
+        <v>23.30238420304962</v>
       </c>
     </row>
     <row r="433">
@@ -11446,7 +11446,7 @@
         </is>
       </c>
       <c r="E433" t="n">
-        <v>18.27242257424769</v>
+        <v>28.77991641015463</v>
       </c>
     </row>
     <row r="434">
@@ -11471,7 +11471,7 @@
         </is>
       </c>
       <c r="E434" t="n">
-        <v>16.49411775183816</v>
+        <v>7.434900225695817</v>
       </c>
     </row>
     <row r="435">
@@ -11496,7 +11496,7 @@
         </is>
       </c>
       <c r="E435" t="n">
-        <v>17.70392037029961</v>
+        <v>15.94197798051103</v>
       </c>
     </row>
     <row r="436">
@@ -11521,7 +11521,7 @@
         </is>
       </c>
       <c r="E436" t="n">
-        <v>18.48629662143389</v>
+        <v>22.23629664805829</v>
       </c>
     </row>
     <row r="437">
@@ -11546,7 +11546,7 @@
         </is>
       </c>
       <c r="E437" t="n">
-        <v>16.18361591554608</v>
+        <v>14.22686404582699</v>
       </c>
     </row>
     <row r="438">
@@ -11571,7 +11571,7 @@
         </is>
       </c>
       <c r="E438" t="n">
-        <v>17.4325619411026</v>
+        <v>20.99097602198363</v>
       </c>
     </row>
     <row r="439">
@@ -11596,7 +11596,7 @@
         </is>
       </c>
       <c r="E439" t="n">
-        <v>18.33165603616148</v>
+        <v>24.84086552714878</v>
       </c>
     </row>
     <row r="440">
@@ -11621,7 +11621,7 @@
         </is>
       </c>
       <c r="E440" t="n">
-        <v>18.13749039686867</v>
+        <v>25.20984050668126</v>
       </c>
     </row>
     <row r="441">
@@ -11646,7 +11646,7 @@
         </is>
       </c>
       <c r="E441" t="n">
-        <v>19.30688577081309</v>
+        <v>30.6604019015194</v>
       </c>
     </row>
     <row r="442">
@@ -11671,7 +11671,7 @@
         </is>
       </c>
       <c r="E442" t="n">
-        <v>19.90043745023147</v>
+        <v>33.35994145646073</v>
       </c>
     </row>
     <row r="443">
@@ -11696,7 +11696,7 @@
         </is>
       </c>
       <c r="E443" t="n">
-        <v>18.72930492647787</v>
+        <v>16.22937070601809</v>
       </c>
     </row>
     <row r="444">
@@ -11721,7 +11721,7 @@
         </is>
       </c>
       <c r="E444" t="n">
-        <v>20.69556200888358</v>
+        <v>29.5084000457177</v>
       </c>
     </row>
     <row r="445">
@@ -11746,7 +11746,7 @@
         </is>
       </c>
       <c r="E445" t="n">
-        <v>21.64225875778825</v>
+        <v>35.11466107230997</v>
       </c>
     </row>
     <row r="446">
@@ -11771,7 +11771,7 @@
         </is>
       </c>
       <c r="E446" t="n">
-        <v>17.21151309565843</v>
+        <v>0.1660857953607611</v>
       </c>
     </row>
     <row r="447">
@@ -11796,7 +11796,7 @@
         </is>
       </c>
       <c r="E447" t="n">
-        <v>22.12157650587971</v>
+        <v>26.76137599970089</v>
       </c>
     </row>
     <row r="448">
@@ -11821,7 +11821,7 @@
         </is>
       </c>
       <c r="E448" t="n">
-        <v>24.45115236944923</v>
+        <v>32.23973730732867</v>
       </c>
     </row>
     <row r="449">
@@ -11846,7 +11846,7 @@
         </is>
       </c>
       <c r="E449" t="n">
-        <v>20.41440108500917</v>
+        <v>10.89152957139364</v>
       </c>
     </row>
     <row r="450">
@@ -11871,7 +11871,7 @@
         </is>
       </c>
       <c r="E450" t="n">
-        <v>23.97067330994118</v>
+        <v>19.40049580354988</v>
       </c>
     </row>
     <row r="451">
@@ -11896,7 +11896,7 @@
         </is>
       </c>
       <c r="E451" t="n">
-        <v>25.69909548653468</v>
+        <v>25.69560388066369</v>
       </c>
     </row>
     <row r="452">
@@ -11921,7 +11921,7 @@
         </is>
       </c>
       <c r="E452" t="n">
-        <v>19.72274166085557</v>
+        <v>17.68478338041401</v>
       </c>
     </row>
     <row r="453">
@@ -11946,7 +11946,7 @@
         </is>
       </c>
       <c r="E453" t="n">
-        <v>23.24314510980889</v>
+        <v>24.45027193922711</v>
       </c>
     </row>
     <row r="454">
@@ -11971,7 +11971,7 @@
         </is>
       </c>
       <c r="E454" t="n">
-        <v>15.61142398452261</v>
+        <v>26.37348412318177</v>
       </c>
     </row>
     <row r="455">
@@ -11996,7 +11996,7 @@
         </is>
       </c>
       <c r="E455" t="n">
-        <v>14.72299088656235</v>
+        <v>26.74282677134166</v>
       </c>
     </row>
     <row r="456">
@@ -12021,7 +12021,7 @@
         </is>
       </c>
       <c r="E456" t="n">
-        <v>16.12312694621404</v>
+        <v>32.19421581364709</v>
       </c>
     </row>
     <row r="457">
@@ -12046,7 +12046,7 @@
         </is>
       </c>
       <c r="E457" t="n">
-        <v>16.83913120114947</v>
+        <v>34.89414733187841</v>
       </c>
     </row>
     <row r="458">
@@ -12071,7 +12071,7 @@
         </is>
       </c>
       <c r="E458" t="n">
-        <v>15.29791465161502</v>
+        <v>17.76161723413357</v>
       </c>
     </row>
     <row r="459">
@@ -12096,7 +12096,7 @@
         </is>
       </c>
       <c r="E459" t="n">
-        <v>17.52739403722254</v>
+        <v>31.04241466263234</v>
       </c>
     </row>
     <row r="460">
@@ -12121,7 +12121,7 @@
         </is>
       </c>
       <c r="E460" t="n">
-        <v>18.62160873760898</v>
+        <v>36.64962418644718</v>
       </c>
     </row>
     <row r="461">
@@ -12146,7 +12146,7 @@
         </is>
       </c>
       <c r="E461" t="n">
-        <v>18.38426970685106</v>
+        <v>7.440936294207933</v>
       </c>
     </row>
     <row r="462">
@@ -12171,7 +12171,7 @@
         </is>
       </c>
       <c r="E462" t="n">
-        <v>21.30108277869277</v>
+        <v>34.03588642709583</v>
       </c>
     </row>
     <row r="463">
@@ -12196,7 +12196,7 @@
         </is>
       </c>
       <c r="E463" t="n">
-        <v>22.55520850840787</v>
+        <v>39.51432572833603</v>
       </c>
     </row>
     <row r="464">
@@ -12221,7 +12221,7 @@
         </is>
       </c>
       <c r="E464" t="n">
-        <v>13.46052155858338</v>
+        <v>18.16652856632125</v>
       </c>
     </row>
     <row r="465">
@@ -12246,7 +12246,7 @@
         </is>
       </c>
       <c r="E465" t="n">
-        <v>15.54502347717496</v>
+        <v>26.67576201558741</v>
       </c>
     </row>
     <row r="466">
@@ -12271,7 +12271,7 @@
         </is>
       </c>
       <c r="E466" t="n">
-        <v>16.82324231809826</v>
+        <v>32.97092934486484</v>
       </c>
     </row>
     <row r="467">
@@ -12296,7 +12296,7 @@
         </is>
       </c>
       <c r="E467" t="n">
-        <v>14.27454413723116</v>
+        <v>24.96007205493864</v>
       </c>
     </row>
     <row r="468">
@@ -12321,7 +12321,7 @@
         </is>
       </c>
       <c r="E468" t="n">
-        <v>16.33329016868774</v>
+        <v>31.72576180765687</v>
       </c>
     </row>
     <row r="469">
@@ -12346,7 +12346,7 @@
         </is>
       </c>
       <c r="E469" t="n">
-        <v>17.53790470489063</v>
+        <v>35.57622842508529</v>
       </c>
     </row>
     <row r="470">
@@ -12371,7 +12371,7 @@
         </is>
       </c>
       <c r="E470" t="n">
-        <v>16.88662930680018</v>
+        <v>35.94591712530571</v>
       </c>
     </row>
     <row r="471">
@@ -12396,7 +12396,7 @@
         </is>
       </c>
       <c r="E471" t="n">
-        <v>18.33795043856263</v>
+        <v>41.39740873813976</v>
       </c>
     </row>
     <row r="472">
@@ -12421,7 +12421,7 @@
         </is>
       </c>
       <c r="E472" t="n">
-        <v>19.25825826676552</v>
+        <v>44.09737468613282</v>
       </c>
     </row>
     <row r="473">
@@ -12446,7 +12446,7 @@
         </is>
       </c>
       <c r="E473" t="n">
-        <v>17.38396805794722</v>
+        <v>26.96453807198062</v>
       </c>
     </row>
     <row r="474">
@@ -12471,7 +12471,7 @@
         </is>
       </c>
       <c r="E474" t="n">
-        <v>19.67741276514472</v>
+        <v>40.24560777533345</v>
       </c>
     </row>
     <row r="475">
@@ -12496,7 +12496,7 @@
         </is>
       </c>
       <c r="E475" t="n">
-        <v>21.11869808957152</v>
+        <v>45.85295301954461</v>
       </c>
     </row>
     <row r="476">
@@ -12521,7 +12521,7 @@
         </is>
       </c>
       <c r="E476" t="n">
-        <v>31.23876071478938</v>
+        <v>30.87805724135224</v>
       </c>
     </row>
     <row r="477">
@@ -12546,7 +12546,7 @@
         </is>
       </c>
       <c r="E477" t="n">
-        <v>35.36320824817224</v>
+        <v>31.24747301080113</v>
       </c>
     </row>
     <row r="478">
@@ -12571,7 +12571,7 @@
         </is>
       </c>
       <c r="E478" t="n">
-        <v>39.48441262980286</v>
+        <v>36.6989220401335</v>
       </c>
     </row>
     <row r="479">
@@ -12596,7 +12596,7 @@
         </is>
       </c>
       <c r="E479" t="n">
-        <v>40.67852797036334</v>
+        <v>39.39885773013869</v>
       </c>
     </row>
     <row r="480">
@@ -12621,7 +12621,7 @@
         </is>
       </c>
       <c r="E480" t="n">
-        <v>35.99575487317156</v>
+        <v>22.26614024040164</v>
       </c>
     </row>
     <row r="481">
@@ -12646,7 +12646,7 @@
         </is>
       </c>
       <c r="E481" t="n">
-        <v>42.58356556047038</v>
+        <v>35.54710379531032</v>
       </c>
     </row>
     <row r="482">
@@ -12671,7 +12671,7 @@
         </is>
       </c>
       <c r="E482" t="n">
-        <v>44.53957690039536</v>
+        <v>41.15431811941183</v>
       </c>
     </row>
     <row r="483">
@@ -12696,7 +12696,7 @@
         </is>
       </c>
       <c r="E483" t="n">
-        <v>27.01949517589254</v>
+        <v>11.94498191307123</v>
       </c>
     </row>
     <row r="484">
@@ -12721,7 +12721,7 @@
         </is>
       </c>
       <c r="E484" t="n">
-        <v>36.12394216597338</v>
+        <v>38.54016558198221</v>
       </c>
     </row>
     <row r="485">
@@ -12746,7 +12746,7 @@
         </is>
       </c>
       <c r="E485" t="n">
-        <v>38.06048928953012</v>
+        <v>44.01860830704318</v>
       </c>
     </row>
     <row r="486">
@@ -12771,7 +12771,7 @@
         </is>
       </c>
       <c r="E486" t="n">
-        <v>37.77592475818553</v>
+        <v>22.67100325353734</v>
       </c>
     </row>
     <row r="487">
@@ -12796,7 +12796,7 @@
         </is>
       </c>
       <c r="E487" t="n">
-        <v>43.52175304515219</v>
+        <v>31.18036531311528</v>
       </c>
     </row>
     <row r="488">
@@ -12821,7 +12821,7 @@
         </is>
       </c>
       <c r="E488" t="n">
-        <v>44.93135288539438</v>
+        <v>37.47553166793894</v>
       </c>
     </row>
     <row r="489">
@@ -12846,7 +12846,7 @@
         </is>
       </c>
       <c r="E489" t="n">
-        <v>35.35023075452161</v>
+        <v>29.46464639607173</v>
       </c>
     </row>
     <row r="490">
@@ -12871,7 +12871,7 @@
         </is>
       </c>
       <c r="E490" t="n">
-        <v>40.80220777532086</v>
+        <v>36.23044360348872</v>
       </c>
     </row>
     <row r="491">
@@ -12896,7 +12896,7 @@
         </is>
       </c>
       <c r="E491" t="n">
-        <v>42.2307120332282</v>
+        <v>40.08090828925636</v>
       </c>
     </row>
     <row r="492">
@@ -12921,7 +12921,7 @@
         </is>
       </c>
       <c r="E492" t="n">
-        <v>47.66447413116332</v>
+        <v>40.45067010756516</v>
       </c>
     </row>
     <row r="493">
@@ -12946,7 +12946,7 @@
         </is>
       </c>
       <c r="E493" t="n">
-        <v>51.88601546626856</v>
+        <v>45.90222170689613</v>
       </c>
     </row>
     <row r="494">
@@ -12971,7 +12971,7 @@
         </is>
       </c>
       <c r="E494" t="n">
-        <v>53.07287725653457</v>
+        <v>48.60219182564306</v>
       </c>
     </row>
     <row r="495">
@@ -12996,7 +12996,7 @@
         </is>
       </c>
       <c r="E495" t="n">
-        <v>47.92430031178736</v>
+        <v>31.4691678207508</v>
       </c>
     </row>
     <row r="496">
@@ -13021,7 +13021,7 @@
         </is>
       </c>
       <c r="E496" t="n">
-        <v>54.65312342278443</v>
+        <v>44.75040364905131</v>
       </c>
     </row>
     <row r="497">
@@ -13046,7 +13046,7 @@
         </is>
       </c>
       <c r="E497" t="n">
-        <v>56.59713938374651</v>
+        <v>50.3577536924068</v>
       </c>
     </row>
     <row r="498">
@@ -13071,7 +13071,7 @@
         </is>
       </c>
       <c r="E498" t="n">
-        <v>28.93052871784213</v>
+        <v>33.34230407607875</v>
       </c>
     </row>
     <row r="499">
@@ -13096,7 +13096,7 @@
         </is>
       </c>
       <c r="E499" t="n">
-        <v>32.55545043098042</v>
+        <v>33.71173055323909</v>
       </c>
     </row>
     <row r="500">
@@ -13121,7 +13121,7 @@
         </is>
       </c>
       <c r="E500" t="n">
-        <v>36.72194221961784</v>
+        <v>39.16318741286712</v>
       </c>
     </row>
     <row r="501">
@@ -13146,7 +13146,7 @@
         </is>
       </c>
       <c r="E501" t="n">
-        <v>37.96409649194081</v>
+        <v>41.8631182848239</v>
       </c>
     </row>
     <row r="502">
@@ -13171,7 +13171,7 @@
         </is>
       </c>
       <c r="E502" t="n">
-        <v>33.23887399076234</v>
+        <v>24.73036927814026</v>
       </c>
     </row>
     <row r="503">
@@ -13196,7 +13196,7 @@
         </is>
       </c>
       <c r="E503" t="n">
-        <v>39.88613652974931</v>
+        <v>38.0113621752724</v>
       </c>
     </row>
     <row r="504">
@@ -13221,7 +13221,7 @@
         </is>
       </c>
       <c r="E504" t="n">
-        <v>41.91680219447901</v>
+        <v>43.61856509044487</v>
       </c>
     </row>
     <row r="505">
@@ -13246,7 +13246,7 @@
         </is>
       </c>
       <c r="E505" t="n">
-        <v>25.07832334337804</v>
+        <v>14.40904146065664</v>
       </c>
     </row>
     <row r="506">
@@ -13271,7 +13271,7 @@
         </is>
       </c>
       <c r="E506" t="n">
-        <v>34.17787166924243</v>
+        <v>41.00422955815777</v>
       </c>
     </row>
     <row r="507">
@@ -13296,7 +13296,7 @@
         </is>
       </c>
       <c r="E507" t="n">
-        <v>36.23358413257432</v>
+        <v>46.48266313124334</v>
       </c>
     </row>
     <row r="508">
@@ -13321,7 +13321,7 @@
         </is>
       </c>
       <c r="E508" t="n">
-        <v>35.30611316124441</v>
+        <v>25.13524724890882</v>
       </c>
     </row>
     <row r="509">
@@ -13346,7 +13346,7 @@
         </is>
       </c>
       <c r="E509" t="n">
-        <v>41.13173481481321</v>
+        <v>33.64464258341145</v>
       </c>
     </row>
     <row r="510">
@@ -13371,7 +13371,7 @@
         </is>
       </c>
       <c r="E510" t="n">
-        <v>42.62941794940275</v>
+        <v>39.93979066143602</v>
       </c>
     </row>
     <row r="511">
@@ -13396,7 +13396,7 @@
         </is>
       </c>
       <c r="E511" t="n">
-        <v>33.04871903916134</v>
+        <v>31.92890722871546</v>
       </c>
     </row>
     <row r="512">
@@ -13421,7 +13421,7 @@
         </is>
       </c>
       <c r="E512" t="n">
-        <v>38.58970169143547</v>
+        <v>38.69473215573289</v>
       </c>
     </row>
     <row r="513">
@@ -13446,7 +13446,7 @@
         </is>
       </c>
       <c r="E513" t="n">
-        <v>40.10927564661863</v>
+        <v>42.54518700660363</v>
       </c>
     </row>
     <row r="514">
@@ -13471,7 +13471,7 @@
         </is>
       </c>
       <c r="E514" t="n">
-        <v>45.07078852099124</v>
+        <v>42.91495953057365</v>
       </c>
     </row>
     <row r="515">
@@ -13496,7 +13496,7 @@
         </is>
       </c>
       <c r="E515" t="n">
-        <v>49.32999852170711</v>
+        <v>48.36651896002088</v>
       </c>
     </row>
     <row r="516">
@@ -13521,7 +13521,7 @@
         </is>
       </c>
       <c r="E516" t="n">
-        <v>50.55868877165403</v>
+        <v>51.0664842601512</v>
       </c>
     </row>
     <row r="517">
@@ -13546,7 +13546,7 @@
         </is>
       </c>
       <c r="E517" t="n">
-        <v>45.38086672549584</v>
+        <v>33.93342873921991</v>
       </c>
     </row>
     <row r="518">
@@ -13571,7 +13571,7 @@
         </is>
       </c>
       <c r="E518" t="n">
-        <v>52.15895323514818</v>
+        <v>47.21469390840043</v>
       </c>
     </row>
     <row r="519">
@@ -13596,7 +13596,7 @@
         </is>
       </c>
       <c r="E519" t="n">
-        <v>54.16269639246421</v>
+        <v>52.82203254104691</v>
       </c>
     </row>
     <row r="520">
@@ -13621,7 +13621,7 @@
         </is>
       </c>
       <c r="E520" t="n">
-        <v>25.19119800996753</v>
+        <v>28.30069814661779</v>
       </c>
     </row>
     <row r="521">
@@ -13646,7 +13646,7 @@
         </is>
       </c>
       <c r="E521" t="n">
-        <v>24.07511001991121</v>
+        <v>28.67004814509888</v>
       </c>
     </row>
     <row r="522">
@@ -13671,7 +13671,7 @@
         </is>
       </c>
       <c r="E522" t="n">
-        <v>26.71285824532635</v>
+        <v>34.12147366599795</v>
       </c>
     </row>
     <row r="523">
@@ -13696,7 +13696,7 @@
         </is>
       </c>
       <c r="E523" t="n">
-        <v>28.10831182550782</v>
+        <v>36.82141911773404</v>
       </c>
     </row>
     <row r="524">
@@ -13721,7 +13721,7 @@
         </is>
       </c>
       <c r="E524" t="n">
-        <v>24.04531650358004</v>
+        <v>19.68876620174781</v>
       </c>
     </row>
     <row r="525">
@@ -13746,7 +13746,7 @@
         </is>
       </c>
       <c r="E525" t="n">
-        <v>28.24272458992767</v>
+        <v>32.96966255292109</v>
       </c>
     </row>
     <row r="526">
@@ -13771,7 +13771,7 @@
         </is>
       </c>
       <c r="E526" t="n">
-        <v>30.49242120933596</v>
+        <v>38.57689951295772</v>
       </c>
     </row>
     <row r="527">
@@ -13796,7 +13796,7 @@
         </is>
       </c>
       <c r="E527" t="n">
-        <v>25.09964979451311</v>
+        <v>9.367893927914299</v>
       </c>
     </row>
     <row r="528">
@@ -13821,7 +13821,7 @@
         </is>
       </c>
       <c r="E528" t="n">
-        <v>30.18532020745497</v>
+        <v>35.9629825507288</v>
       </c>
     </row>
     <row r="529">
@@ -13846,7 +13846,7 @@
         </is>
       </c>
       <c r="E529" t="n">
-        <v>32.5132065541347</v>
+        <v>41.44145082292125</v>
       </c>
     </row>
     <row r="530">
@@ -13871,7 +13871,7 @@
         </is>
       </c>
       <c r="E530" t="n">
-        <v>30.46666788220719</v>
+        <v>20.09371511834111</v>
       </c>
     </row>
     <row r="531">
@@ -13896,7 +13896,7 @@
         </is>
       </c>
       <c r="E531" t="n">
-        <v>34.13951307568972</v>
+        <v>28.60303467281399</v>
       </c>
     </row>
     <row r="532">
@@ -13921,7 +13921,7 @@
         </is>
       </c>
       <c r="E532" t="n">
-        <v>36.02781775397358</v>
+        <v>34.89822362877347</v>
       </c>
     </row>
     <row r="533">
@@ -13946,7 +13946,7 @@
         </is>
       </c>
       <c r="E533" t="n">
-        <v>29.24836818566298</v>
+        <v>26.88729887051609</v>
       </c>
     </row>
     <row r="534">
@@ -13971,7 +13971,7 @@
         </is>
       </c>
       <c r="E534" t="n">
-        <v>32.87769835266167</v>
+        <v>33.65305694536296</v>
       </c>
     </row>
     <row r="535">
@@ -13996,7 +13996,7 @@
         </is>
       </c>
       <c r="E535" t="n">
-        <v>34.95122057422753</v>
+        <v>37.5035408929502</v>
       </c>
     </row>
     <row r="536">
@@ -14021,7 +14021,7 @@
         </is>
       </c>
       <c r="E536" t="n">
-        <v>34.68937775431866</v>
+        <v>37.87323694285949</v>
       </c>
     </row>
     <row r="537">
@@ -14046,7 +14046,7 @@
         </is>
       </c>
       <c r="E537" t="n">
-        <v>37.39460743747709</v>
+        <v>43.32476503417725</v>
       </c>
     </row>
     <row r="538">
@@ -14071,7 +14071,7 @@
         </is>
       </c>
       <c r="E538" t="n">
-        <v>38.85747694329238</v>
+        <v>46.02474491475603</v>
       </c>
     </row>
     <row r="539">
@@ -14096,7 +14096,7 @@
         </is>
       </c>
       <c r="E539" t="n">
-        <v>34.30215530749258</v>
+        <v>28.89178548183527</v>
       </c>
     </row>
     <row r="540">
@@ -14121,7 +14121,7 @@
         </is>
       </c>
       <c r="E540" t="n">
-        <v>38.59879900201624</v>
+        <v>42.17295410811001</v>
       </c>
     </row>
     <row r="541">
@@ -14146,7 +14146,7 @@
         </is>
       </c>
       <c r="E541" t="n">
-        <v>40.93526337426746</v>
+        <v>47.78032678709754</v>
       </c>
     </row>
     <row r="542">
@@ -14171,7 +14171,7 @@
         </is>
       </c>
       <c r="E542" t="n">
-        <v>23.01583945699872</v>
+        <v>-9.130250451974842</v>
       </c>
     </row>
     <row r="543">
@@ -14196,7 +14196,7 @@
         </is>
       </c>
       <c r="E543" t="n">
-        <v>23.53823755679215</v>
+        <v>17.46186561388955</v>
       </c>
     </row>
     <row r="544">
@@ -14221,7 +14221,7 @@
         </is>
       </c>
       <c r="E544" t="n">
-        <v>23.74874342399072</v>
+        <v>22.93962854319712</v>
       </c>
     </row>
     <row r="545">
@@ -14246,7 +14246,7 @@
         </is>
       </c>
       <c r="E545" t="n">
-        <v>21.94822858006822</v>
+        <v>1.594762222924107</v>
       </c>
     </row>
     <row r="546">
@@ -14271,7 +14271,7 @@
         </is>
       </c>
       <c r="E546" t="n">
-        <v>22.19200876837323</v>
+        <v>10.10161351835082</v>
       </c>
     </row>
     <row r="547">
@@ -14296,7 +14296,7 @@
         </is>
       </c>
       <c r="E547" t="n">
-        <v>22.45937944173068</v>
+        <v>16.39608905914766</v>
       </c>
     </row>
     <row r="548">
@@ -14321,7 +14321,7 @@
         </is>
       </c>
       <c r="E548" t="n">
-        <v>22.19763816744863</v>
+        <v>8.386485527947418</v>
       </c>
     </row>
     <row r="549">
@@ -14346,7 +14346,7 @@
         </is>
       </c>
       <c r="E549" t="n">
-        <v>22.452611102604</v>
+        <v>15.15037035034091</v>
       </c>
     </row>
     <row r="550">
@@ -14371,7 +14371,7 @@
         </is>
       </c>
       <c r="E550" t="n">
-        <v>22.73507409033811</v>
+        <v>19.00039535453807</v>
       </c>
     </row>
     <row r="551">
@@ -14396,7 +14396,7 @@
         </is>
       </c>
       <c r="E551" t="n">
-        <v>22.27296977644971</v>
+        <v>19.36961308849864</v>
       </c>
     </row>
     <row r="552">
@@ -14421,7 +14421,7 @@
         </is>
       </c>
       <c r="E552" t="n">
-        <v>22.5980302554111</v>
+        <v>24.82007583754474</v>
       </c>
     </row>
     <row r="553">
@@ -14446,7 +14446,7 @@
         </is>
       </c>
       <c r="E553" t="n">
-        <v>22.75320730043278</v>
+        <v>27.51968209466243</v>
       </c>
     </row>
     <row r="554">
@@ -14471,7 +14471,7 @@
         </is>
       </c>
       <c r="E554" t="n">
-        <v>22.42126999105682</v>
+        <v>10.38944279732387</v>
       </c>
     </row>
     <row r="555">
@@ -14496,7 +14496,7 @@
         </is>
       </c>
       <c r="E555" t="n">
-        <v>22.98912423079026</v>
+        <v>23.66815565073053</v>
       </c>
     </row>
     <row r="556">
@@ -14521,7 +14521,7 @@
         </is>
       </c>
       <c r="E556" t="n">
-        <v>23.21688401673611</v>
+        <v>29.27459562280292</v>
       </c>
     </row>
     <row r="557">
@@ -14546,7 +14546,7 @@
         </is>
       </c>
       <c r="E557" t="n">
-        <v>22.43871018176222</v>
+        <v>-5.675709645068917</v>
       </c>
     </row>
     <row r="558">
@@ -14571,7 +14571,7 @@
         </is>
       </c>
       <c r="E558" t="n">
-        <v>23.44697121493785</v>
+        <v>20.9190786104261</v>
       </c>
     </row>
     <row r="559">
@@ -14596,7 +14596,7 @@
         </is>
       </c>
       <c r="E559" t="n">
-        <v>23.84433634381833</v>
+        <v>26.39767065774761</v>
       </c>
     </row>
     <row r="560">
@@ -14621,7 +14621,7 @@
         </is>
       </c>
       <c r="E560" t="n">
-        <v>20.22904733916652</v>
+        <v>5.049612799787912</v>
       </c>
     </row>
     <row r="561">
@@ -14646,7 +14646,7 @@
         </is>
       </c>
       <c r="E561" t="n">
-        <v>20.98351262028055</v>
+        <v>13.55835252260143</v>
       </c>
     </row>
     <row r="562">
@@ -14671,7 +14671,7 @@
         </is>
       </c>
       <c r="E562" t="n">
-        <v>21.38987265137522</v>
+        <v>19.85361747457474</v>
       </c>
     </row>
     <row r="563">
@@ -14696,7 +14696,7 @@
         </is>
       </c>
       <c r="E563" t="n">
-        <v>20.65760383464947</v>
+        <v>11.84262602276734</v>
       </c>
     </row>
     <row r="564">
@@ -14721,7 +14721,7 @@
         </is>
       </c>
       <c r="E564" t="n">
-        <v>21.37778493800862</v>
+        <v>18.60788738501772</v>
       </c>
     </row>
     <row r="565">
@@ -14746,7 +14746,7 @@
         </is>
       </c>
       <c r="E565" t="n">
-        <v>20.49985706768568</v>
+        <v>-4.626845162444777</v>
       </c>
     </row>
     <row r="566">
@@ -14771,7 +14771,7 @@
         </is>
       </c>
       <c r="E566" t="n">
-        <v>22.14543405932388</v>
+        <v>21.96550442268661</v>
       </c>
     </row>
     <row r="567">
@@ -14796,7 +14796,7 @@
         </is>
       </c>
       <c r="E567" t="n">
-        <v>22.36324061536641</v>
+        <v>27.44327077575436</v>
       </c>
     </row>
     <row r="568">
@@ -14821,7 +14821,7 @@
         </is>
       </c>
       <c r="E568" t="n">
-        <v>21.32060966968476</v>
+        <v>6.098596543932974</v>
       </c>
     </row>
     <row r="569">
@@ -14846,7 +14846,7 @@
         </is>
       </c>
       <c r="E569" t="n">
-        <v>22.06872086246165</v>
+        <v>14.60557643628654</v>
       </c>
     </row>
     <row r="570">
@@ -14871,7 +14871,7 @@
         </is>
       </c>
       <c r="E570" t="n">
-        <v>22.3079080256494</v>
+        <v>20.90005100180777</v>
       </c>
     </row>
     <row r="571">
@@ -14896,7 +14896,7 @@
         </is>
       </c>
       <c r="E571" t="n">
-        <v>21.28120282748261</v>
+        <v>12.89041948790846</v>
       </c>
     </row>
     <row r="572">
@@ -14921,7 +14921,7 @@
         </is>
       </c>
       <c r="E572" t="n">
-        <v>22.01823133832293</v>
+        <v>19.6544117553927</v>
       </c>
     </row>
     <row r="573">
@@ -14946,7 +14946,7 @@
         </is>
       </c>
       <c r="E573" t="n">
-        <v>22.31186442503383</v>
+        <v>23.50443482743033</v>
       </c>
     </row>
     <row r="574">
@@ -14971,7 +14971,7 @@
         </is>
       </c>
       <c r="E574" t="n">
-        <v>22.43311379195435</v>
+        <v>23.87372568100496</v>
       </c>
     </row>
     <row r="575">
@@ -14996,7 +14996,7 @@
         </is>
       </c>
       <c r="E575" t="n">
-        <v>23.26574640115536</v>
+        <v>29.32424841197868</v>
       </c>
     </row>
     <row r="576">
@@ -15021,7 +15021,7 @@
         </is>
       </c>
       <c r="E576" t="n">
-        <v>23.40874771636282</v>
+        <v>32.02385883980305</v>
       </c>
     </row>
     <row r="577">
@@ -15046,7 +15046,7 @@
         </is>
       </c>
       <c r="E577" t="n">
-        <v>22.75734570555621</v>
+        <v>14.89343216873563</v>
       </c>
     </row>
     <row r="578">
@@ -15071,7 +15071,7 @@
         </is>
       </c>
       <c r="E578" t="n">
-        <v>24.18411760431615</v>
+        <v>28.17231113194926</v>
       </c>
     </row>
     <row r="579">
@@ -15096,7 +15096,7 @@
         </is>
       </c>
       <c r="E579" t="n">
-        <v>24.39539737373253</v>
+        <v>33.7787559027533</v>
       </c>
     </row>
     <row r="580">
@@ -15121,7 +15121,7 @@
         </is>
       </c>
       <c r="E580" t="n">
-        <v>23.51101142655316</v>
+        <v>-1.171715345694491</v>
       </c>
     </row>
     <row r="581">
@@ -15146,7 +15146,7 @@
         </is>
       </c>
       <c r="E581" t="n">
-        <v>26.94363943675629</v>
+        <v>25.42330644665113</v>
       </c>
     </row>
     <row r="582">
@@ -15171,7 +15171,7 @@
         </is>
       </c>
       <c r="E582" t="n">
-        <v>27.83816510769656</v>
+        <v>30.90190192058499</v>
       </c>
     </row>
     <row r="583">
@@ -15196,7 +15196,7 @@
         </is>
       </c>
       <c r="E583" t="n">
-        <v>26.66100907361259</v>
+        <v>9.554036167650072</v>
       </c>
     </row>
     <row r="584">
@@ -15221,7 +15221,7 @@
         </is>
       </c>
       <c r="E584" t="n">
-        <v>28.83955686668106</v>
+        <v>18.06290449957074</v>
       </c>
     </row>
     <row r="585">
@@ -15246,7 +15246,7 @@
         </is>
       </c>
       <c r="E585" t="n">
-        <v>29.41885508327755</v>
+        <v>24.35816847886891</v>
       </c>
     </row>
     <row r="586">
@@ -15271,7 +15271,7 @@
         </is>
       </c>
       <c r="E586" t="n">
-        <v>28.03909805922124</v>
+        <v>23.11251786130977</v>
       </c>
     </row>
     <row r="587">
@@ -15296,7 +15296,7 @@
         </is>
       </c>
       <c r="E587" t="n">
-        <v>19.90189694952316</v>
+        <v>-2.163067970970285</v>
       </c>
     </row>
     <row r="588">
@@ -15321,7 +15321,7 @@
         </is>
       </c>
       <c r="E588" t="n">
-        <v>21.54840287083153</v>
+        <v>24.42928604568313</v>
       </c>
     </row>
     <row r="589">
@@ -15346,7 +15346,7 @@
         </is>
       </c>
       <c r="E589" t="n">
-        <v>21.79568115474752</v>
+        <v>29.90704324916347</v>
       </c>
     </row>
     <row r="590">
@@ -15371,7 +15371,7 @@
         </is>
       </c>
       <c r="E590" t="n">
-        <v>20.6998314172448</v>
+        <v>8.562558167477693</v>
       </c>
     </row>
     <row r="591">
@@ -15396,7 +15396,7 @@
         </is>
       </c>
       <c r="E591" t="n">
-        <v>21.45693488647758</v>
+        <v>17.06957133762042</v>
       </c>
     </row>
     <row r="592">
@@ -15421,7 +15421,7 @@
         </is>
       </c>
       <c r="E592" t="n">
-        <v>21.72466771843379</v>
+        <v>23.36402762900066</v>
       </c>
     </row>
     <row r="593">
@@ -15446,7 +15446,7 @@
         </is>
       </c>
       <c r="E593" t="n">
-        <v>20.73048085714823</v>
+        <v>15.35439794855377</v>
       </c>
     </row>
     <row r="594">
@@ -15471,7 +15471,7 @@
         </is>
       </c>
       <c r="E594" t="n">
-        <v>21.47705227236717</v>
+        <v>22.11841793746483</v>
       </c>
     </row>
     <row r="595">
@@ -15496,7 +15496,7 @@
         </is>
       </c>
       <c r="E595" t="n">
-        <v>21.80552389581458</v>
+        <v>25.96843117577437</v>
       </c>
     </row>
     <row r="596">
@@ -15521,7 +15521,7 @@
         </is>
       </c>
       <c r="E596" t="n">
-        <v>21.72084056449055</v>
+        <v>26.33773274196331</v>
       </c>
     </row>
     <row r="597">
@@ -15546,7 +15546,7 @@
         </is>
       </c>
       <c r="E597" t="n">
-        <v>22.56162698918589</v>
+        <v>31.78826330454861</v>
       </c>
     </row>
     <row r="598">
@@ -15571,7 +15571,7 @@
         </is>
       </c>
       <c r="E598" t="n">
-        <v>22.71254305668349</v>
+        <v>34.48786891460755</v>
       </c>
     </row>
     <row r="599">
@@ -15596,7 +15596,7 @@
         </is>
       </c>
       <c r="E599" t="n">
-        <v>22.04142393048263</v>
+        <v>17.3574107266423</v>
       </c>
     </row>
     <row r="600">
@@ -15621,7 +15621,7 @@
         </is>
       </c>
       <c r="E600" t="n">
-        <v>23.48116316082689</v>
+        <v>30.63631903240442</v>
       </c>
     </row>
     <row r="601">
@@ -15646,7 +15646,7 @@
         </is>
       </c>
       <c r="E601" t="n">
-        <v>23.70084571989284</v>
+        <v>36.24275239596837</v>
       </c>
     </row>
     <row r="602">
@@ -15671,7 +15671,7 @@
         </is>
       </c>
       <c r="E602" t="n">
-        <v>22.64373892087927</v>
+        <v>1.29235237037479</v>
       </c>
     </row>
     <row r="603">
@@ -15696,7 +15696,7 @@
         </is>
       </c>
       <c r="E603" t="n">
-        <v>26.0606563998201</v>
+        <v>27.88737859219278</v>
       </c>
     </row>
     <row r="604">
@@ -15721,7 +15721,7 @@
         </is>
       </c>
       <c r="E604" t="n">
-        <v>27.0127452095785</v>
+        <v>33.36596491481664</v>
       </c>
     </row>
     <row r="605">
@@ -15746,7 +15746,7 @@
         </is>
       </c>
       <c r="E605" t="n">
-        <v>25.52569979562399</v>
+        <v>12.01828833298471</v>
       </c>
     </row>
     <row r="606">
@@ -15771,7 +15771,7 @@
         </is>
       </c>
       <c r="E606" t="n">
-        <v>27.73834234011349</v>
+        <v>20.5271899418088</v>
       </c>
     </row>
     <row r="607">
@@ -15796,7 +15796,7 @@
         </is>
       </c>
       <c r="E607" t="n">
-        <v>28.34852068941599</v>
+        <v>26.82243564515575</v>
       </c>
     </row>
     <row r="608">
@@ -15821,7 +15821,7 @@
         </is>
       </c>
       <c r="E608" t="n">
-        <v>24.90469595359134</v>
+        <v>18.8114180488288</v>
       </c>
     </row>
     <row r="609">
@@ -15846,7 +15846,7 @@
         </is>
       </c>
       <c r="E609" t="n">
-        <v>27.01553429982198</v>
+        <v>25.57681458644625</v>
       </c>
     </row>
     <row r="610">
@@ -15871,7 +15871,7 @@
         </is>
       </c>
       <c r="E610" t="n">
-        <v>22.60190133765834</v>
+        <v>-7.203629403467442</v>
       </c>
     </row>
     <row r="611">
@@ -15896,7 +15896,7 @@
         </is>
       </c>
       <c r="E611" t="n">
-        <v>23.65507686269187</v>
+        <v>19.38862514279693</v>
       </c>
     </row>
     <row r="612">
@@ -15921,7 +15921,7 @@
         </is>
       </c>
       <c r="E612" t="n">
-        <v>24.01220197880529</v>
+        <v>24.86641704127154</v>
       </c>
     </row>
     <row r="613">
@@ -15946,7 +15946,7 @@
         </is>
       </c>
       <c r="E613" t="n">
-        <v>23.245535241452</v>
+        <v>3.521612171574436</v>
       </c>
     </row>
     <row r="614">
@@ -15971,7 +15971,7 @@
         </is>
       </c>
       <c r="E614" t="n">
-        <v>23.7148787657341</v>
+        <v>12.02854956329425</v>
       </c>
     </row>
     <row r="615">
@@ -15996,7 +15996,7 @@
         </is>
       </c>
       <c r="E615" t="n">
-        <v>23.98290148178258</v>
+        <v>18.32304673003962</v>
       </c>
     </row>
     <row r="616">
@@ -16021,7 +16021,7 @@
         </is>
       </c>
       <c r="E616" t="n">
-        <v>23.12470271347049</v>
+        <v>10.31337573203139</v>
       </c>
     </row>
     <row r="617">
@@ -16046,7 +16046,7 @@
         </is>
       </c>
       <c r="E617" t="n">
-        <v>23.60828080458086</v>
+        <v>17.07732886981679</v>
       </c>
     </row>
     <row r="618">
@@ -16071,7 +16071,7 @@
         </is>
       </c>
       <c r="E618" t="n">
-        <v>23.92087411420431</v>
+        <v>20.92737120308512</v>
       </c>
     </row>
     <row r="619">
@@ -16096,7 +16096,7 @@
         </is>
       </c>
       <c r="E619" t="n">
-        <v>23.89528795539816</v>
+        <v>21.29659628884686</v>
       </c>
     </row>
     <row r="620">
@@ -16121,7 +16121,7 @@
         </is>
       </c>
       <c r="E620" t="n">
-        <v>24.35614744456113</v>
+        <v>26.74709551425788</v>
       </c>
     </row>
     <row r="621">
@@ -16146,7 +16146,7 @@
         </is>
       </c>
       <c r="E621" t="n">
-        <v>24.56099248647864</v>
+        <v>29.44671570293822</v>
       </c>
     </row>
     <row r="622">
@@ -16171,7 +16171,7 @@
         </is>
       </c>
       <c r="E622" t="n">
-        <v>24.13807917616004</v>
+        <v>12.31635359806565</v>
       </c>
     </row>
     <row r="623">
@@ -16196,7 +16196,7 @@
         </is>
       </c>
       <c r="E623" t="n">
-        <v>24.91450162598676</v>
+        <v>25.59516536558961</v>
       </c>
     </row>
     <row r="624">
@@ -16221,7 +16221,7 @@
         </is>
       </c>
       <c r="E624" t="n">
-        <v>25.24225213141167</v>
+        <v>31.20163277035052</v>
       </c>
     </row>
     <row r="625">
@@ -16246,7 +16246,7 @@
         </is>
       </c>
       <c r="E625" t="n">
-        <v>23.57261032459139</v>
+        <v>-3.748795695924553</v>
       </c>
     </row>
     <row r="626">
@@ -16271,7 +16271,7 @@
         </is>
       </c>
       <c r="E626" t="n">
-        <v>25.45228921323992</v>
+        <v>22.84613104999433</v>
       </c>
     </row>
     <row r="627">
@@ -16296,7 +16296,7 @@
         </is>
       </c>
       <c r="E627" t="n">
-        <v>26.42467204022614</v>
+        <v>28.32475207038017</v>
       </c>
     </row>
     <row r="628">
@@ -16321,7 +16321,7 @@
         </is>
       </c>
       <c r="E628" t="n">
-        <v>24.78116722770537</v>
+        <v>6.976755666350602</v>
       </c>
     </row>
     <row r="629">
@@ -16346,7 +16346,7 @@
         </is>
       </c>
       <c r="E629" t="n">
-        <v>26.15561155755319</v>
+        <v>15.48558149357139</v>
       </c>
     </row>
     <row r="630">
@@ -16371,7 +16371,7 @@
         </is>
       </c>
       <c r="E630" t="n">
-        <v>26.83931114066301</v>
+        <v>21.78086807414543</v>
       </c>
     </row>
     <row r="631">
@@ -16396,7 +16396,7 @@
         </is>
       </c>
       <c r="E631" t="n">
-        <v>24.51617119788165</v>
+        <v>13.76980915194686</v>
       </c>
     </row>
     <row r="632">
@@ -16421,7 +16421,7 @@
         </is>
       </c>
       <c r="E632" t="n">
-        <v>25.87327301930582</v>
+        <v>20.53513883592162</v>
       </c>
     </row>
     <row r="633">
@@ -16446,7 +16446,7 @@
         </is>
       </c>
       <c r="E633" t="n">
-        <v>21.77635723996413</v>
+        <v>22.45844909523858</v>
       </c>
     </row>
     <row r="634">
@@ -16471,7 +16471,7 @@
         </is>
       </c>
       <c r="E634" t="n">
-        <v>21.45577516668199</v>
+        <v>22.82804186028723</v>
       </c>
     </row>
     <row r="635">
@@ -16496,7 +16496,7 @@
         </is>
       </c>
       <c r="E635" t="n">
-        <v>21.99828950398648</v>
+        <v>28.27936871439927</v>
       </c>
     </row>
     <row r="636">
@@ -16521,7 +16521,7 @@
         </is>
       </c>
       <c r="E636" t="n">
-        <v>22.25493537396608</v>
+        <v>30.97938087089138</v>
       </c>
     </row>
     <row r="637">
@@ -16546,7 +16546,7 @@
         </is>
       </c>
       <c r="E637" t="n">
-        <v>21.76508632431117</v>
+        <v>13.84705947531014</v>
       </c>
     </row>
     <row r="638">
@@ -16571,7 +16571,7 @@
         </is>
       </c>
       <c r="E638" t="n">
-        <v>22.6280441363882</v>
+        <v>27.12763926778537</v>
       </c>
     </row>
     <row r="639">
@@ -16596,7 +16596,7 @@
         </is>
       </c>
       <c r="E639" t="n">
-        <v>23.01684632102288</v>
+        <v>32.73505518173074</v>
       </c>
     </row>
     <row r="640">
@@ -16621,7 +16621,7 @@
         </is>
       </c>
       <c r="E640" t="n">
-        <v>23.40491247410893</v>
+        <v>3.52547027020508</v>
       </c>
     </row>
     <row r="641">
@@ -16646,7 +16646,7 @@
         </is>
       </c>
       <c r="E641" t="n">
-        <v>24.53694549414596</v>
+        <v>30.12005691766054</v>
       </c>
     </row>
     <row r="642">
@@ -16671,7 +16671,7 @@
         </is>
       </c>
       <c r="E642" t="n">
-        <v>24.98789009439508</v>
+        <v>35.59875593268755</v>
       </c>
     </row>
     <row r="643">
@@ -16696,7 +16696,7 @@
         </is>
       </c>
       <c r="E643" t="n">
-        <v>21.31053615522858</v>
+        <v>14.25117012805056</v>
       </c>
     </row>
     <row r="644">
@@ -16721,7 +16721,7 @@
         </is>
       </c>
       <c r="E644" t="n">
-        <v>22.12392682632616</v>
+        <v>22.76026315666907</v>
       </c>
     </row>
     <row r="645">
@@ -16746,7 +16746,7 @@
         </is>
       </c>
       <c r="E645" t="n">
-        <v>22.57893210581113</v>
+        <v>29.05560898242398</v>
       </c>
     </row>
     <row r="646">
@@ -16771,7 +16771,7 @@
         </is>
       </c>
       <c r="E646" t="n">
-        <v>21.66293504474621</v>
+        <v>21.04451326547231</v>
       </c>
     </row>
     <row r="647">
@@ -16796,7 +16796,7 @@
         </is>
       </c>
       <c r="E647" t="n">
-        <v>22.45770168455459</v>
+        <v>27.81004412844876</v>
       </c>
     </row>
     <row r="648">
@@ -16821,7 +16821,7 @@
         </is>
       </c>
       <c r="E648" t="n">
-        <v>22.88831711214695</v>
+        <v>31.66066357655741</v>
       </c>
     </row>
     <row r="649">
@@ -16846,7 +16846,7 @@
         </is>
       </c>
       <c r="E649" t="n">
-        <v>22.68619917610705</v>
+        <v>32.03060239427153</v>
       </c>
     </row>
     <row r="650">
@@ -16871,7 +16871,7 @@
         </is>
       </c>
       <c r="E650" t="n">
-        <v>23.25083455232109</v>
+        <v>37.48203181095035</v>
       </c>
     </row>
     <row r="651">
@@ -16896,7 +16896,7 @@
         </is>
       </c>
       <c r="E651" t="n">
-        <v>23.57694097705132</v>
+        <v>40.18207839565862</v>
       </c>
     </row>
     <row r="652">
@@ -16921,7 +16921,7 @@
         </is>
       </c>
       <c r="E652" t="n">
-        <v>22.94426028863868</v>
+        <v>23.04945050506611</v>
       </c>
     </row>
     <row r="653">
@@ -16946,7 +16946,7 @@
         </is>
       </c>
       <c r="E653" t="n">
-        <v>23.83600214138368</v>
+        <v>36.33030254809462</v>
       </c>
     </row>
     <row r="654">
@@ -16971,7 +16971,7 @@
         </is>
       </c>
       <c r="E654" t="n">
-        <v>24.34539996546167</v>
+        <v>41.9378541779276</v>
       </c>
     </row>
     <row r="655">
@@ -16996,7 +16996,7 @@
         </is>
       </c>
       <c r="E655" t="n">
-        <v>28.64338415731237</v>
+        <v>26.96307764069327</v>
       </c>
     </row>
     <row r="656">
@@ -17021,7 +17021,7 @@
         </is>
       </c>
       <c r="E656" t="n">
-        <v>30.26877192453563</v>
+        <v>27.33274352694839</v>
       </c>
     </row>
     <row r="657">
@@ -17046,7 +17046,7 @@
         </is>
       </c>
       <c r="E657" t="n">
-        <v>31.89827700138745</v>
+        <v>32.78413036826881</v>
       </c>
     </row>
     <row r="658">
@@ -17071,7 +17071,7 @@
         </is>
       </c>
       <c r="E658" t="n">
-        <v>32.36418092384759</v>
+        <v>35.48414669674305</v>
       </c>
     </row>
     <row r="659">
@@ -17096,7 +17096,7 @@
         </is>
       </c>
       <c r="E659" t="n">
-        <v>30.55912616931292</v>
+        <v>18.35163790919258</v>
       </c>
     </row>
     <row r="660">
@@ -17121,7 +17121,7 @@
         </is>
       </c>
       <c r="E660" t="n">
-        <v>33.16479894844702</v>
+        <v>31.63238382598361</v>
       </c>
     </row>
     <row r="661">
@@ -17146,7 +17146,7 @@
         </is>
       </c>
       <c r="E661" t="n">
-        <v>33.92349306665371</v>
+        <v>37.23980454109353</v>
       </c>
     </row>
     <row r="662">
@@ -17171,7 +17171,7 @@
         </is>
       </c>
       <c r="E662" t="n">
-        <v>27.04236219934487</v>
+        <v>8.029571304360463</v>
       </c>
     </row>
     <row r="663">
@@ -17196,7 +17196,7 @@
         </is>
       </c>
       <c r="E663" t="n">
-        <v>30.60218254677112</v>
+        <v>34.62439148568519</v>
       </c>
     </row>
     <row r="664">
@@ -17221,7 +17221,7 @@
         </is>
       </c>
       <c r="E664" t="n">
-        <v>31.39763836131419</v>
+        <v>40.1030939254709</v>
       </c>
     </row>
     <row r="665">
@@ -17246,7 +17246,7 @@
         </is>
       </c>
       <c r="E665" t="n">
-        <v>31.31481817955505</v>
+        <v>18.75570023127314</v>
       </c>
     </row>
     <row r="666">
@@ -17271,7 +17271,7 @@
         </is>
       </c>
       <c r="E666" t="n">
-        <v>33.58460611890247</v>
+        <v>27.26492186812432</v>
       </c>
     </row>
     <row r="667">
@@ -17296,7 +17296,7 @@
         </is>
       </c>
       <c r="E667" t="n">
-        <v>34.13902616033766</v>
+        <v>33.56026672004664</v>
       </c>
     </row>
     <row r="668">
@@ -17321,7 +17321,7 @@
         </is>
       </c>
       <c r="E668" t="n">
-        <v>30.37486076576399</v>
+        <v>25.54914302394055</v>
       </c>
     </row>
     <row r="669">
@@ -17346,7 +17346,7 @@
         </is>
       </c>
       <c r="E669" t="n">
-        <v>32.52153540317958</v>
+        <v>32.31478134016329</v>
       </c>
     </row>
     <row r="670">
@@ -17371,7 +17371,7 @@
         </is>
       </c>
       <c r="E670" t="n">
-        <v>33.08883662662677</v>
+        <v>36.16539885741027</v>
       </c>
     </row>
     <row r="671">
@@ -17396,7 +17396,7 @@
         </is>
       </c>
       <c r="E671" t="n">
-        <v>35.22397998222839</v>
+        <v>36.53541079366205</v>
       </c>
     </row>
     <row r="672">
@@ -17421,7 +17421,7 @@
         </is>
       </c>
       <c r="E672" t="n">
-        <v>36.89740534987668</v>
+        <v>41.98690019665851</v>
       </c>
     </row>
     <row r="673">
@@ -17446,7 +17446,7 @@
         </is>
       </c>
       <c r="E673" t="n">
-        <v>37.34846894270962</v>
+        <v>44.68695095292647</v>
       </c>
     </row>
     <row r="674">
@@ -17471,7 +17471,7 @@
         </is>
       </c>
       <c r="E674" t="n">
-        <v>35.35560632124827</v>
+        <v>27.55413567136323</v>
       </c>
     </row>
     <row r="675">
@@ -17496,7 +17496,7 @@
         </is>
       </c>
       <c r="E675" t="n">
-        <v>38.02407711874581</v>
+        <v>40.83515383762592</v>
       </c>
     </row>
     <row r="676">
@@ -17521,7 +17521,7 @@
         </is>
       </c>
       <c r="E676" t="n">
-        <v>38.75910159014677</v>
+        <v>46.44271026739428</v>
       </c>
     </row>
     <row r="677">
@@ -17546,7 +17546,7 @@
         </is>
       </c>
       <c r="E677" t="n">
-        <v>27.65341175623385</v>
+        <v>29.42736453131268</v>
       </c>
     </row>
     <row r="678">
@@ -17571,7 +17571,7 @@
         </is>
       </c>
       <c r="E678" t="n">
-        <v>29.08073230661619</v>
+        <v>29.79704112503915</v>
       </c>
     </row>
     <row r="679">
@@ -17596,7 +17596,7 @@
         </is>
       </c>
       <c r="E679" t="n">
-        <v>30.72460574358767</v>
+        <v>35.24843579651527</v>
       </c>
     </row>
     <row r="680">
@@ -17621,7 +17621,7 @@
         </is>
       </c>
       <c r="E680" t="n">
-        <v>31.21078812517423</v>
+        <v>37.94844730675216</v>
       </c>
     </row>
     <row r="681">
@@ -17646,7 +17646,7 @@
         </is>
       </c>
       <c r="E681" t="n">
-        <v>29.39546975659761</v>
+        <v>20.81590700237185</v>
       </c>
     </row>
     <row r="682">
@@ -17671,7 +17671,7 @@
         </is>
       </c>
       <c r="E682" t="n">
-        <v>32.01856761911774</v>
+        <v>34.09668226180106</v>
       </c>
     </row>
     <row r="683">
@@ -17696,7 +17696,7 @@
         </is>
       </c>
       <c r="E683" t="n">
-        <v>32.80953417645345</v>
+        <v>39.70409156731235</v>
       </c>
     </row>
     <row r="684">
@@ -17721,7 +17721,7 @@
         </is>
       </c>
       <c r="E684" t="n">
-        <v>26.25595041347346</v>
+        <v>10.49367090454856</v>
       </c>
     </row>
     <row r="685">
@@ -17746,7 +17746,7 @@
         </is>
       </c>
       <c r="E685" t="n">
-        <v>29.80542659519321</v>
+        <v>37.08849551439853</v>
       </c>
     </row>
     <row r="686">
@@ -17771,7 +17771,7 @@
         </is>
       </c>
       <c r="E686" t="n">
-        <v>30.65324092733657</v>
+        <v>42.56718880191973</v>
       </c>
     </row>
     <row r="687">
@@ -17796,7 +17796,7 @@
         </is>
       </c>
       <c r="E687" t="n">
-        <v>30.2915391489034</v>
+        <v>21.21998427789341</v>
       </c>
     </row>
     <row r="688">
@@ -17821,7 +17821,7 @@
         </is>
       </c>
       <c r="E688" t="n">
-        <v>32.58775569679762</v>
+        <v>29.72923918955742</v>
       </c>
     </row>
     <row r="689">
@@ -17846,7 +17846,7 @@
         </is>
       </c>
       <c r="E689" t="n">
-        <v>33.1760543592066</v>
+        <v>36.0245657644676</v>
       </c>
     </row>
     <row r="690">
@@ -17871,7 +17871,7 @@
         </is>
       </c>
       <c r="E690" t="n">
-        <v>29.42523625985568</v>
+        <v>28.01344391020105</v>
       </c>
     </row>
     <row r="691">
@@ -17896,7 +17896,7 @@
         </is>
       </c>
       <c r="E691" t="n">
-        <v>31.59961053610828</v>
+        <v>34.77910994507154</v>
       </c>
     </row>
     <row r="692">
@@ -17921,7 +17921,7 @@
         </is>
       </c>
       <c r="E692" t="n">
-        <v>32.2040445017581</v>
+        <v>38.62971762705952</v>
       </c>
     </row>
     <row r="693">
@@ -17946,7 +17946,7 @@
         </is>
       </c>
       <c r="E693" t="n">
-        <v>34.15003055764392</v>
+        <v>38.99974026847731</v>
       </c>
     </row>
     <row r="694">
@@ -17971,7 +17971,7 @@
         </is>
       </c>
       <c r="E694" t="n">
-        <v>35.83418055430889</v>
+        <v>44.45123750146168</v>
       </c>
     </row>
     <row r="695">
@@ -17996,7 +17996,7 @@
         </is>
       </c>
       <c r="E695" t="n">
-        <v>36.30239520950517</v>
+        <v>47.1512834383429</v>
       </c>
     </row>
     <row r="696">
@@ -18021,7 +18021,7 @@
         </is>
       </c>
       <c r="E696" t="n">
-        <v>34.3033311451869</v>
+        <v>30.01843664160784</v>
       </c>
     </row>
     <row r="697">
@@ -18046,7 +18046,7 @@
         </is>
       </c>
       <c r="E697" t="n">
-        <v>36.98463243217257</v>
+        <v>43.29948414819064</v>
       </c>
     </row>
     <row r="698">
@@ -18071,7 +18071,7 @@
         </is>
       </c>
       <c r="E698" t="n">
-        <v>37.74473161982403</v>
+        <v>48.90702916696883</v>
       </c>
     </row>
     <row r="699">
@@ -18096,7 +18096,7 @@
         </is>
       </c>
       <c r="E699" t="n">
-        <v>26.65022955546524</v>
+        <v>24.38571787723102</v>
       </c>
     </row>
     <row r="700">
@@ -18121,7 +18121,7 @@
         </is>
       </c>
       <c r="E700" t="n">
-        <v>26.20551632125102</v>
+        <v>24.75531799097719</v>
       </c>
     </row>
     <row r="701">
@@ -18146,7 +18146,7 @@
         </is>
       </c>
       <c r="E701" t="n">
-        <v>27.23291761050907</v>
+        <v>30.20668132439285</v>
       </c>
     </row>
     <row r="702">
@@ -18171,7 +18171,7 @@
         </is>
       </c>
       <c r="E702" t="n">
-        <v>27.78049154485996</v>
+        <v>32.90670741454092</v>
       </c>
     </row>
     <row r="703">
@@ -18196,7 +18196,7 @@
         </is>
       </c>
       <c r="E703" t="n">
-        <v>26.20292964740134</v>
+        <v>15.77426320055891</v>
       </c>
     </row>
     <row r="704">
@@ -18221,7 +18221,7 @@
         </is>
       </c>
       <c r="E704" t="n">
-        <v>27.83977794831787</v>
+        <v>29.05494191519104</v>
       </c>
     </row>
     <row r="705">
@@ -18246,7 +18246,7 @@
         </is>
       </c>
       <c r="E705" t="n">
-        <v>28.72251454894873</v>
+        <v>34.66238526549155</v>
       </c>
     </row>
     <row r="706">
@@ -18271,7 +18271,7 @@
         </is>
       </c>
       <c r="E706" t="n">
-        <v>26.40168232103159</v>
+        <v>5.452482653581644</v>
       </c>
     </row>
     <row r="707">
@@ -18296,7 +18296,7 @@
         </is>
       </c>
       <c r="E707" t="n">
-        <v>28.34494949544546</v>
+        <v>32.0472077904089</v>
       </c>
     </row>
     <row r="708">
@@ -18321,7 +18321,7 @@
         </is>
       </c>
       <c r="E708" t="n">
-        <v>29.32531497048168</v>
+        <v>37.52593577674811</v>
       </c>
     </row>
     <row r="709">
@@ -18346,7 +18346,7 @@
         </is>
       </c>
       <c r="E709" t="n">
-        <v>28.36921029364965</v>
+        <v>16.17841143009737</v>
       </c>
     </row>
     <row r="710">
@@ -18371,7 +18371,7 @@
         </is>
       </c>
       <c r="E710" t="n">
-        <v>29.78333662743214</v>
+        <v>24.68759056236191</v>
       </c>
     </row>
     <row r="711">
@@ -18396,7 +18396,7 @@
         </is>
       </c>
       <c r="E711" t="n">
-        <v>30.54452821691469</v>
+        <v>30.98295801511241</v>
       </c>
     </row>
     <row r="712">
@@ -18421,7 +18421,7 @@
         </is>
       </c>
       <c r="E712" t="n">
-        <v>27.93317111241705</v>
+        <v>22.97179483182761</v>
       </c>
     </row>
     <row r="713">
@@ -18446,7 +18446,7 @@
         </is>
       </c>
       <c r="E713" t="n">
-        <v>29.32730918824595</v>
+        <v>29.73739401608391</v>
       </c>
     </row>
     <row r="714">
@@ -18471,7 +18471,7 @@
         </is>
       </c>
       <c r="E714" t="n">
-        <v>30.16760899880016</v>
+        <v>33.5880307944886</v>
       </c>
     </row>
     <row r="715">
@@ -18496,7 +18496,7 @@
         </is>
       </c>
       <c r="E715" t="n">
-        <v>29.96918153975889</v>
+        <v>33.95797696125346</v>
       </c>
     </row>
     <row r="716">
@@ -18521,7 +18521,7 @@
         </is>
       </c>
       <c r="E716" t="n">
-        <v>31.02389336638559</v>
+        <v>39.40944285710721</v>
       </c>
     </row>
     <row r="717">
@@ -18546,7 +18546,7 @@
         </is>
       </c>
       <c r="E717" t="n">
-        <v>31.60076424439907</v>
+        <v>42.1095033743738</v>
       </c>
     </row>
     <row r="718">
@@ -18571,7 +18571,7 @@
         </is>
       </c>
       <c r="E718" t="n">
-        <v>29.82596740178136</v>
+        <v>24.97675266523887</v>
       </c>
     </row>
     <row r="719">
@@ -18596,7 +18596,7 @@
         </is>
       </c>
       <c r="E719" t="n">
-        <v>31.50505644414347</v>
+        <v>38.2577036303273</v>
       </c>
     </row>
     <row r="720">
@@ -18621,7 +18621,7 @@
         </is>
       </c>
       <c r="E720" t="n">
-        <v>32.42354835600769</v>
+        <v>43.86528269474304</v>
       </c>
     </row>
     <row r="721">
@@ -18646,7 +18646,7 @@
         </is>
       </c>
       <c r="E721" t="n">
-        <v>24.32122255205791</v>
+        <v>-0.7479393842032032</v>
       </c>
     </row>
     <row r="722">
@@ -18671,7 +18671,7 @@
         </is>
       </c>
       <c r="E722" t="n">
-        <v>24.65973142211496</v>
+        <v>25.84421279385647</v>
       </c>
     </row>
     <row r="723">
@@ -18696,7 +18696,7 @@
         </is>
       </c>
       <c r="E723" t="n">
-        <v>24.81422174169466</v>
+        <v>31.32196253646028</v>
       </c>
     </row>
     <row r="724">
@@ -18721,7 +18721,7 @@
         </is>
       </c>
       <c r="E724" t="n">
-        <v>23.50265956947174</v>
+        <v>9.977423194592877</v>
       </c>
     </row>
     <row r="725">
@@ -18746,7 +18746,7 @@
         </is>
       </c>
       <c r="E725" t="n">
-        <v>23.65220435149647</v>
+        <v>18.48442090522208</v>
       </c>
     </row>
     <row r="726">
@@ -18771,7 +18771,7 @@
         </is>
       </c>
       <c r="E726" t="n">
-        <v>23.84187031265018</v>
+        <v>24.7789056254738</v>
       </c>
     </row>
     <row r="727">
@@ -18796,7 +18796,7 @@
         </is>
       </c>
       <c r="E727" t="n">
-        <v>23.69117800257575</v>
+        <v>16.76929368196416</v>
       </c>
     </row>
     <row r="728">
@@ -18821,7 +18821,7 @@
         </is>
       </c>
       <c r="E728" t="n">
-        <v>23.84383683399592</v>
+        <v>23.53328958020605</v>
       </c>
     </row>
     <row r="729">
@@ -18846,7 +18846,7 @@
         </is>
       </c>
       <c r="E729" t="n">
-        <v>24.04523602299657</v>
+        <v>27.38332295693666</v>
       </c>
     </row>
     <row r="730">
@@ -18871,7 +18871,7 @@
         </is>
       </c>
       <c r="E730" t="n">
-        <v>23.73318843420429</v>
+        <v>27.75245662052051</v>
       </c>
     </row>
     <row r="731">
@@ -18896,7 +18896,7 @@
         </is>
       </c>
       <c r="E731" t="n">
-        <v>23.9501781002923</v>
+        <v>33.20297045446962</v>
       </c>
     </row>
     <row r="732">
@@ -18921,7 +18921,7 @@
         </is>
       </c>
       <c r="E732" t="n">
-        <v>24.05640808175517</v>
+        <v>35.90257406198084</v>
       </c>
     </row>
     <row r="733">
@@ -18946,7 +18946,7 @@
         </is>
       </c>
       <c r="E733" t="n">
-        <v>23.85185199780728</v>
+        <v>18.77214375817262</v>
       </c>
     </row>
     <row r="734">
@@ -18971,7 +18971,7 @@
         </is>
       </c>
       <c r="E734" t="n">
-        <v>24.23442572835553</v>
+        <v>32.05100004026106</v>
       </c>
     </row>
     <row r="735">
@@ -18996,7 +18996,7 @@
         </is>
       </c>
       <c r="E735" t="n">
-        <v>24.38869875323559</v>
+        <v>37.65744887831336</v>
       </c>
     </row>
     <row r="736">
@@ -19021,7 +19021,7 @@
         </is>
       </c>
       <c r="E736" t="n">
-        <v>23.47214021251437</v>
+        <v>2.707192181302464</v>
       </c>
     </row>
     <row r="737">
@@ -19046,7 +19046,7 @@
         </is>
       </c>
       <c r="E737" t="n">
-        <v>24.16086821996892</v>
+        <v>29.30201653620812</v>
       </c>
     </row>
     <row r="738">
@@ -19071,7 +19071,7 @@
         </is>
       </c>
       <c r="E738" t="n">
-        <v>24.43020262259026</v>
+        <v>34.78059538580835</v>
       </c>
     </row>
     <row r="739">
@@ -19096,7 +19096,7 @@
         </is>
       </c>
       <c r="E739" t="n">
-        <v>21.74780034115717</v>
+        <v>13.43286454409061</v>
       </c>
     </row>
     <row r="740">
@@ -19121,7 +19121,7 @@
         </is>
       </c>
       <c r="E740" t="n">
-        <v>22.26380462511214</v>
+        <v>21.94175067523368</v>
       </c>
     </row>
     <row r="741">
@@ -19146,7 +19146,7 @@
         </is>
       </c>
       <c r="E741" t="n">
-        <v>22.53641554364934</v>
+        <v>28.23702479670779</v>
       </c>
     </row>
     <row r="742">
@@ -19171,7 +19171,7 @@
         </is>
       </c>
       <c r="E742" t="n">
-        <v>22.09704646736492</v>
+        <v>20.22602495415306</v>
       </c>
     </row>
     <row r="743">
@@ -19196,7 +19196,7 @@
         </is>
       </c>
       <c r="E743" t="n">
-        <v>22.58368380816448</v>
+        <v>26.99139738798529</v>
       </c>
     </row>
     <row r="744">
@@ -19221,7 +19221,7 @@
         </is>
       </c>
       <c r="E744" t="n">
-        <v>21.43041355500547</v>
+        <v>3.755482454312489</v>
       </c>
     </row>
     <row r="745">
@@ -19246,7 +19246,7 @@
         </is>
       </c>
       <c r="E745" t="n">
-        <v>22.54393286892321</v>
+        <v>30.34786815157289</v>
       </c>
     </row>
     <row r="746">
@@ -19271,7 +19271,7 @@
         </is>
       </c>
       <c r="E746" t="n">
-        <v>22.69555121587247</v>
+        <v>35.82562131768641</v>
       </c>
     </row>
     <row r="747">
@@ -19296,7 +19296,7 @@
         </is>
       </c>
       <c r="E747" t="n">
-        <v>21.81291195090926</v>
+        <v>14.48127406387239</v>
       </c>
     </row>
     <row r="748">
@@ -19321,7 +19321,7 @@
         </is>
       </c>
       <c r="E748" t="n">
-        <v>22.31075148130075</v>
+        <v>22.98840037186365</v>
       </c>
     </row>
     <row r="749">
@@ -19346,7 +19346,7 @@
         </is>
       </c>
       <c r="E749" t="n">
-        <v>22.47856452134113</v>
+        <v>29.28288411635045</v>
       </c>
     </row>
     <row r="750">
@@ -19371,7 +19371,7 @@
         </is>
       </c>
       <c r="E750" t="n">
-        <v>21.85609743554558</v>
+        <v>21.27324418975373</v>
       </c>
     </row>
     <row r="751">
@@ -19396,7 +19396,7 @@
         </is>
       </c>
       <c r="E751" t="n">
-        <v>22.33930410945645</v>
+        <v>28.03734753364764</v>
       </c>
     </row>
     <row r="752">
@@ -19421,7 +19421,7 @@
         </is>
       </c>
       <c r="E752" t="n">
-        <v>22.54297222006898</v>
+        <v>31.88737897773042</v>
       </c>
     </row>
     <row r="753">
@@ -19446,7 +19446,7 @@
         </is>
       </c>
       <c r="E753" t="n">
-        <v>22.59038061603049</v>
+        <v>32.25658576126678</v>
       </c>
     </row>
     <row r="754">
@@ -19471,7 +19471,7 @@
         </is>
       </c>
       <c r="E754" t="n">
-        <v>23.15443740570911</v>
+        <v>37.70715957662169</v>
       </c>
     </row>
     <row r="755">
@@ -19496,7 +19496,7 @@
         </is>
       </c>
       <c r="E755" t="n">
-        <v>23.25340247768244</v>
+        <v>40.40676735518566</v>
       </c>
     </row>
     <row r="756">
@@ -19521,7 +19521,7 @@
         </is>
       </c>
       <c r="E756" t="n">
-        <v>22.90289237897975</v>
+        <v>23.27614967580037</v>
       </c>
     </row>
     <row r="757">
@@ -19546,7 +19546,7 @@
         </is>
       </c>
       <c r="E757" t="n">
-        <v>23.87221418282093</v>
+        <v>36.5551720686811</v>
       </c>
     </row>
     <row r="758">
@@ -19571,7 +19571,7 @@
         </is>
       </c>
       <c r="E758" t="n">
-        <v>24.01790268010382</v>
+        <v>42.1616257048956</v>
       </c>
     </row>
     <row r="759">
@@ -19596,7 +19596,7 @@
         </is>
       </c>
       <c r="E759" t="n">
-        <v>24.51561167205575</v>
+        <v>7.21120302728669</v>
       </c>
     </row>
     <row r="760">
@@ -19621,7 +19621,7 @@
         </is>
       </c>
       <c r="E760" t="n">
-        <v>26.90426421021778</v>
+        <v>33.80626092000894</v>
       </c>
     </row>
     <row r="761">
@@ -19646,7 +19646,7 @@
         </is>
       </c>
       <c r="E761" t="n">
-        <v>27.56122751110274</v>
+        <v>39.28484319529385</v>
       </c>
     </row>
     <row r="762">
@@ -19671,7 +19671,7 @@
         </is>
       </c>
       <c r="E762" t="n">
-        <v>26.73128457169446</v>
+        <v>17.93730445864351</v>
       </c>
     </row>
     <row r="763">
@@ -19696,7 +19696,7 @@
         </is>
       </c>
       <c r="E763" t="n">
-        <v>28.25931688206619</v>
+        <v>26.44631919998809</v>
       </c>
     </row>
     <row r="764">
@@ -19721,7 +19721,7 @@
         </is>
       </c>
       <c r="E764" t="n">
-        <v>28.68286554551753</v>
+        <v>32.74159234798977</v>
       </c>
     </row>
     <row r="765">
@@ -19746,7 +19746,7 @@
         </is>
       </c>
       <c r="E765" t="n">
-        <v>27.702163165515</v>
+        <v>31.49604441189418</v>
       </c>
     </row>
     <row r="766">
@@ -19771,7 +19771,7 @@
         </is>
       </c>
       <c r="E766" t="n">
-        <v>21.01773861182505</v>
+        <v>6.219228605423115</v>
       </c>
     </row>
     <row r="767">
@@ -19796,7 +19796,7 @@
         </is>
       </c>
       <c r="E767" t="n">
-        <v>22.13056667539928</v>
+        <v>32.81161873434833</v>
       </c>
     </row>
     <row r="768">
@@ -19821,7 +19821,7 @@
         </is>
       </c>
       <c r="E768" t="n">
-        <v>22.30267213665248</v>
+        <v>38.28936275025849</v>
       </c>
     </row>
     <row r="769">
@@ -19846,7 +19846,7 @@
         </is>
       </c>
       <c r="E769" t="n">
-        <v>21.3814907195109</v>
+        <v>16.94520464554758</v>
       </c>
     </row>
     <row r="770">
@@ -19871,7 +19871,7 @@
         </is>
       </c>
       <c r="E770" t="n">
-        <v>21.88439847472445</v>
+        <v>25.45236423067213</v>
       </c>
     </row>
     <row r="771">
@@ -19896,7 +19896,7 @@
         </is>
       </c>
       <c r="E771" t="n">
-        <v>22.0713471896614</v>
+        <v>31.74682970083082</v>
       </c>
     </row>
     <row r="772">
@@ -19921,7 +19921,7 @@
         </is>
       </c>
       <c r="E772" t="n">
-        <v>21.47325522532024</v>
+        <v>23.73719160779406</v>
       </c>
     </row>
     <row r="773">
@@ -19946,7 +19946,7 @@
         </is>
       </c>
       <c r="E773" t="n">
-        <v>21.96189581332014</v>
+        <v>30.50132267274246</v>
       </c>
     </row>
     <row r="774">
@@ -19971,7 +19971,7 @@
         </is>
       </c>
       <c r="E774" t="n">
-        <v>22.18907594747565</v>
+        <v>34.35134428322324</v>
       </c>
     </row>
     <row r="775">
@@ -19996,7 +19996,7 @@
         </is>
       </c>
       <c r="E775" t="n">
-        <v>22.09580324500223</v>
+        <v>34.72056177880684</v>
       </c>
     </row>
     <row r="776">
@@ -20021,7 +20021,7 @@
         </is>
       </c>
       <c r="E776" t="n">
-        <v>22.66488064040866</v>
+        <v>40.17114342563862</v>
       </c>
     </row>
     <row r="777">
@@ -20046,7 +20046,7 @@
         </is>
       </c>
       <c r="E777" t="n">
-        <v>22.76865181286819</v>
+        <v>42.87074638648819</v>
       </c>
     </row>
     <row r="778">
@@ -20071,7 +20071,7 @@
         </is>
       </c>
       <c r="E778" t="n">
-        <v>22.40634900183895</v>
+        <v>25.7400971910575</v>
       </c>
     </row>
     <row r="779">
@@ -20096,7 +20096,7 @@
         </is>
       </c>
       <c r="E779" t="n">
-        <v>23.38373851120136</v>
+        <v>39.0191489259915</v>
       </c>
     </row>
     <row r="780">
@@ -20121,7 +20121,7 @@
         </is>
       </c>
       <c r="E780" t="n">
-        <v>23.53412001717789</v>
+        <v>44.62559115473637</v>
       </c>
     </row>
     <row r="781">
@@ -20146,7 +20146,7 @@
         </is>
       </c>
       <c r="E781" t="n">
-        <v>23.84512856500596</v>
+        <v>9.675239699708602</v>
       </c>
     </row>
     <row r="782">
@@ -20171,7 +20171,7 @@
         </is>
       </c>
       <c r="E782" t="n">
-        <v>26.21738733102415</v>
+        <v>36.2703020217452</v>
       </c>
     </row>
     <row r="783">
@@ -20196,7 +20196,7 @@
         </is>
       </c>
       <c r="E783" t="n">
-        <v>26.92047789935625</v>
+        <v>41.74887514569498</v>
       </c>
     </row>
     <row r="784">
@@ -20221,7 +20221,7 @@
         </is>
       </c>
       <c r="E784" t="n">
-        <v>25.85720969772728</v>
+        <v>20.40152557836628</v>
       </c>
     </row>
     <row r="785">
@@ -20246,7 +20246,7 @@
         </is>
       </c>
       <c r="E785" t="n">
-        <v>27.40542003363356</v>
+        <v>28.91057359517704</v>
       </c>
     </row>
     <row r="786">
@@ -20271,7 +20271,7 @@
         </is>
       </c>
       <c r="E786" t="n">
-        <v>27.85298171565819</v>
+        <v>35.20582846677389</v>
       </c>
     </row>
     <row r="787">
@@ -20296,7 +20296,7 @@
         </is>
       </c>
       <c r="E787" t="n">
-        <v>25.43402616668558</v>
+        <v>27.19480248113083</v>
       </c>
     </row>
     <row r="788">
@@ -20321,7 +20321,7 @@
         </is>
       </c>
       <c r="E788" t="n">
-        <v>26.90511939972028</v>
+        <v>33.96031009038468</v>
       </c>
     </row>
     <row r="789">
@@ -20346,7 +20346,7 @@
         </is>
       </c>
       <c r="E789" t="n">
-        <v>24.11690803655918</v>
+        <v>1.17870226077692</v>
       </c>
     </row>
     <row r="790">
@@ -20371,7 +20371,7 @@
         </is>
       </c>
       <c r="E790" t="n">
-        <v>24.8418846964672</v>
+        <v>27.77099291957559</v>
       </c>
     </row>
     <row r="791">
@@ -20396,7 +20396,7 @@
         </is>
       </c>
       <c r="E791" t="n">
-        <v>25.07823249900164</v>
+        <v>33.24877163101992</v>
       </c>
     </row>
     <row r="792">
@@ -20421,7 +20421,7 @@
         </is>
       </c>
       <c r="E792" t="n">
-        <v>24.52553035644556</v>
+        <v>11.90429373939965</v>
       </c>
     </row>
     <row r="793">
@@ -20446,7 +20446,7 @@
         </is>
       </c>
       <c r="E793" t="n">
-        <v>24.84160749080151</v>
+        <v>20.41137754673123</v>
       </c>
     </row>
     <row r="794">
@@ -20471,7 +20471,7 @@
         </is>
       </c>
       <c r="E794" t="n">
-        <v>25.01218747968115</v>
+        <v>26.70588389287964</v>
       </c>
     </row>
     <row r="795">
@@ -20496,7 +20496,7 @@
         </is>
       </c>
       <c r="E795" t="n">
-        <v>24.44141252927572</v>
+        <v>18.69620448150041</v>
       </c>
     </row>
     <row r="796">
@@ -20521,7 +20521,7 @@
         </is>
       </c>
       <c r="E796" t="n">
-        <v>24.76804892013577</v>
+        <v>25.46026869637145</v>
       </c>
     </row>
     <row r="797">
@@ -20546,7 +20546,7 @@
         </is>
       </c>
       <c r="E797" t="n">
-        <v>24.96729512285308</v>
+        <v>29.31031940190765</v>
       </c>
     </row>
     <row r="798">
@@ -20571,7 +20571,7 @@
         </is>
       </c>
       <c r="E798" t="n">
-        <v>24.98115670862608</v>
+        <v>29.67946041761805</v>
       </c>
     </row>
     <row r="799">
@@ -20596,7 +20596,7 @@
         </is>
       </c>
       <c r="E799" t="n">
-        <v>25.29932516141666</v>
+        <v>35.13001072747916</v>
       </c>
     </row>
     <row r="800">
@@ -20621,7 +20621,7 @@
         </is>
       </c>
       <c r="E800" t="n">
-        <v>25.42847852182567</v>
+        <v>37.82962826695355</v>
       </c>
     </row>
     <row r="801">
@@ -20646,7 +20646,7 @@
         </is>
       </c>
       <c r="E801" t="n">
-        <v>25.16138636861784</v>
+        <v>20.69907515432313</v>
       </c>
     </row>
     <row r="802">
@@ -20671,7 +20671,7 @@
         </is>
       </c>
       <c r="E802" t="n">
-        <v>25.69950903237477</v>
+        <v>33.97803035112982</v>
       </c>
     </row>
     <row r="803">
@@ -20696,7 +20696,7 @@
         </is>
       </c>
       <c r="E803" t="n">
-        <v>25.90610443599139</v>
+        <v>39.58450662170135</v>
       </c>
     </row>
     <row r="804">
@@ -20721,7 +20721,7 @@
         </is>
       </c>
       <c r="E804" t="n">
-        <v>24.662520295478</v>
+        <v>4.634126726313941</v>
       </c>
     </row>
     <row r="805">
@@ -20746,7 +20746,7 @@
         </is>
       </c>
       <c r="E805" t="n">
-        <v>25.95328811646795</v>
+        <v>31.22908957250214</v>
       </c>
     </row>
     <row r="806">
@@ -20771,7 +20771,7 @@
         </is>
       </c>
       <c r="E806" t="n">
-        <v>26.67818843846874</v>
+        <v>36.7076973944548</v>
       </c>
     </row>
     <row r="807">
@@ -20796,7 +20796,7 @@
         </is>
       </c>
       <c r="E807" t="n">
-        <v>25.47003515231751</v>
+        <v>15.36002800677189</v>
       </c>
     </row>
     <row r="808">
@@ -20821,7 +20821,7 @@
         </is>
       </c>
       <c r="E808" t="n">
-        <v>26.42271166966403</v>
+        <v>23.86900024254267</v>
       </c>
     </row>
     <row r="809">
@@ -20846,7 +20846,7 @@
         </is>
       </c>
       <c r="E809" t="n">
-        <v>26.9205813750325</v>
+        <v>30.16429599180249</v>
       </c>
     </row>
     <row r="810">
@@ -20871,7 +20871,7 @@
         </is>
       </c>
       <c r="E810" t="n">
-        <v>25.29708296923136</v>
+        <v>22.15322868050608</v>
       </c>
     </row>
     <row r="811">
@@ -20896,7 +20896,7 @@
         </is>
       </c>
       <c r="E811" t="n">
-        <v>26.23534436102557</v>
+        <v>28.9186694360637</v>
       </c>
     </row>
     <row r="812">
@@ -20921,7 +20921,7 @@
         </is>
       </c>
       <c r="E812" t="n">
-        <v>22.85343599266336</v>
+        <v>30.8419674623096</v>
       </c>
     </row>
     <row r="813">
@@ -20946,7 +20946,7 @@
         </is>
       </c>
       <c r="E813" t="n">
-        <v>22.58779649544409</v>
+        <v>31.21147614347258</v>
       </c>
     </row>
     <row r="814">
@@ -20971,7 +20971,7 @@
         </is>
       </c>
       <c r="E814" t="n">
-        <v>22.95824216431197</v>
+        <v>36.66285407976291</v>
       </c>
     </row>
     <row r="815">
@@ -20996,7 +20996,7 @@
         </is>
       </c>
       <c r="E815" t="n">
-        <v>23.12758857840642</v>
+        <v>39.36286358099842</v>
       </c>
     </row>
     <row r="816">
@@ -21021,7 +21021,7 @@
         </is>
       </c>
       <c r="E816" t="n">
-        <v>22.83901328801709</v>
+        <v>22.23035117893456</v>
       </c>
     </row>
     <row r="817">
@@ -21046,7 +21046,7 @@
         </is>
       </c>
       <c r="E817" t="n">
-        <v>23.42820257942482</v>
+        <v>35.51107439710866</v>
       </c>
     </row>
     <row r="818">
@@ -21071,7 +21071,7 @@
         </is>
       </c>
       <c r="E818" t="n">
-        <v>23.6833942706472</v>
+        <v>41.1184991626679</v>
       </c>
     </row>
     <row r="819">
@@ -21096,7 +21096,7 @@
         </is>
       </c>
       <c r="E819" t="n">
-        <v>24.23582513423251</v>
+        <v>11.90759206241349</v>
       </c>
     </row>
     <row r="820">
@@ -21121,7 +21121,7 @@
         </is>
       </c>
       <c r="E820" t="n">
-        <v>25.01755306853963</v>
+        <v>38.50221479856221</v>
       </c>
     </row>
     <row r="821">
@@ -21146,7 +21146,7 @@
         </is>
       </c>
       <c r="E821" t="n">
-        <v>25.31577468002012</v>
+        <v>43.98090061533453</v>
       </c>
     </row>
     <row r="822">
@@ -21171,7 +21171,7 @@
         </is>
       </c>
       <c r="E822" t="n">
-        <v>22.61856530023515</v>
+        <v>22.63364180870447</v>
       </c>
     </row>
     <row r="823">
@@ -21196,7 +21196,7 @@
         </is>
       </c>
       <c r="E823" t="n">
-        <v>23.17949938404369</v>
+        <v>31.14288123112972</v>
       </c>
     </row>
     <row r="824">
@@ -21221,7 +21221,7 @@
         </is>
       </c>
       <c r="E824" t="n">
-        <v>23.47845810394699</v>
+        <v>37.4382362262922</v>
       </c>
     </row>
     <row r="825">
@@ -21246,7 +21246,7 @@
         </is>
       </c>
       <c r="E825" t="n">
-        <v>22.90660137202845</v>
+        <v>29.42713211269161</v>
       </c>
     </row>
     <row r="826">
@@ -21271,7 +21271,7 @@
         </is>
       </c>
       <c r="E826" t="n">
-        <v>23.45029944582246</v>
+        <v>36.19277403618635</v>
       </c>
     </row>
     <row r="827">
@@ -21296,7 +21296,7 @@
         </is>
       </c>
       <c r="E827" t="n">
-        <v>23.73427206111427</v>
+        <v>40.04340184806502</v>
       </c>
     </row>
     <row r="828">
@@ -21321,7 +21321,7 @@
         </is>
       </c>
       <c r="E828" t="n">
-        <v>23.56764034027826</v>
+        <v>40.41325658369858</v>
       </c>
     </row>
     <row r="829">
@@ -21346,7 +21346,7 @@
         </is>
       </c>
       <c r="E829" t="n">
-        <v>23.95468533086982</v>
+        <v>45.86473707752471</v>
       </c>
     </row>
     <row r="830">
@@ -21371,7 +21371,7 @@
         </is>
       </c>
       <c r="E830" t="n">
-        <v>24.16907873790725</v>
+        <v>48.5647810069914</v>
       </c>
     </row>
     <row r="831">
@@ -21396,7 +21396,7 @@
         </is>
       </c>
       <c r="E831" t="n">
-        <v>23.77942081689386</v>
+        <v>31.43196213100721</v>
       </c>
     </row>
     <row r="832">
@@ -21421,7 +21421,7 @@
         </is>
       </c>
       <c r="E832" t="n">
-        <v>24.3901125385979</v>
+        <v>44.71295758257891</v>
       </c>
     </row>
     <row r="833">
@@ -21446,7 +21446,7 @@
         </is>
       </c>
       <c r="E833" t="n">
-        <v>24.72470151666623</v>
+        <v>50.32051806491695</v>
       </c>
     </row>
     <row r="834">
@@ -21471,7 +21471,7 @@
         </is>
       </c>
       <c r="E834" t="n">
-        <v>28.14884675485231</v>
+        <v>35.34661255514239</v>
       </c>
     </row>
     <row r="835">
@@ -21496,7 +21496,7 @@
         </is>
       </c>
       <c r="E835" t="n">
-        <v>29.27426662894339</v>
+        <v>35.71619435665566</v>
       </c>
     </row>
     <row r="836">
@@ -21521,7 +21521,7 @@
         </is>
       </c>
       <c r="E836" t="n">
-        <v>30.41639401853677</v>
+        <v>41.16763227931285</v>
       </c>
     </row>
     <row r="837">
@@ -21546,7 +21546,7 @@
         </is>
       </c>
       <c r="E837" t="n">
-        <v>30.75036099833385</v>
+        <v>43.86764595235339</v>
       </c>
     </row>
     <row r="838">
@@ -21571,7 +21571,7 @@
         </is>
       </c>
       <c r="E838" t="n">
-        <v>29.49618322902494</v>
+        <v>26.7349461588894</v>
       </c>
     </row>
     <row r="839">
@@ -21596,7 +21596,7 @@
         </is>
       </c>
       <c r="E839" t="n">
-        <v>31.32199665851316</v>
+        <v>40.01583550191954</v>
       </c>
     </row>
     <row r="840">
@@ -21621,7 +21621,7 @@
         </is>
       </c>
       <c r="E840" t="n">
-        <v>31.86365479810673</v>
+        <v>45.62326506850555</v>
       </c>
     </row>
     <row r="841">
@@ -21646,7 +21646,7 @@
         </is>
       </c>
       <c r="E841" t="n">
-        <v>27.14887247743321</v>
+        <v>16.41170963798819</v>
       </c>
     </row>
     <row r="842">
@@ -21671,7 +21671,7 @@
         </is>
       </c>
       <c r="E842" t="n">
-        <v>29.63269440912478</v>
+        <v>43.0065659077015</v>
       </c>
     </row>
     <row r="843">
@@ -21696,7 +21696,7 @@
         </is>
       </c>
       <c r="E843" t="n">
-        <v>30.20938291696609</v>
+        <v>48.485255148847</v>
       </c>
     </row>
     <row r="844">
@@ -21721,7 +21721,7 @@
         </is>
       </c>
       <c r="E844" t="n">
-        <v>30.17335735462927</v>
+        <v>27.13818845301963</v>
       </c>
     </row>
     <row r="845">
@@ -21746,7 +21746,7 @@
         </is>
       </c>
       <c r="E845" t="n">
-        <v>31.77032689902242</v>
+        <v>35.64755648465855</v>
       </c>
     </row>
     <row r="846">
@@ -21771,7 +21771,7 @@
         </is>
       </c>
       <c r="E846" t="n">
-        <v>32.16516221164149</v>
+        <v>41.94291050522072</v>
       </c>
     </row>
     <row r="847">
@@ -21796,7 +21796,7 @@
         </is>
       </c>
       <c r="E847" t="n">
-        <v>29.5147930018893</v>
+        <v>33.93177841207144</v>
       </c>
     </row>
     <row r="848">
@@ -21821,7 +21821,7 @@
         </is>
       </c>
       <c r="E848" t="n">
-        <v>31.01964947523903</v>
+        <v>40.69752778931156</v>
       </c>
     </row>
     <row r="849">
@@ -21846,7 +21846,7 @@
         </is>
       </c>
       <c r="E849" t="n">
-        <v>31.42991499412721</v>
+        <v>44.54815366970793</v>
       </c>
     </row>
     <row r="850">
@@ -21871,7 +21871,7 @@
         </is>
       </c>
       <c r="E850" t="n">
-        <v>32.93243308219147</v>
+        <v>44.91808152314077</v>
       </c>
     </row>
     <row r="851">
@@ -21896,7 +21896,7 @@
         </is>
       </c>
       <c r="E851" t="n">
-        <v>34.1088246759899</v>
+        <v>50.36962200325361</v>
       </c>
     </row>
     <row r="852">
@@ -21921,7 +21921,7 @@
         </is>
       </c>
       <c r="E852" t="n">
-        <v>34.42581442495417</v>
+        <v>53.0696701034429</v>
       </c>
     </row>
     <row r="853">
@@ -21946,7 +21946,7 @@
         </is>
       </c>
       <c r="E853" t="n">
-        <v>33.03485161003107</v>
+        <v>35.93666383733951</v>
       </c>
     </row>
     <row r="854">
@@ -21971,7 +21971,7 @@
         </is>
       </c>
       <c r="E854" t="n">
-        <v>34.91010380450142</v>
+        <v>49.217825412344</v>
       </c>
     </row>
     <row r="855">
@@ -21996,7 +21996,7 @@
         </is>
       </c>
       <c r="E855" t="n">
-        <v>35.42530768697846</v>
+        <v>54.82539069383434</v>
       </c>
     </row>
     <row r="856">
@@ -22021,7 +22021,7 @@
         </is>
       </c>
       <c r="E856" t="n">
-        <v>27.37852661002331</v>
+        <v>37.81086839863367</v>
       </c>
     </row>
     <row r="857">
@@ -22046,7 +22046,7 @@
         </is>
       </c>
       <c r="E857" t="n">
-        <v>28.36504288517324</v>
+        <v>38.18046090759647</v>
       </c>
     </row>
     <row r="858">
@@ -22071,7 +22071,7 @@
         </is>
       </c>
       <c r="E858" t="n">
-        <v>29.51361485731272</v>
+        <v>43.631906661207</v>
       </c>
     </row>
     <row r="859">
@@ -22096,7 +22096,7 @@
         </is>
       </c>
       <c r="E859" t="n">
-        <v>29.86441236173069</v>
+        <v>46.33191551565126</v>
       </c>
     </row>
     <row r="860">
@@ -22121,7 +22121,7 @@
         </is>
       </c>
       <c r="E860" t="n">
-        <v>28.60936101135741</v>
+        <v>29.19918420546999</v>
       </c>
     </row>
     <row r="861">
@@ -22146,7 +22146,7 @@
         </is>
       </c>
       <c r="E861" t="n">
-        <v>30.44137489624104</v>
+        <v>42.48010289045722</v>
       </c>
     </row>
     <row r="862">
@@ -22171,7 +22171,7 @@
         </is>
       </c>
       <c r="E862" t="n">
-        <v>26.55330632431147</v>
+        <v>18.87577819378165</v>
       </c>
     </row>
     <row r="863">
@@ -22196,7 +22196,7 @@
         </is>
       </c>
       <c r="E863" t="n">
-        <v>29.02454635808225</v>
+        <v>45.47063889212377</v>
       </c>
     </row>
     <row r="864">
@@ -22221,7 +22221,7 @@
         </is>
       </c>
       <c r="E864" t="n">
-        <v>29.64350867099866</v>
+        <v>50.94931898041098</v>
       </c>
     </row>
     <row r="865">
@@ -22246,7 +22246,7 @@
         </is>
       </c>
       <c r="E865" t="n">
-        <v>29.39770743472845</v>
+        <v>29.60244145386317</v>
       </c>
     </row>
     <row r="866">
@@ -22271,7 +22271,7 @@
         </is>
       </c>
       <c r="E866" t="n">
-        <v>31.00986162185034</v>
+        <v>38.1118427594425</v>
       </c>
     </row>
     <row r="867">
@@ -22296,7 +22296,7 @@
         </is>
       </c>
       <c r="E867" t="n">
-        <v>31.43059632577577</v>
+        <v>44.40717850298547</v>
       </c>
     </row>
     <row r="868">
@@ -22321,7 +22321,7 @@
         </is>
       </c>
       <c r="E868" t="n">
-        <v>28.79407541883812</v>
+        <v>36.39604825193915</v>
       </c>
     </row>
     <row r="869">
@@ -22346,7 +22346,7 @@
         </is>
       </c>
       <c r="E869" t="n">
-        <v>30.31404375396333</v>
+        <v>43.16182534829962</v>
       </c>
     </row>
     <row r="870">
@@ -22371,7 +22371,7 @@
         </is>
       </c>
       <c r="E870" t="n">
-        <v>30.75363527019064</v>
+        <v>47.01244139310172</v>
       </c>
     </row>
     <row r="871">
@@ -22396,7 +22396,7 @@
         </is>
       </c>
       <c r="E871" t="n">
-        <v>32.12188850357</v>
+        <v>47.38237995143614</v>
       </c>
     </row>
     <row r="872">
@@ -22421,7 +22421,7 @@
         </is>
       </c>
       <c r="E872" t="n">
-        <v>33.30281484277818</v>
+        <v>52.8339282612089</v>
       </c>
     </row>
     <row r="873">
@@ -22446,7 +22446,7 @@
         </is>
       </c>
       <c r="E873" t="n">
-        <v>33.63406490670345</v>
+        <v>55.53397154250588</v>
       </c>
     </row>
     <row r="874">
@@ -22471,7 +22471,7 @@
         </is>
       </c>
       <c r="E874" t="n">
-        <v>32.24308509549797</v>
+        <v>38.40093376085936</v>
       </c>
     </row>
     <row r="875">
@@ -22496,7 +22496,7 @@
         </is>
       </c>
       <c r="E875" t="n">
-        <v>34.12246241274484</v>
+        <v>51.68212467654162</v>
       </c>
     </row>
     <row r="876">
@@ -22521,7 +22521,7 @@
         </is>
       </c>
       <c r="E876" t="n">
-        <v>34.65903506652932</v>
+        <v>57.28967854635933</v>
       </c>
     </row>
     <row r="877">
@@ -22546,7 +22546,7 @@
         </is>
       </c>
       <c r="E877" t="n">
-        <v>26.80370861562266</v>
+        <v>32.76925684100588</v>
       </c>
     </row>
     <row r="878">
@@ -22571,7 +22571,7 @@
         </is>
       </c>
       <c r="E878" t="n">
-        <v>26.45639340015894</v>
+        <v>33.13877287123883</v>
       </c>
     </row>
     <row r="879">
@@ -22596,7 +22596,7 @@
         </is>
       </c>
       <c r="E879" t="n">
-        <v>27.16881021076151</v>
+        <v>38.5901872864883</v>
       </c>
     </row>
     <row r="880">
@@ -22621,7 +22621,7 @@
         </is>
       </c>
       <c r="E880" t="n">
-        <v>27.56540339992691</v>
+        <v>41.29021072099881</v>
       </c>
     </row>
     <row r="881">
@@ -22646,7 +22646,7 @@
         </is>
       </c>
       <c r="E881" t="n">
-        <v>26.4626577848401</v>
+        <v>24.15757550031386</v>
       </c>
     </row>
     <row r="882">
@@ -22671,7 +22671,7 @@
         </is>
       </c>
       <c r="E882" t="n">
-        <v>27.59745993087297</v>
+        <v>37.43839764126547</v>
       </c>
     </row>
     <row r="883">
@@ -22696,7 +22696,7 @@
         </is>
       </c>
       <c r="E883" t="n">
-        <v>28.23663063830327</v>
+        <v>43.04584984250478</v>
       </c>
     </row>
     <row r="884">
@@ -22721,7 +22721,7 @@
         </is>
       </c>
       <c r="E884" t="n">
-        <v>26.64748265271047</v>
+        <v>13.83462503720962</v>
       </c>
     </row>
     <row r="885">
@@ -22746,7 +22746,7 @@
         </is>
       </c>
       <c r="E885" t="n">
-        <v>27.98166986084696</v>
+        <v>40.4293862629291</v>
       </c>
     </row>
     <row r="886">
@@ -22771,7 +22771,7 @@
         </is>
       </c>
       <c r="E886" t="n">
-        <v>28.71062663462059</v>
+        <v>45.90810105036606</v>
       </c>
     </row>
     <row r="887">
@@ -22796,7 +22796,7 @@
         </is>
       </c>
       <c r="E887" t="n">
-        <v>27.96121416883066</v>
+        <v>24.56090370230773</v>
       </c>
     </row>
     <row r="888">
@@ -22821,7 +22821,7 @@
         </is>
       </c>
       <c r="E888" t="n">
-        <v>28.93914213358491</v>
+        <v>33.07022922945494</v>
       </c>
     </row>
     <row r="889">
@@ -22846,7 +22846,7 @@
         </is>
       </c>
       <c r="E889" t="n">
-        <v>29.49532349467279</v>
+        <v>39.3656058514659</v>
       </c>
     </row>
     <row r="890">
@@ -22871,7 +22871,7 @@
         </is>
       </c>
       <c r="E890" t="n">
-        <v>27.67783937507315</v>
+        <v>31.35443427157493</v>
       </c>
     </row>
     <row r="891">
@@ -22896,7 +22896,7 @@
         </is>
       </c>
       <c r="E891" t="n">
-        <v>28.63915934052053</v>
+        <v>38.12014451705996</v>
       </c>
     </row>
     <row r="892">
@@ -22921,7 +22921,7 @@
         </is>
       </c>
       <c r="E892" t="n">
-        <v>29.256123374529</v>
+        <v>41.97078965892179</v>
       </c>
     </row>
     <row r="893">
@@ -22946,7 +22946,7 @@
         </is>
       </c>
       <c r="E893" t="n">
-        <v>29.05218950665618</v>
+        <v>42.34065174289306</v>
       </c>
     </row>
     <row r="894">
@@ -22971,7 +22971,7 @@
         </is>
       </c>
       <c r="E894" t="n">
-        <v>29.78569153249894</v>
+        <v>47.79216871562137</v>
       </c>
     </row>
     <row r="895">
@@ -22996,7 +22996,7 @@
         </is>
       </c>
       <c r="E895" t="n">
-        <v>30.20203831530987</v>
+        <v>50.49222657741525</v>
       </c>
     </row>
     <row r="896">
@@ -23021,7 +23021,7 @@
         </is>
       </c>
       <c r="E896" t="n">
-        <v>28.95317262578282</v>
+        <v>33.35928488223551</v>
       </c>
     </row>
     <row r="897">
@@ -23046,7 +23046,7 @@
         </is>
       </c>
       <c r="E897" t="n">
-        <v>30.1219965021567</v>
+        <v>46.64037925674309</v>
       </c>
     </row>
     <row r="898">
@@ -23071,7 +23071,7 @@
         </is>
       </c>
       <c r="E898" t="n">
-        <v>30.7836026595799</v>
+        <v>52.24796717312093</v>
       </c>
     </row>
     <row r="899">
@@ -23096,7 +23096,7 @@
         </is>
       </c>
       <c r="E899" t="n">
-        <v>16.24525005877005</v>
+        <v>-5.15385642001085</v>
       </c>
     </row>
     <row r="900">
@@ -23121,7 +23121,7 @@
         </is>
       </c>
       <c r="E900" t="n">
-        <v>17.32942466824554</v>
+        <v>21.43780850631545</v>
       </c>
     </row>
     <row r="901">
@@ -23146,7 +23146,7 @@
         </is>
       </c>
       <c r="E901" t="n">
-        <v>17.69480283670166</v>
+        <v>26.91523461791447</v>
       </c>
     </row>
     <row r="902">
@@ -23171,7 +23171,7 @@
         </is>
       </c>
       <c r="E902" t="n">
-        <v>14.05202651296132</v>
+        <v>5.570960362903481</v>
       </c>
     </row>
     <row r="903">
@@ -23196,7 +23196,7 @@
         </is>
       </c>
       <c r="E903" t="n">
-        <v>14.5144981432849</v>
+        <v>14.07766556534951</v>
       </c>
     </row>
     <row r="904">
@@ -23221,7 +23221,7 @@
         </is>
       </c>
       <c r="E904" t="n">
-        <v>14.99305494799925</v>
+        <v>20.371881225363</v>
       </c>
     </row>
     <row r="905">
@@ -23246,7 +23246,7 @@
         </is>
       </c>
       <c r="E905" t="n">
-        <v>14.55518142310786</v>
+        <v>12.36261864552133</v>
       </c>
     </row>
     <row r="906">
@@ -23271,7 +23271,7 @@
         </is>
       </c>
       <c r="E906" t="n">
-        <v>15.1093123732993</v>
+        <v>19.1264339456629</v>
       </c>
     </row>
     <row r="907">
@@ -23296,7 +23296,7 @@
         </is>
       </c>
       <c r="E907" t="n">
-        <v>15.61960113810042</v>
+        <v>22.97626516726526</v>
       </c>
     </row>
     <row r="908">
@@ -23321,7 +23321,7 @@
         </is>
       </c>
       <c r="E908" t="n">
-        <v>14.6308936041708</v>
+        <v>23.34532656886161</v>
       </c>
     </row>
     <row r="909">
@@ -23346,7 +23346,7 @@
         </is>
       </c>
       <c r="E909" t="n">
-        <v>15.27505778684281</v>
+        <v>28.79569210822838</v>
       </c>
     </row>
     <row r="910">
@@ -23371,7 +23371,7 @@
         </is>
       </c>
       <c r="E910" t="n">
-        <v>15.56435274223597</v>
+        <v>31.49517293373318</v>
       </c>
     </row>
     <row r="911">
@@ -23396,7 +23396,7 @@
         </is>
       </c>
       <c r="E911" t="n">
-        <v>15.03695161630032</v>
+        <v>14.3652260041592</v>
       </c>
     </row>
     <row r="912">
@@ -23421,7 +23421,7 @@
         </is>
       </c>
       <c r="E912" t="n">
-        <v>16.16503057042731</v>
+        <v>27.64375221752501</v>
       </c>
     </row>
     <row r="913">
@@ -23446,7 +23446,7 @@
         </is>
       </c>
       <c r="E913" t="n">
-        <v>16.59434359650206</v>
+        <v>33.24990863187857</v>
       </c>
     </row>
     <row r="914">
@@ -23471,7 +23471,7 @@
         </is>
       </c>
       <c r="E914" t="n">
-        <v>18.16536697652866</v>
+        <v>-1.697638230626051</v>
       </c>
     </row>
     <row r="915">
@@ -23496,7 +23496,7 @@
         </is>
       </c>
       <c r="E915" t="n">
-        <v>20.2861898271085</v>
+        <v>24.89669886607119</v>
       </c>
     </row>
     <row r="916">
@@ -23521,7 +23521,7 @@
         </is>
       </c>
       <c r="E916" t="n">
-        <v>21.16893095736623</v>
+        <v>30.37495404337593</v>
       </c>
     </row>
     <row r="917">
@@ -23546,7 +23546,7 @@
         </is>
       </c>
       <c r="E917" t="n">
-        <v>13.82892230286028</v>
+        <v>9.027488352003804</v>
       </c>
     </row>
     <row r="918">
@@ -23571,7 +23571,7 @@
         </is>
       </c>
       <c r="E918" t="n">
-        <v>15.40719344337034</v>
+        <v>17.53608196289357</v>
       </c>
     </row>
     <row r="919">
@@ -23596,7 +23596,7 @@
         </is>
       </c>
       <c r="E919" t="n">
-        <v>16.35270454182958</v>
+        <v>23.83108699921702</v>
       </c>
     </row>
     <row r="920">
@@ -23621,7 +23621,7 @@
         </is>
       </c>
       <c r="E920" t="n">
-        <v>14.72838553394296</v>
+        <v>15.82043657856135</v>
       </c>
     </row>
     <row r="921">
@@ -23646,7 +23646,7 @@
         </is>
       </c>
       <c r="E921" t="n">
-        <v>16.2320866697378</v>
+        <v>22.58562840916087</v>
       </c>
     </row>
     <row r="922">
@@ -23671,7 +23671,7 @@
         </is>
       </c>
       <c r="E922" t="n">
-        <v>11.45263601742303</v>
+        <v>-0.6506208122513435</v>
       </c>
     </row>
     <row r="923">
@@ -23696,7 +23696,7 @@
         </is>
       </c>
       <c r="E923" t="n">
-        <v>14.73962460737489</v>
+        <v>25.94127762869887</v>
       </c>
     </row>
     <row r="924">
@@ -23721,7 +23721,7 @@
         </is>
       </c>
       <c r="E924" t="n">
-        <v>15.26483301183467</v>
+        <v>31.41870716261504</v>
       </c>
     </row>
     <row r="925">
@@ -23746,7 +23746,7 @@
         </is>
       </c>
       <c r="E925" t="n">
-        <v>12.18015986293698</v>
+        <v>10.07462499014976</v>
       </c>
     </row>
     <row r="926">
@@ -23771,7 +23771,7 @@
         </is>
       </c>
       <c r="E926" t="n">
-        <v>13.54200007022465</v>
+        <v>18.58145878634271</v>
       </c>
     </row>
     <row r="927">
@@ -23796,7 +23796,7 @@
         </is>
       </c>
       <c r="E927" t="n">
-        <v>14.15559369186186</v>
+        <v>24.8756734707085</v>
       </c>
     </row>
     <row r="928">
@@ -23821,7 +23821,7 @@
         </is>
       </c>
       <c r="E928" t="n">
-        <v>12.23321047498919</v>
+        <v>16.86638290610741</v>
       </c>
     </row>
     <row r="929">
@@ -23846,7 +23846,7 @@
         </is>
       </c>
       <c r="E929" t="n">
-        <v>13.60720526321131</v>
+        <v>23.63030564953472</v>
       </c>
     </row>
     <row r="930">
@@ -23871,7 +23871,7 @@
         </is>
       </c>
       <c r="E930" t="n">
-        <v>14.3460353797655</v>
+        <v>27.48013493863376</v>
       </c>
     </row>
     <row r="931">
@@ -23896,7 +23896,7 @@
         </is>
       </c>
       <c r="E931" t="n">
-        <v>14.39612661231107</v>
+        <v>27.84926945815046</v>
       </c>
     </row>
     <row r="932">
@@ -23921,7 +23921,7 @@
         </is>
       </c>
       <c r="E932" t="n">
-        <v>16.02118544748834</v>
+        <v>33.29969497770783</v>
       </c>
     </row>
     <row r="933">
@@ -23946,7 +23946,7 @@
         </is>
       </c>
       <c r="E933" t="n">
-        <v>16.4124833474045</v>
+        <v>35.99917997398377</v>
       </c>
     </row>
     <row r="934">
@@ -23971,7 +23971,7 @@
         </is>
       </c>
       <c r="E934" t="n">
-        <v>15.15369376020829</v>
+        <v>18.86904567512154</v>
       </c>
     </row>
     <row r="935">
@@ -23996,7 +23996,7 @@
         </is>
       </c>
       <c r="E935" t="n">
-        <v>17.9655587280872</v>
+        <v>32.14773799477094</v>
       </c>
     </row>
     <row r="936">
@@ -24021,7 +24021,7 @@
         </is>
       </c>
       <c r="E936" t="n">
-        <v>18.55476535883181</v>
+        <v>37.75389920672917</v>
       </c>
     </row>
     <row r="937">
@@ -24046,7 +24046,7 @@
         </is>
       </c>
       <c r="E937" t="n">
-        <v>16.17689641790865</v>
+        <v>2.806186376887428</v>
       </c>
     </row>
     <row r="938">
@@ -24071,7 +24071,7 @@
         </is>
       </c>
       <c r="E938" t="n">
-        <v>23.48670742899155</v>
+        <v>29.40075700674534</v>
       </c>
     </row>
     <row r="939">
@@ -24096,7 +24096,7 @@
         </is>
       </c>
       <c r="E939" t="n">
-        <v>25.45135955426738</v>
+        <v>34.87901560876533</v>
       </c>
     </row>
     <row r="940">
@@ -24121,7 +24121,7 @@
         </is>
       </c>
       <c r="E940" t="n">
-        <v>21.30760054233076</v>
+        <v>13.53174201634132</v>
       </c>
     </row>
     <row r="941">
@@ -24146,7 +24146,7 @@
         </is>
       </c>
       <c r="E941" t="n">
-        <v>25.78997454522484</v>
+        <v>22.04046423371047</v>
       </c>
     </row>
     <row r="942">
@@ -24171,7 +24171,7 @@
         </is>
       </c>
       <c r="E942" t="n">
-        <v>27.16828252700617</v>
+        <v>28.33546829635073</v>
       </c>
     </row>
     <row r="943">
@@ -24196,7 +24196,7 @@
         </is>
       </c>
       <c r="E943" t="n">
-        <v>20.13438847815377</v>
+        <v>20.3247898921223</v>
       </c>
     </row>
     <row r="944">
@@ -24221,7 +24221,7 @@
         </is>
       </c>
       <c r="E944" t="n">
-        <v>24.41794523939969</v>
+        <v>27.09008917561876</v>
       </c>
     </row>
     <row r="945">
@@ -24246,7 +24246,7 @@
         </is>
       </c>
       <c r="E945" t="n">
-        <v>10.34835831044784</v>
+        <v>1.813053324650316</v>
       </c>
     </row>
     <row r="946">
@@ -24271,7 +24271,7 @@
         </is>
       </c>
       <c r="E946" t="n">
-        <v>13.64416995844672</v>
+        <v>28.40495619699717</v>
       </c>
     </row>
     <row r="947">
@@ -24296,7 +24296,7 @@
         </is>
       </c>
       <c r="E947" t="n">
-        <v>14.20974730906002</v>
+        <v>33.88237658181181</v>
       </c>
     </row>
     <row r="948">
@@ -24321,7 +24321,7 @@
         </is>
       </c>
       <c r="E948" t="n">
-        <v>11.02156492787509</v>
+        <v>12.53848355403212</v>
       </c>
     </row>
     <row r="949">
@@ -24346,7 +24346,7 @@
         </is>
       </c>
       <c r="E949" t="n">
-        <v>12.39052073468532</v>
+        <v>21.04535062761075</v>
       </c>
     </row>
     <row r="950">
@@ -24371,7 +24371,7 @@
         </is>
       </c>
       <c r="E950" t="n">
-        <v>13.0593640630541</v>
+        <v>27.33954703771879</v>
       </c>
     </row>
     <row r="951">
@@ -24396,7 +24396,7 @@
         </is>
       </c>
       <c r="E951" t="n">
-        <v>11.24650320392436</v>
+        <v>19.33025830459515</v>
       </c>
     </row>
     <row r="952">
@@ -24421,7 +24421,7 @@
         </is>
       </c>
       <c r="E952" t="n">
-        <v>12.63282220694479</v>
+        <v>26.09420876933912</v>
       </c>
     </row>
     <row r="953">
@@ -24446,7 +24446,7 @@
         </is>
       </c>
       <c r="E953" t="n">
-        <v>13.43607472198375</v>
+        <v>29.944028224815</v>
       </c>
     </row>
     <row r="954">
@@ -24471,7 +24471,7 @@
         </is>
       </c>
       <c r="E954" t="n">
-        <v>12.99019427154339</v>
+        <v>30.31317345691271</v>
       </c>
     </row>
     <row r="955">
@@ -24496,7 +24496,7 @@
         </is>
       </c>
       <c r="E955" t="n">
-        <v>14.62423630145537</v>
+        <v>35.76360680821035</v>
       </c>
     </row>
     <row r="956">
@@ -24521,7 +24521,7 @@
         </is>
       </c>
       <c r="E956" t="n">
-        <v>15.03010063171281</v>
+        <v>38.46308698702622</v>
       </c>
     </row>
     <row r="957">
@@ -24546,7 +24546,7 @@
         </is>
       </c>
       <c r="E957" t="n">
-        <v>13.71421347893071</v>
+        <v>21.33292117230436</v>
       </c>
     </row>
     <row r="958">
@@ -24571,7 +24571,7 @@
         </is>
       </c>
       <c r="E958" t="n">
-        <v>16.54093759322873</v>
+        <v>34.61164283333672</v>
       </c>
     </row>
     <row r="959">
@@ -24596,7 +24596,7 @@
         </is>
       </c>
       <c r="E959" t="n">
-        <v>17.14501303852361</v>
+        <v>40.21779263844822</v>
       </c>
     </row>
     <row r="960">
@@ -24621,7 +24621,7 @@
         </is>
       </c>
       <c r="E960" t="n">
-        <v>14.44716133135473</v>
+        <v>5.270151027372624</v>
       </c>
     </row>
     <row r="961">
@@ -24646,7 +24646,7 @@
         </is>
       </c>
       <c r="E961" t="n">
-        <v>21.73756707267152</v>
+        <v>31.86472608634957</v>
       </c>
     </row>
     <row r="962">
@@ -24671,7 +24671,7 @@
         </is>
       </c>
       <c r="E962" t="n">
-        <v>23.81760795207633</v>
+        <v>37.34297553776896</v>
       </c>
     </row>
     <row r="963">
@@ -24696,7 +24696,7 @@
         </is>
       </c>
       <c r="E963" t="n">
-        <v>19.03747195162233</v>
+        <v>15.99589111037502</v>
       </c>
     </row>
     <row r="964">
@@ -24721,7 +24721,7 @@
         </is>
       </c>
       <c r="E964" t="n">
-        <v>23.58522660809906</v>
+        <v>24.50464660417898</v>
       </c>
     </row>
     <row r="965">
@@ -24746,7 +24746,7 @@
         </is>
       </c>
       <c r="E965" t="n">
-        <v>25.0497362682022</v>
+        <v>30.79963239077809</v>
       </c>
     </row>
     <row r="966">
@@ -24771,7 +24771,7 @@
         </is>
       </c>
       <c r="E966" t="n">
-        <v>18.01644575365841</v>
+        <v>22.78895582253786</v>
       </c>
     </row>
     <row r="967">
@@ -24796,7 +24796,7 @@
         </is>
       </c>
       <c r="E967" t="n">
-        <v>22.37827865986697</v>
+        <v>29.55428282649025</v>
       </c>
     </row>
     <row r="968">
@@ -24821,7 +24821,7 @@
         </is>
       </c>
       <c r="E968" t="n">
-        <v>11.52372306462118</v>
+        <v>-3.227323331887572</v>
       </c>
     </row>
     <row r="969">
@@ -24846,7 +24846,7 @@
         </is>
       </c>
       <c r="E969" t="n">
-        <v>13.70402046253714</v>
+        <v>23.36448007260681</v>
       </c>
     </row>
     <row r="970">
@@ -24871,7 +24871,7 @@
         </is>
       </c>
       <c r="E970" t="n">
-        <v>14.5411400724896</v>
+        <v>28.84193515176317</v>
       </c>
     </row>
     <row r="971">
@@ -24896,7 +24896,7 @@
         </is>
       </c>
       <c r="E971" t="n">
-        <v>11.81275758837807</v>
+        <v>7.497722345714539</v>
       </c>
     </row>
     <row r="972">
@@ -24921,7 +24921,7 @@
         </is>
       </c>
       <c r="E972" t="n">
-        <v>12.66845356444541</v>
+        <v>16.00451364275985</v>
       </c>
     </row>
     <row r="973">
@@ -24946,7 +24946,7 @@
         </is>
       </c>
       <c r="E973" t="n">
-        <v>13.36480493825106</v>
+        <v>22.29875092778135</v>
       </c>
     </row>
     <row r="974">
@@ -24971,7 +24971,7 @@
         </is>
       </c>
       <c r="E974" t="n">
-        <v>11.89890042981881</v>
+        <v>14.28942087962192</v>
       </c>
     </row>
     <row r="975">
@@ -24996,7 +24996,7 @@
         </is>
       </c>
       <c r="E975" t="n">
-        <v>12.80343099729697</v>
+        <v>21.05330449443928</v>
       </c>
     </row>
     <row r="976">
@@ -25021,7 +25021,7 @@
         </is>
       </c>
       <c r="E976" t="n">
-        <v>13.58209417149222</v>
+        <v>24.90315304456108</v>
       </c>
     </row>
     <row r="977">
@@ -25046,7 +25046,7 @@
         </is>
       </c>
       <c r="E977" t="n">
-        <v>12.99132190612706</v>
+        <v>25.27222179878375</v>
       </c>
     </row>
     <row r="978">
@@ -25071,7 +25071,7 @@
         </is>
       </c>
       <c r="E978" t="n">
-        <v>13.86009149699498</v>
+        <v>30.72262381356321</v>
       </c>
     </row>
     <row r="979">
@@ -25096,7 +25096,7 @@
         </is>
       </c>
       <c r="E979" t="n">
-        <v>14.38261222295191</v>
+        <v>33.42211857042453</v>
       </c>
     </row>
     <row r="980">
@@ -25121,7 +25121,7 @@
         </is>
       </c>
       <c r="E980" t="n">
-        <v>13.79842235574343</v>
+        <v>16.29204883587791</v>
       </c>
     </row>
     <row r="981">
@@ -25146,7 +25146,7 @@
         </is>
       </c>
       <c r="E981" t="n">
-        <v>15.2734674692432</v>
+        <v>29.57067396069018</v>
       </c>
     </row>
     <row r="982">
@@ -25171,7 +25171,7 @@
         </is>
       </c>
       <c r="E982" t="n">
-        <v>16.10698100300616</v>
+        <v>35.17685780702898</v>
       </c>
     </row>
     <row r="983">
@@ -25196,7 +25196,7 @@
         </is>
       </c>
       <c r="E983" t="n">
-        <v>17.10944579994076</v>
+        <v>0.2291877543726351</v>
       </c>
     </row>
     <row r="984">
@@ -25221,7 +25221,7 @@
         </is>
       </c>
       <c r="E984" t="n">
-        <v>21.24301593991408</v>
+        <v>26.82366333962917</v>
       </c>
     </row>
     <row r="985">
@@ -25246,7 +25246,7 @@
         </is>
       </c>
       <c r="E985" t="n">
-        <v>23.12108840159096</v>
+        <v>32.30194748774541</v>
       </c>
     </row>
     <row r="986">
@@ -25271,7 +25271,7 @@
         </is>
       </c>
       <c r="E986" t="n">
-        <v>19.22236538112094</v>
+        <v>10.95454324819226</v>
       </c>
     </row>
     <row r="987">
@@ -25296,7 +25296,7 @@
         </is>
       </c>
       <c r="E987" t="n">
-        <v>22.16517539523023</v>
+        <v>19.46322296164881</v>
       </c>
     </row>
     <row r="988">
@@ -25321,7 +25321,7 @@
         </is>
       </c>
       <c r="E988" t="n">
-        <v>23.6029924557893</v>
+        <v>25.7582496250745</v>
       </c>
     </row>
     <row r="989">
@@ -25346,7 +25346,7 @@
         </is>
       </c>
       <c r="E989" t="n">
-        <v>18.74081795047791</v>
+        <v>17.74753173504594</v>
       </c>
     </row>
     <row r="990">
@@ -25371,7 +25371,7 @@
         </is>
       </c>
       <c r="E990" t="n">
-        <v>21.66134217956939</v>
+        <v>24.51279188630697</v>
       </c>
     </row>
     <row r="991">
@@ -25396,7 +25396,7 @@
         </is>
       </c>
       <c r="E991" t="n">
-        <v>17.17917518559426</v>
+        <v>26.43599630701904</v>
       </c>
     </row>
     <row r="992">
@@ -25421,7 +25421,7 @@
         </is>
       </c>
       <c r="E992" t="n">
-        <v>16.3546622013332</v>
+        <v>26.80543271279051</v>
       </c>
     </row>
     <row r="993">
@@ -25446,7 +25446,7 @@
         </is>
       </c>
       <c r="E993" t="n">
-        <v>17.50492513146648</v>
+        <v>32.25666234919613</v>
       </c>
     </row>
     <row r="994">
@@ -25471,7 +25471,7 @@
         </is>
       </c>
       <c r="E994" t="n">
-        <v>18.11508185225393</v>
+        <v>34.95654905384829</v>
       </c>
     </row>
     <row r="995">
@@ -25496,7 +25496,7 @@
         </is>
       </c>
       <c r="E995" t="n">
-        <v>16.84071239057622</v>
+        <v>17.82452003385488</v>
       </c>
     </row>
     <row r="996">
@@ -25521,7 +25521,7 @@
         </is>
       </c>
       <c r="E996" t="n">
-        <v>18.6757290147531</v>
+        <v>31.10491318540206</v>
       </c>
     </row>
     <row r="997">
@@ -25546,7 +25546,7 @@
         </is>
       </c>
       <c r="E997" t="n">
-        <v>19.60573318210945</v>
+        <v>36.71204549190732</v>
       </c>
     </row>
     <row r="998">
@@ -25571,7 +25571,7 @@
         </is>
       </c>
       <c r="E998" t="n">
-        <v>20.07361639716866</v>
+        <v>7.503667121887322</v>
       </c>
     </row>
     <row r="999">
@@ -25596,7 +25596,7 @@
         </is>
       </c>
       <c r="E999" t="n">
-        <v>22.46305041494044</v>
+        <v>34.09780263651938</v>
       </c>
     </row>
     <row r="1000">
@@ -25621,7 +25621,7 @@
         </is>
       </c>
       <c r="E1000" t="n">
-        <v>23.51463281582506</v>
+        <v>39.57616477766926</v>
       </c>
     </row>
     <row r="1001">
@@ -25646,7 +25646,7 @@
         </is>
       </c>
       <c r="E1001" t="n">
-        <v>15.79850235508879</v>
+        <v>18.2291711014088</v>
       </c>
     </row>
     <row r="1002">
@@ -25671,7 +25671,7 @@
         </is>
       </c>
       <c r="E1002" t="n">
-        <v>17.4849781439345</v>
+        <v>26.73811802165854</v>
       </c>
     </row>
     <row r="1003">
@@ -25696,7 +25696,7 @@
         </is>
       </c>
       <c r="E1003" t="n">
-        <v>18.54720020562228</v>
+        <v>33.03320393413817</v>
       </c>
     </row>
     <row r="1004">
@@ -25721,7 +25721,7 @@
         </is>
       </c>
       <c r="E1004" t="n">
-        <v>16.53776646429925</v>
+        <v>25.02244925279838</v>
       </c>
     </row>
     <row r="1005">
@@ -25746,7 +25746,7 @@
         </is>
       </c>
       <c r="E1005" t="n">
-        <v>18.17929008534087</v>
+        <v>31.78791058853229</v>
       </c>
     </row>
     <row r="1006">
@@ -25771,7 +25771,7 @@
         </is>
       </c>
       <c r="E1006" t="n">
-        <v>19.20910379035412</v>
+        <v>35.63833622433602</v>
       </c>
     </row>
     <row r="1007">
@@ -25796,7 +25796,7 @@
         </is>
       </c>
       <c r="E1007" t="n">
-        <v>18.65688255830037</v>
+        <v>36.00811866507065</v>
       </c>
     </row>
     <row r="1008">
@@ -25821,7 +25821,7 @@
         </is>
       </c>
       <c r="E1008" t="n">
-        <v>19.84062819985953</v>
+        <v>41.45945086767411</v>
       </c>
     </row>
     <row r="1009">
@@ -25846,7 +25846,7 @@
         </is>
       </c>
       <c r="E1009" t="n">
-        <v>20.61881684447652</v>
+        <v>44.15937200092795</v>
       </c>
     </row>
     <row r="1010">
@@ -25871,7 +25871,7 @@
         </is>
       </c>
       <c r="E1010" t="n">
-        <v>19.05762410072573</v>
+        <v>27.02703647578547</v>
       </c>
     </row>
     <row r="1011">
@@ -25896,7 +25896,7 @@
         </is>
       </c>
       <c r="E1011" t="n">
-        <v>20.93182590752129</v>
+        <v>40.30770188516358</v>
       </c>
     </row>
     <row r="1012">
@@ -25921,7 +25921,7 @@
         </is>
       </c>
       <c r="E1012" t="n">
-        <v>22.15511122558611</v>
+        <v>45.91496990981155</v>
       </c>
     </row>
     <row r="1013">
@@ -25946,7 +25946,7 @@
         </is>
       </c>
       <c r="E1013" t="n">
-        <v>25.85237170360975</v>
+        <v>30.94045514244631</v>
       </c>
     </row>
     <row r="1014">
@@ -25971,7 +25971,7 @@
         </is>
       </c>
       <c r="E1014" t="n">
-        <v>28.61863424699434</v>
+        <v>31.30996466742984</v>
       </c>
     </row>
     <row r="1015">
@@ -25996,7 +25996,7 @@
         </is>
       </c>
       <c r="E1015" t="n">
-        <v>31.98379616873635</v>
+        <v>36.76125428900828</v>
       </c>
     </row>
     <row r="1016">
@@ -26021,7 +26021,7 @@
         </is>
       </c>
       <c r="E1016" t="n">
-        <v>33.17270108243107</v>
+        <v>39.46114516545647</v>
       </c>
     </row>
     <row r="1017">
@@ -26046,7 +26046,7 @@
         </is>
       </c>
       <c r="E1017" t="n">
-        <v>29.29189514652001</v>
+        <v>22.32892875874412</v>
       </c>
     </row>
     <row r="1018">
@@ -26071,7 +26071,7 @@
         </is>
       </c>
       <c r="E1018" t="n">
-        <v>34.68320392608683</v>
+        <v>35.60948803138702</v>
       </c>
     </row>
     <row r="1019">
@@ -26096,7 +26096,7 @@
         </is>
       </c>
       <c r="E1019" t="n">
-        <v>36.63798989467849</v>
+        <v>41.21662513822089</v>
       </c>
     </row>
     <row r="1020">
@@ -26121,7 +26121,7 @@
         </is>
       </c>
       <c r="E1020" t="n">
-        <v>24.73424470532851</v>
+        <v>12.00759846732224</v>
       </c>
     </row>
     <row r="1021">
@@ -26146,7 +26146,7 @@
         </is>
       </c>
       <c r="E1021" t="n">
-        <v>32.51369487358286</v>
+        <v>22.73353150321482</v>
       </c>
     </row>
     <row r="1022">
@@ -26171,7 +26171,7 @@
         </is>
       </c>
       <c r="E1022" t="n">
-        <v>37.16767855268227</v>
+        <v>31.24260702953969</v>
       </c>
     </row>
     <row r="1023">
@@ -26196,7 +26196,7 @@
         </is>
       </c>
       <c r="E1023" t="n">
-        <v>38.5362863165958</v>
+        <v>37.5376919677886</v>
       </c>
     </row>
     <row r="1024">
@@ -26221,7 +26221,7 @@
         </is>
       </c>
       <c r="E1024" t="n">
-        <v>30.74324872127542</v>
+        <v>29.52690930584261</v>
       </c>
     </row>
     <row r="1025">
@@ -26246,7 +26246,7 @@
         </is>
       </c>
       <c r="E1025" t="n">
-        <v>35.14782199658213</v>
+        <v>36.29247809352644</v>
       </c>
     </row>
     <row r="1026">
@@ -26271,7 +26271,7 @@
         </is>
       </c>
       <c r="E1026" t="n">
-        <v>36.54640183614479</v>
+        <v>40.14290179786049</v>
       </c>
     </row>
     <row r="1027">
@@ -26296,7 +26296,7 @@
         </is>
       </c>
       <c r="E1027" t="n">
-        <v>40.5789661472346</v>
+        <v>40.51275735468512</v>
       </c>
     </row>
     <row r="1028">
@@ -26321,7 +26321,7 @@
         </is>
       </c>
       <c r="E1028" t="n">
-        <v>44.02223737220206</v>
+        <v>45.96414954170059</v>
       </c>
     </row>
     <row r="1029">
@@ -26346,7 +26346,7 @@
         </is>
       </c>
       <c r="E1029" t="n">
-        <v>45.20642137943584</v>
+        <v>48.66407484593442</v>
       </c>
     </row>
     <row r="1030">
@@ -26371,7 +26371,7 @@
         </is>
       </c>
       <c r="E1030" t="n">
-        <v>40.88171193932457</v>
+        <v>31.53155193510334</v>
       </c>
     </row>
     <row r="1031">
@@ -26396,7 +26396,7 @@
         </is>
       </c>
       <c r="E1031" t="n">
-        <v>46.38315844372939</v>
+        <v>44.81238346453866</v>
       </c>
     </row>
     <row r="1032">
@@ -26421,7 +26421,7 @@
         </is>
       </c>
       <c r="E1032" t="n">
-        <v>48.32853136685139</v>
+        <v>50.41965628807334</v>
       </c>
     </row>
     <row r="1033">
@@ -26446,7 +26446,7 @@
         </is>
       </c>
       <c r="E1033" t="n">
-        <v>23.89689024466855</v>
+        <v>33.40463895869341</v>
       </c>
     </row>
     <row r="1034">
@@ -26471,7 +26471,7 @@
         </is>
       </c>
       <c r="E1034" t="n">
-        <v>26.21470441200211</v>
+        <v>33.77415919185565</v>
       </c>
     </row>
     <row r="1035">
@@ -26496,7 +26496,7 @@
         </is>
       </c>
       <c r="E1035" t="n">
-        <v>29.60984238272441</v>
+        <v>39.2254566441638</v>
       </c>
     </row>
     <row r="1036">
@@ -26521,7 +26521,7 @@
         </is>
       </c>
       <c r="E1036" t="n">
-        <v>30.85042252253059</v>
+        <v>41.9253427020562</v>
       </c>
     </row>
     <row r="1037">
@@ -26546,7 +26546,7 @@
         </is>
       </c>
       <c r="E1037" t="n">
-        <v>26.92688528717022</v>
+        <v>24.79309477939167</v>
       </c>
     </row>
     <row r="1038">
@@ -26571,7 +26571,7 @@
         </is>
       </c>
       <c r="E1038" t="n">
-        <v>32.35584463113049</v>
+        <v>38.07368339324712</v>
       </c>
     </row>
     <row r="1039">
@@ -26596,7 +26596,7 @@
         </is>
       </c>
       <c r="E1039" t="n">
-        <v>34.39031645231407</v>
+        <v>43.68080909096086</v>
       </c>
     </row>
     <row r="1040">
@@ -26621,7 +26621,7 @@
         </is>
       </c>
       <c r="E1040" t="n">
-        <v>23.05527393123543</v>
+        <v>14.47159500169819</v>
       </c>
     </row>
     <row r="1041">
@@ -26646,7 +26646,7 @@
         </is>
       </c>
       <c r="E1041" t="n">
-        <v>30.62358420982087</v>
+        <v>41.06596847427973</v>
       </c>
     </row>
     <row r="1042">
@@ -26671,7 +26671,7 @@
         </is>
       </c>
       <c r="E1042" t="n">
-        <v>32.52407715227573</v>
+        <v>46.54432488692369</v>
       </c>
     </row>
     <row r="1043">
@@ -26696,7 +26696,7 @@
         </is>
       </c>
       <c r="E1043" t="n">
-        <v>30.34832581790747</v>
+        <v>25.19771247902755</v>
       </c>
     </row>
     <row r="1044">
@@ -26721,7 +26721,7 @@
         </is>
       </c>
       <c r="E1044" t="n">
-        <v>35.06801324412279</v>
+        <v>33.70682127950722</v>
       </c>
     </row>
     <row r="1045">
@@ -26746,7 +26746,7 @@
         </is>
       </c>
       <c r="E1045" t="n">
-        <v>36.52452231446155</v>
+        <v>40.00188794089964</v>
       </c>
     </row>
     <row r="1046">
@@ -26771,7 +26771,7 @@
         </is>
       </c>
       <c r="E1046" t="n">
-        <v>28.72714759182462</v>
+        <v>31.99110711929673</v>
       </c>
     </row>
     <row r="1047">
@@ -26796,7 +26796,7 @@
         </is>
       </c>
       <c r="E1047" t="n">
-        <v>33.21239968709637</v>
+        <v>38.75670362554213</v>
       </c>
     </row>
     <row r="1048">
@@ -26821,7 +26821,7 @@
         </is>
       </c>
       <c r="E1048" t="n">
-        <v>34.69501642770462</v>
+        <v>42.60711749471893</v>
       </c>
     </row>
     <row r="1049">
@@ -26846,7 +26846,7 @@
         </is>
       </c>
       <c r="E1049" t="n">
-        <v>38.2898046618474</v>
+        <v>42.97698375683122</v>
       </c>
     </row>
     <row r="1050">
@@ -26871,7 +26871,7 @@
         </is>
       </c>
       <c r="E1050" t="n">
-        <v>41.76209822095476</v>
+        <v>48.42838377316487</v>
       </c>
     </row>
     <row r="1051">
@@ -26896,7 +26896,7 @@
         </is>
       </c>
       <c r="E1051" t="n">
-        <v>42.98849414344562</v>
+        <v>51.1283042588296</v>
       </c>
     </row>
     <row r="1052">
@@ -26921,7 +26921,7 @@
         </is>
       </c>
       <c r="E1052" t="n">
-        <v>38.63173855057251</v>
+        <v>33.99574983409828</v>
       </c>
     </row>
     <row r="1053">
@@ -26946,7 +26946,7 @@
         </is>
       </c>
       <c r="E1053" t="n">
-        <v>44.16977997133451</v>
+        <v>47.2766107032166</v>
       </c>
     </row>
     <row r="1054">
@@ -26971,7 +26971,7 @@
         </is>
       </c>
       <c r="E1054" t="n">
-        <v>46.1754902236184</v>
+        <v>52.88387211592256</v>
       </c>
     </row>
     <row r="1055">
@@ -26996,7 +26996,7 @@
         </is>
       </c>
       <c r="E1055" t="n">
-        <v>23.25975186428656</v>
+        <v>28.3631771146366</v>
       </c>
     </row>
     <row r="1056">
@@ -27021,7 +27021,7 @@
         </is>
       </c>
       <c r="E1056" t="n">
-        <v>22.29867650534147</v>
+        <v>28.73262087004749</v>
       </c>
     </row>
     <row r="1057">
@@ -27046,7 +27046,7 @@
         </is>
       </c>
       <c r="E1057" t="n">
-        <v>24.49243201235068</v>
+        <v>34.1838869848976</v>
       </c>
     </row>
     <row r="1058">
@@ -27071,7 +27071,7 @@
         </is>
       </c>
       <c r="E1058" t="n">
-        <v>25.67800523741481</v>
+        <v>36.8837876223558</v>
       </c>
     </row>
     <row r="1059">
@@ -27096,7 +27096,7 @@
         </is>
       </c>
       <c r="E1059" t="n">
-        <v>22.39907987155082</v>
+        <v>19.75163578709938</v>
       </c>
     </row>
     <row r="1060">
@@ -27121,7 +27121,7 @@
         </is>
       </c>
       <c r="E1060" t="n">
-        <v>25.89451232278699</v>
+        <v>33.03212785882722</v>
       </c>
     </row>
     <row r="1061">
@@ -27146,7 +27146,7 @@
         </is>
       </c>
       <c r="E1061" t="n">
-        <v>27.81214135429181</v>
+        <v>38.63928760043969</v>
       </c>
     </row>
     <row r="1062">
@@ -27171,7 +27171,7 @@
         </is>
       </c>
       <c r="E1062" t="n">
-        <v>24.94733236427522</v>
+        <v>9.430591542365921</v>
       </c>
     </row>
     <row r="1063">
@@ -27196,7 +27196,7 @@
         </is>
       </c>
       <c r="E1063" t="n">
-        <v>29.30434632246612</v>
+        <v>36.02486554420905</v>
       </c>
     </row>
     <row r="1064">
@@ -27221,7 +27221,7 @@
         </is>
       </c>
       <c r="E1064" t="n">
-        <v>31.16905714425703</v>
+        <v>41.50325665518308</v>
       </c>
     </row>
     <row r="1065">
@@ -27246,7 +27246,7 @@
         </is>
       </c>
       <c r="E1065" t="n">
-        <v>29.16604968434037</v>
+        <v>20.15632443402031</v>
       </c>
     </row>
     <row r="1066">
@@ -27271,7 +27271,7 @@
         </is>
       </c>
       <c r="E1066" t="n">
-        <v>32.24798144891199</v>
+        <v>28.6653574567642</v>
       </c>
     </row>
     <row r="1067">
@@ -27296,7 +27296,7 @@
         </is>
       </c>
       <c r="E1067" t="n">
-        <v>33.83745853751633</v>
+        <v>34.96046499566144</v>
       </c>
     </row>
     <row r="1068">
@@ -27321,7 +27321,7 @@
         </is>
       </c>
       <c r="E1068" t="n">
-        <v>28.19363821422347</v>
+        <v>26.94964284786143</v>
       </c>
     </row>
     <row r="1069">
@@ -27346,7 +27346,7 @@
         </is>
       </c>
       <c r="E1069" t="n">
-        <v>31.24341716305441</v>
+        <v>33.71517250403458</v>
       </c>
     </row>
     <row r="1070">
@@ -27371,7 +27371,7 @@
         </is>
       </c>
       <c r="E1070" t="n">
-        <v>32.9737353302455</v>
+        <v>37.5656154694404</v>
       </c>
     </row>
     <row r="1071">
@@ -27396,7 +27396,7 @@
         </is>
       </c>
       <c r="E1071" t="n">
-        <v>32.7119890872365</v>
+        <v>37.93540525900808</v>
       </c>
     </row>
     <row r="1072">
@@ -27421,7 +27421,7 @@
         </is>
       </c>
       <c r="E1072" t="n">
-        <v>34.99187742907332</v>
+        <v>43.38677393968358</v>
       </c>
     </row>
     <row r="1073">
@@ -27446,7 +27446,7 @@
         </is>
       </c>
       <c r="E1073" t="n">
-        <v>36.23696213820418</v>
+        <v>46.0867090051059</v>
       </c>
     </row>
     <row r="1074">
@@ -27471,7 +27471,7 @@
         </is>
       </c>
       <c r="E1074" t="n">
-        <v>32.4144584722853</v>
+        <v>28.9542506644511</v>
       </c>
     </row>
     <row r="1075">
@@ -27496,7 +27496,7 @@
         </is>
       </c>
       <c r="E1075" t="n">
-        <v>36.04001169397259</v>
+        <v>42.23501499451545</v>
       </c>
     </row>
     <row r="1076">
@@ -27521,7 +27521,7 @@
         </is>
       </c>
       <c r="E1076" t="n">
-        <v>38.03103676846654</v>
+        <v>47.84231045283055</v>
       </c>
     </row>
   </sheetData>
